--- a/Reference/AeroToolKitFunctionList.xlsx
+++ b/Reference/AeroToolKitFunctionList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fs272\AeroProgs\StdAtmoAddIn\AeroToolKitAddIn\Reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D11D4BB2-1E54-4D05-A94D-EFACBC48D40E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DF0D0D-C9D1-4926-A6BB-599BD54CC991}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -378,9 +378,6 @@
     <t>AeroGeoptlAlt_ft_fTapeAlt</t>
   </si>
   <si>
-    <t>AeroGeoptlAlt_m_fTapeAlt</t>
-  </si>
-  <si>
     <t>AeroHp_fQnhHPaGeoPtlAlt</t>
   </si>
   <si>
@@ -900,24 +897,6 @@
     <t>AeroSpdSnd_kts_fOatRankine</t>
   </si>
   <si>
-    <t>AeroSpdSnd_mPerSec_fIsaDevCelsiusHp</t>
-  </si>
-  <si>
-    <t>AeroSpdSnd_mPerSec_fIsaDevFahrenheitHp</t>
-  </si>
-  <si>
-    <t>AeroSpdSnd_mPerSec_fOatCelsius</t>
-  </si>
-  <si>
-    <t>AeroSpdSnd_mPerSec_fOatFahrenheit</t>
-  </si>
-  <si>
-    <t>AeroSpdSnd_mPerSec_fOatKelvin</t>
-  </si>
-  <si>
-    <t>AeroSpdSnd_mPerSec_fOatRankine</t>
-  </si>
-  <si>
     <t>AeroSpdSndStdDay_ftPerSec_fHp</t>
   </si>
   <si>
@@ -927,18 +906,12 @@
     <t>AeroSpdSndStdDay_kts_fHp</t>
   </si>
   <si>
-    <t>AeroSpdSndStdDay_mPerSec_fHp</t>
-  </si>
-  <si>
     <t>AeroSubsonicKeasOverKcas_fHpQc</t>
   </si>
   <si>
     <t>AeroTapeAlt_ft_fGeoptlAlt</t>
   </si>
   <si>
-    <t>AeroTapeAlt_m_fGeoptlAlt</t>
-  </si>
-  <si>
     <t>AeroTheta_fIsaDevCelsiusHp</t>
   </si>
   <si>
@@ -1672,9 +1645,6 @@
   </si>
   <si>
     <t>mPerSec</t>
-  </si>
-  <si>
-    <t>m</t>
   </si>
   <si>
     <t>nm</t>
@@ -2455,6 +2425,36 @@
   </si>
   <si>
     <t>Convert nautical miles to kilometers</t>
+  </si>
+  <si>
+    <t>AeroSpdSnd_meterPerSec_fIsaDevCelsiusHp</t>
+  </si>
+  <si>
+    <t>AeroSpdSnd_meterPerSec_fIsaDevFahrenheitHp</t>
+  </si>
+  <si>
+    <t>AeroSpdSnd_meterPerSec_fOatCelsius</t>
+  </si>
+  <si>
+    <t>AeroSpdSnd_meterPerSec_fOatFahrenheit</t>
+  </si>
+  <si>
+    <t>AeroSpdSnd_meterPerSec_fOatKelvin</t>
+  </si>
+  <si>
+    <t>AeroSpdSnd_meterPerSec_fOatRankine</t>
+  </si>
+  <si>
+    <t>AeroSpdSndStdDay_meterPerSec_fHp</t>
+  </si>
+  <si>
+    <t>AeroTapeAlt_meter_fGeoptlAlt</t>
+  </si>
+  <si>
+    <t>AeroGeoptlAlt_meter_fTapeAlt</t>
+  </si>
+  <si>
+    <t>meter</t>
   </si>
 </sst>
 </file>
@@ -3131,8 +3131,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C73" sqref="C6:C73"/>
+    <sheetView tabSelected="1" topLeftCell="A181" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3152,60 +3152,60 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>70</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="H2" s="2">
         <v>2</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>5</v>
@@ -3216,25 +3216,25 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="H3" s="2">
         <v>2</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>6</v>
@@ -3245,22 +3245,22 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="H4" s="2">
         <v>1</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>45</v>
@@ -3271,22 +3271,22 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="H5" s="2">
         <v>1</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>45</v>
@@ -3297,22 +3297,22 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>79</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="H6" s="2">
         <v>1</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>45</v>
@@ -3323,48 +3323,48 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="H7" s="2">
         <v>1</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="H8" s="2">
         <v>1</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>7</v>
@@ -3375,77 +3375,77 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>82</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="H9" s="2">
         <v>1</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="H10" s="2">
         <v>1</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="H11" s="2">
         <v>1</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>2</v>
@@ -3453,25 +3453,25 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="H12" s="2">
         <v>1</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>11</v>
@@ -3479,25 +3479,25 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="H13" s="2">
         <v>1</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>61</v>
@@ -3505,48 +3505,48 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="H14" s="2">
         <v>1</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="H15" s="2">
         <v>1</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>12</v>
@@ -3557,244 +3557,244 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="H16" s="2">
         <v>1</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="H17" s="2">
         <v>1</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>790</v>
+        <v>780</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="H18" s="2">
         <v>1</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>12</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>86</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="H19" s="2">
         <v>1</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="H20" s="2">
         <v>1</v>
       </c>
       <c r="I20" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="J20" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>610</v>
-      </c>
       <c r="K20" s="2" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>88</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="H21" s="2">
         <v>1</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>89</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="H22" s="2">
         <v>1</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>90</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="H23" s="2">
         <v>1</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="H24" s="2">
         <v>1</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>92</v>
@@ -3806,7 +3806,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>74</v>
@@ -3817,10 +3817,10 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>93</v>
@@ -3832,21 +3832,21 @@
         <v>1</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>74</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>94</v>
@@ -3858,33 +3858,33 @@
         <v>1</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>74</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="H28" s="2">
         <v>1</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>48</v>
@@ -3895,77 +3895,77 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>96</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="H29" s="2">
         <v>1</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>48</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="H30" s="2">
         <v>1</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>48</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>98</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="H31" s="2">
         <v>1</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>45</v>
@@ -3973,25 +3973,25 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>99</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="H32" s="2">
         <v>1</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>7</v>
@@ -3999,39 +3999,39 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="H33" s="2">
         <v>1</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>73</v>
@@ -4040,7 +4040,7 @@
         <v>1</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>65</v>
@@ -4051,22 +4051,22 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>101</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="H35" s="2">
         <v>1</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>2</v>
@@ -4077,22 +4077,22 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="H36" s="2">
         <v>1</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>2</v>
@@ -4103,22 +4103,22 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="H37" s="2">
         <v>1</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>2</v>
@@ -4129,51 +4129,51 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="H38" s="2">
         <v>1</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>2</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>102</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="H39" s="2">
         <v>1</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>74</v>
@@ -4181,25 +4181,25 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>103</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="H40" s="2">
         <v>1</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>48</v>
@@ -4207,51 +4207,51 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>104</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="H41" s="2">
         <v>1</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="H42" s="2">
         <v>1</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>74</v>
@@ -4259,25 +4259,25 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>106</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="H43" s="2">
         <v>1</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>48</v>
@@ -4285,48 +4285,48 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>107</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="H44" s="2">
         <v>1</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="H45" s="2">
         <v>1</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>11</v>
@@ -4337,22 +4337,22 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="H46" s="2">
         <v>1</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>11</v>
@@ -4363,22 +4363,22 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="H47" s="2">
         <v>1</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>11</v>
@@ -4389,51 +4389,51 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="C48" s="30" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="H48" s="2">
         <v>1</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="H49" s="2">
         <v>1</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="K49" s="2" t="s">
         <v>2</v>
@@ -4441,25 +4441,25 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="C50" s="30" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="H50" s="2">
         <v>1</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>11</v>
@@ -4467,25 +4467,25 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="C51" s="30" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="H51" s="2">
         <v>1</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>61</v>
@@ -4493,25 +4493,25 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="C52" s="30" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="H52" s="2">
         <v>1</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>10</v>
@@ -4519,22 +4519,22 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="C53" s="30" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="H53" s="2">
         <v>1</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>784</v>
+        <v>774</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>61</v>
@@ -4545,22 +4545,22 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="C54" s="30" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="H54" s="2">
         <v>1</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>61</v>
@@ -4571,48 +4571,48 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="C55" s="30" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="H55" s="2">
         <v>1</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>61</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="C56" s="30" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="H56" s="2">
         <v>1</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>61</v>
@@ -4623,22 +4623,22 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>549</v>
+        <v>802</v>
       </c>
       <c r="H57" s="2">
         <v>1</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>14</v>
@@ -4649,103 +4649,103 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>549</v>
+        <v>802</v>
       </c>
       <c r="H58" s="2">
         <v>1</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="C59" s="30" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>549</v>
+        <v>802</v>
       </c>
       <c r="H59" s="2">
         <v>1</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="C60" s="30" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>549</v>
+        <v>802</v>
       </c>
       <c r="H60" s="2">
         <v>1</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="H61" s="2">
         <v>1</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="K61" s="2" t="s">
         <v>12</v>
@@ -4753,25 +4753,25 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="H62" s="2">
         <v>1</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="K62" s="2" t="s">
         <v>14</v>
@@ -4779,103 +4779,103 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="C63" s="30" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="H63" s="2">
         <v>1</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="C64" s="30" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="H64" s="2">
         <v>1</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>109</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="H65" s="2">
         <v>1</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="H66" s="2">
         <v>1</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="K66" s="2" t="s">
         <v>45</v>
@@ -4883,25 +4883,25 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>111</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="H67" s="2">
         <v>1</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="K67" s="2" t="s">
         <v>7</v>
@@ -4909,25 +4909,25 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="H68" s="2">
         <v>1</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="K68" s="2" t="s">
         <v>8</v>
@@ -4935,13 +4935,13 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>73</v>
@@ -4950,7 +4950,7 @@
         <v>1</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>64</v>
@@ -4961,22 +4961,22 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>113</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="H70" s="2">
         <v>1</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>12</v>
@@ -4987,31 +4987,31 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="B71" s="29" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>114</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="H71" s="2">
         <v>3</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="K71" s="2" t="s">
         <v>12</v>
@@ -5019,31 +5019,31 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="B72" s="28" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="H72" s="2">
         <v>3</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="K72" s="2" t="s">
         <v>12</v>
@@ -5051,10 +5051,10 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="B73" s="26" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>116</v>
@@ -5066,7 +5066,7 @@
         <v>1</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>12</v>
@@ -5077,13 +5077,13 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="B74" s="26" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>117</v>
+        <v>801</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>3</v>
@@ -5092,7 +5092,7 @@
         <v>1</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>14</v>
@@ -5103,28 +5103,28 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="H75" s="2">
         <v>2</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="K75" s="2" t="s">
         <v>12</v>
@@ -5132,28 +5132,28 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="H76" s="2">
         <v>2</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="K76" s="2" t="s">
         <v>12</v>
@@ -5161,28 +5161,28 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="H77" s="2">
         <v>2</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="K77" s="2" t="s">
         <v>12</v>
@@ -5190,28 +5190,28 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="B78" s="16" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="H78" s="2">
         <v>2</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="K78" s="2" t="s">
         <v>12</v>
@@ -5219,22 +5219,22 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="H79" s="2">
         <v>1</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="J79" s="2" t="s">
         <v>74</v>
@@ -5245,22 +5245,22 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="H80" s="2">
         <v>1</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>48</v>
@@ -5271,25 +5271,25 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="H81" s="2">
         <v>1</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="K81" s="2" t="s">
         <v>12</v>
@@ -5297,22 +5297,22 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="H82" s="2">
         <v>1</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>50</v>
@@ -5323,22 +5323,22 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="H83" s="2">
         <v>1</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>74</v>
@@ -5349,22 +5349,22 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="H84" s="2">
         <v>1</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>48</v>
@@ -5375,25 +5375,25 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="H85" s="2">
         <v>1</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="K85" s="2" t="s">
         <v>12</v>
@@ -5401,22 +5401,22 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="H86" s="2">
         <v>1</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="J86" s="2" t="s">
         <v>50</v>
@@ -5427,22 +5427,22 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="H87" s="2">
         <v>1</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="J87" s="2" t="s">
         <v>47</v>
@@ -5453,25 +5453,25 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="H88" s="2">
         <v>2</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="J88" s="2" t="s">
         <v>46</v>
@@ -5482,25 +5482,25 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="H89" s="2">
         <v>2</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="J89" s="2" t="s">
         <v>47</v>
@@ -5511,25 +5511,25 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="H90" s="2">
         <v>2</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>15</v>
@@ -5540,25 +5540,25 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="H91" s="2">
         <v>2</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>16</v>
@@ -5569,22 +5569,22 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="H92" s="2">
         <v>1</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="J92" s="2" t="s">
         <v>46</v>
@@ -5595,25 +5595,25 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="B93" s="17" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="H93" s="2">
         <v>2</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>46</v>
@@ -5624,25 +5624,25 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="B94" s="17" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="H94" s="2">
         <v>2</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>47</v>
@@ -5653,25 +5653,25 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="B95" s="17" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="H95" s="2">
         <v>2</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="J95" s="2" t="s">
         <v>15</v>
@@ -5682,25 +5682,25 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="H96" s="2">
         <v>2</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="J96" s="2" t="s">
         <v>16</v>
@@ -5711,25 +5711,25 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B97" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D97" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>553</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>563</v>
       </c>
       <c r="H97" s="2">
         <v>2</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="J97" s="2" t="s">
         <v>6</v>
@@ -5740,28 +5740,28 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B98" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="H98" s="2">
         <v>3</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="J98" s="2" t="s">
         <v>17</v>
@@ -5772,28 +5772,28 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B99" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="H99" s="2">
         <v>3</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="J99" s="2" t="s">
         <v>18</v>
@@ -5804,28 +5804,28 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B100" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="H100" s="2">
         <v>3</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>17</v>
@@ -5836,28 +5836,28 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B101" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="H101" s="2">
         <v>3</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="J101" s="2" t="s">
         <v>18</v>
@@ -5868,28 +5868,28 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B102" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="H102" s="2">
         <v>3</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="J102" s="2" t="s">
         <v>19</v>
@@ -5900,28 +5900,28 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B103" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="H103" s="2">
         <v>3</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="J103" s="2" t="s">
         <v>20</v>
@@ -5932,25 +5932,25 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B104" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="H104" s="2">
         <v>2</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="J104" s="2" t="s">
         <v>21</v>
@@ -5961,25 +5961,25 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B105" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="H105" s="2">
         <v>2</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>22</v>
@@ -5990,22 +5990,22 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B106" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="H106" s="2">
         <v>1</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="J106" s="2" t="s">
         <v>22</v>
@@ -6016,25 +6016,25 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B107" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="H107" s="2">
         <v>2</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="J107" s="2" t="s">
         <v>23</v>
@@ -6045,25 +6045,25 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B108" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="H108" s="2">
         <v>2</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="J108" s="2" t="s">
         <v>5</v>
@@ -6074,28 +6074,28 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B109" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="H109" s="2">
         <v>3</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="J109" s="2" t="s">
         <v>17</v>
@@ -6106,28 +6106,28 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B110" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="H110" s="2">
         <v>3</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="J110" s="2" t="s">
         <v>18</v>
@@ -6138,28 +6138,28 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B111" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="H111" s="2">
         <v>3</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="J111" s="2" t="s">
         <v>17</v>
@@ -6170,28 +6170,28 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B112" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="H112" s="2">
         <v>3</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="J112" s="2" t="s">
         <v>18</v>
@@ -6202,28 +6202,28 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B113" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="H113" s="2">
         <v>3</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="J113" s="2" t="s">
         <v>19</v>
@@ -6234,28 +6234,28 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B114" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="H114" s="2">
         <v>3</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="J114" s="2" t="s">
         <v>20</v>
@@ -6266,25 +6266,25 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B115" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="H115" s="2">
         <v>2</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="J115" s="2" t="s">
         <v>21</v>
@@ -6295,25 +6295,25 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B116" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="H116" s="2">
         <v>2</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="J116" s="2" t="s">
         <v>22</v>
@@ -6324,22 +6324,22 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B117" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="H117" s="2">
         <v>1</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="J117" s="2" t="s">
         <v>22</v>
@@ -6350,25 +6350,25 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B118" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="H118" s="2">
         <v>2</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="J118" s="2" t="s">
         <v>23</v>
@@ -6379,28 +6379,28 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B119" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="H119" s="2">
         <v>3</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="J119" s="2" t="s">
         <v>24</v>
@@ -6411,28 +6411,28 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B120" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="H120" s="2">
         <v>3</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="J120" s="2" t="s">
         <v>25</v>
@@ -6443,28 +6443,28 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B121" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="H121" s="2">
         <v>3</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="J121" s="2" t="s">
         <v>24</v>
@@ -6475,28 +6475,28 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B122" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="H122" s="2">
         <v>3</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="J122" s="2" t="s">
         <v>25</v>
@@ -6507,28 +6507,28 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B123" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="H123" s="2">
         <v>3</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="J123" s="2" t="s">
         <v>26</v>
@@ -6539,28 +6539,28 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B124" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="H124" s="2">
         <v>3</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="J124" s="2" t="s">
         <v>27</v>
@@ -6571,28 +6571,28 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B125" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D125" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="E125" s="2" t="s">
+      <c r="F125" s="2" t="s">
         <v>563</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>573</v>
       </c>
       <c r="H125" s="2">
         <v>3</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="J125" s="2" t="s">
         <v>28</v>
@@ -6603,28 +6603,28 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B126" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D126" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="E126" s="2" t="s">
-        <v>563</v>
-      </c>
       <c r="F126" s="2" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="H126" s="2">
         <v>3</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="J126" s="2" t="s">
         <v>29</v>
@@ -6635,28 +6635,28 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B127" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D127" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="E127" s="2" t="s">
-        <v>563</v>
-      </c>
       <c r="F127" s="2" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="H127" s="2">
         <v>3</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="J127" s="2" t="s">
         <v>28</v>
@@ -6667,28 +6667,28 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B128" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D128" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="E128" s="2" t="s">
-        <v>563</v>
-      </c>
       <c r="F128" s="2" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="H128" s="2">
         <v>3</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="J128" s="2" t="s">
         <v>29</v>
@@ -6699,28 +6699,28 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B129" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D129" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="E129" s="2" t="s">
-        <v>563</v>
-      </c>
       <c r="F129" s="2" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="H129" s="2">
         <v>3</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="J129" s="2" t="s">
         <v>30</v>
@@ -6731,28 +6731,28 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B130" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D130" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="E130" s="2" t="s">
-        <v>563</v>
-      </c>
       <c r="F130" s="2" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="H130" s="2">
         <v>3</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="J130" s="2" t="s">
         <v>31</v>
@@ -6763,28 +6763,28 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B131" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="H131" s="2">
         <v>3</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="J131" s="2" t="s">
         <v>34</v>
@@ -6795,28 +6795,28 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B132" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="H132" s="2">
         <v>3</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="J132" s="2" t="s">
         <v>35</v>
@@ -6827,28 +6827,28 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B133" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="H133" s="2">
         <v>3</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="J133" s="2" t="s">
         <v>34</v>
@@ -6859,28 +6859,28 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B134" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="H134" s="2">
         <v>3</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="J134" s="2" t="s">
         <v>35</v>
@@ -6891,28 +6891,28 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B135" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="H135" s="2">
         <v>3</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="J135" s="2" t="s">
         <v>36</v>
@@ -6923,28 +6923,28 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B136" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="H136" s="2">
         <v>3</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="J136" s="2" t="s">
         <v>37</v>
@@ -6955,28 +6955,28 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B137" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="H137" s="2">
         <v>3</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="J137" s="2" t="s">
         <v>34</v>
@@ -6987,28 +6987,28 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B138" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="H138" s="2">
         <v>3</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="J138" s="2" t="s">
         <v>35</v>
@@ -7019,28 +7019,28 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B139" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="H139" s="2">
         <v>3</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="J139" s="2" t="s">
         <v>34</v>
@@ -7051,28 +7051,28 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B140" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="H140" s="2">
         <v>3</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="J140" s="2" t="s">
         <v>35</v>
@@ -7083,28 +7083,28 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B141" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="H141" s="2">
         <v>3</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="J141" s="2" t="s">
         <v>36</v>
@@ -7115,28 +7115,28 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B142" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="H142" s="2">
         <v>3</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="J142" s="2" t="s">
         <v>37</v>
@@ -7147,28 +7147,28 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B143" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="H143" s="2">
         <v>3</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="J143" s="2" t="s">
         <v>32</v>
@@ -7179,28 +7179,28 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B144" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="H144" s="2">
         <v>3</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="J144" s="2" t="s">
         <v>33</v>
@@ -7211,25 +7211,25 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B145" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="H145" s="2">
         <v>2</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="J145" s="2" t="s">
         <v>34</v>
@@ -7240,25 +7240,25 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B146" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="H146" s="2">
         <v>2</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="J146" s="2" t="s">
         <v>35</v>
@@ -7269,25 +7269,25 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B147" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="H147" s="2">
         <v>2</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="J147" s="2" t="s">
         <v>36</v>
@@ -7298,25 +7298,25 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B148" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="H148" s="2">
         <v>2</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="J148" s="2" t="s">
         <v>37</v>
@@ -7327,25 +7327,25 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B149" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="H149" s="2">
         <v>2</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="J149" s="2" t="s">
         <v>38</v>
@@ -7356,25 +7356,25 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B150" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D150" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E150" s="2" t="s">
         <v>553</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>563</v>
       </c>
       <c r="H150" s="2">
         <v>2</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="J150" s="2" t="s">
         <v>39</v>
@@ -7385,25 +7385,25 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B151" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="H151" s="2">
         <v>2</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="J151" s="2" t="s">
         <v>40</v>
@@ -7414,25 +7414,25 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B152" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="H152" s="2">
         <v>2</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="J152" s="2" t="s">
         <v>22</v>
@@ -7443,25 +7443,25 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B153" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="H153" s="2">
         <v>2</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="J153" s="2" t="s">
         <v>22</v>
@@ -7472,25 +7472,25 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B154" s="16" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="H154" s="2">
         <v>2</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="J154" s="2" t="s">
         <v>5</v>
@@ -7501,25 +7501,25 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B155" s="16" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D155" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E155" s="2" t="s">
         <v>553</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>563</v>
       </c>
       <c r="H155" s="2">
         <v>2</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="J155" s="2" t="s">
         <v>6</v>
@@ -7530,28 +7530,28 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B156" s="16" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="H156" s="2">
         <v>3</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="J156" s="2" t="s">
         <v>17</v>
@@ -7562,28 +7562,28 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B157" s="16" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="H157" s="2">
         <v>3</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="J157" s="2" t="s">
         <v>18</v>
@@ -7594,25 +7594,25 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B158" s="16" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="H158" s="2">
         <v>2</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="J158" s="2" t="s">
         <v>22</v>
@@ -7623,25 +7623,25 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B159" s="16" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="H159" s="2">
         <v>2</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="J159" s="2" t="s">
         <v>22</v>
@@ -7652,25 +7652,25 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B160" s="16" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="H160" s="2">
         <v>2</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="J160" s="2" t="s">
         <v>43</v>
@@ -7681,25 +7681,25 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B161" s="16" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="H161" s="2">
         <v>2</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="J161" s="2" t="s">
         <v>44</v>
@@ -7710,25 +7710,25 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B162" s="16" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="H162" s="2">
         <v>2</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="J162" s="2" t="s">
         <v>42</v>
@@ -7739,25 +7739,25 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B163" s="16" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="H163" s="2">
         <v>2</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="J163" s="2" t="s">
         <v>41</v>
@@ -7768,25 +7768,25 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B164" s="16" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="H164" s="2">
         <v>2</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="J164" s="2" t="s">
         <v>23</v>
@@ -7797,25 +7797,25 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B165" s="14" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="H165" s="2">
         <v>2</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="J165" s="2" t="s">
         <v>46</v>
@@ -7826,25 +7826,25 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B166" s="14" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="H166" s="2">
         <v>2</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="J166" s="2" t="s">
         <v>47</v>
@@ -7855,25 +7855,25 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B167" s="14" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="H167" s="2">
         <v>2</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="J167" s="2" t="s">
         <v>46</v>
@@ -7884,25 +7884,25 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B168" s="14" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="H168" s="2">
         <v>2</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="J168" s="2" t="s">
         <v>47</v>
@@ -7913,25 +7913,25 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B169" s="14" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="H169" s="2">
         <v>2</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="J169" s="2" t="s">
         <v>46</v>
@@ -7942,25 +7942,25 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B170" s="14" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="H170" s="2">
         <v>2</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="J170" s="2" t="s">
         <v>47</v>
@@ -7971,25 +7971,25 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B171" s="14" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="H171" s="2">
         <v>2</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="J171" s="2" t="s">
         <v>46</v>
@@ -8000,25 +8000,25 @@
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B172" s="14" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="H172" s="2">
         <v>2</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="J172" s="2" t="s">
         <v>47</v>
@@ -8029,22 +8029,22 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B173" s="14" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="H173" s="2">
         <v>1</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="J173" s="2" t="s">
         <v>12</v>
@@ -8055,22 +8055,22 @@
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B174" s="14" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="H174" s="2">
         <v>1</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="J174" s="2" t="s">
         <v>12</v>
@@ -8081,22 +8081,22 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B175" s="14" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="H175" s="2">
         <v>1</v>
       </c>
       <c r="I175" s="2" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="J175" s="2" t="s">
         <v>12</v>
@@ -8107,22 +8107,22 @@
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B176" s="14" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="H176" s="2">
         <v>1</v>
       </c>
       <c r="I176" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="J176" s="2" t="s">
         <v>12</v>
@@ -8133,22 +8133,22 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B177" s="16" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="H177" s="2">
         <v>1</v>
       </c>
       <c r="I177" s="2" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="J177" s="2" t="s">
         <v>12</v>
@@ -8159,22 +8159,22 @@
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B178" s="16" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="H178" s="2">
         <v>1</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="J178" s="2" t="s">
         <v>12</v>
@@ -8185,22 +8185,22 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B179" s="16" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="H179" s="2">
         <v>1</v>
       </c>
       <c r="I179" s="2" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="J179" s="2" t="s">
         <v>12</v>
@@ -8211,22 +8211,22 @@
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B180" s="16" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="H180" s="2">
         <v>1</v>
       </c>
       <c r="I180" s="2" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="J180" s="2" t="s">
         <v>12</v>
@@ -8237,25 +8237,25 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="18" t="s">
+        <v>689</v>
+      </c>
+      <c r="B181" s="17" t="s">
         <v>699</v>
       </c>
-      <c r="B181" s="17" t="s">
-        <v>709</v>
-      </c>
       <c r="C181" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="H181" s="2">
         <v>2</v>
       </c>
       <c r="I181" s="2" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="J181" s="2" t="s">
         <v>5</v>
@@ -8266,28 +8266,28 @@
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="18" t="s">
+        <v>689</v>
+      </c>
+      <c r="B182" s="17" t="s">
         <v>699</v>
       </c>
-      <c r="B182" s="17" t="s">
-        <v>709</v>
-      </c>
       <c r="C182" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="H182" s="2">
         <v>3</v>
       </c>
       <c r="I182" s="2" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="J182" s="2" t="s">
         <v>17</v>
@@ -8298,28 +8298,28 @@
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="18" t="s">
+        <v>689</v>
+      </c>
+      <c r="B183" s="17" t="s">
         <v>699</v>
       </c>
-      <c r="B183" s="17" t="s">
-        <v>709</v>
-      </c>
       <c r="C183" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="H183" s="2">
         <v>3</v>
       </c>
       <c r="I183" s="2" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="J183" s="2" t="s">
         <v>18</v>
@@ -8330,28 +8330,28 @@
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="18" t="s">
+        <v>689</v>
+      </c>
+      <c r="B184" s="17" t="s">
         <v>699</v>
       </c>
-      <c r="B184" s="17" t="s">
-        <v>709</v>
-      </c>
       <c r="C184" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="H184" s="2">
         <v>3</v>
       </c>
       <c r="I184" s="2" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="J184" s="2" t="s">
         <v>17</v>
@@ -8362,28 +8362,28 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="18" t="s">
+        <v>689</v>
+      </c>
+      <c r="B185" s="17" t="s">
         <v>699</v>
       </c>
-      <c r="B185" s="17" t="s">
-        <v>709</v>
-      </c>
       <c r="C185" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="H185" s="2">
         <v>3</v>
       </c>
       <c r="I185" s="2" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="J185" s="2" t="s">
         <v>18</v>
@@ -8394,28 +8394,28 @@
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="18" t="s">
+        <v>689</v>
+      </c>
+      <c r="B186" s="17" t="s">
         <v>699</v>
       </c>
-      <c r="B186" s="17" t="s">
-        <v>709</v>
-      </c>
       <c r="C186" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="H186" s="2">
         <v>3</v>
       </c>
       <c r="I186" s="2" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="J186" s="2" t="s">
         <v>19</v>
@@ -8426,28 +8426,28 @@
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="18" t="s">
+        <v>689</v>
+      </c>
+      <c r="B187" s="17" t="s">
         <v>699</v>
       </c>
-      <c r="B187" s="17" t="s">
-        <v>709</v>
-      </c>
       <c r="C187" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="H187" s="2">
         <v>3</v>
       </c>
       <c r="I187" s="2" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="J187" s="2" t="s">
         <v>20</v>
@@ -8458,25 +8458,25 @@
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="18" t="s">
+        <v>689</v>
+      </c>
+      <c r="B188" s="17" t="s">
         <v>699</v>
       </c>
-      <c r="B188" s="17" t="s">
-        <v>709</v>
-      </c>
       <c r="C188" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="H188" s="2">
         <v>2</v>
       </c>
       <c r="I188" s="2" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="J188" s="2" t="s">
         <v>21</v>
@@ -8487,25 +8487,25 @@
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="18" t="s">
+        <v>689</v>
+      </c>
+      <c r="B189" s="17" t="s">
         <v>699</v>
       </c>
-      <c r="B189" s="17" t="s">
-        <v>709</v>
-      </c>
       <c r="C189" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="H189" s="2">
         <v>2</v>
       </c>
       <c r="I189" s="2" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="J189" s="2" t="s">
         <v>22</v>
@@ -8516,22 +8516,22 @@
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="18" t="s">
+        <v>689</v>
+      </c>
+      <c r="B190" s="17" t="s">
         <v>699</v>
       </c>
-      <c r="B190" s="17" t="s">
-        <v>709</v>
-      </c>
       <c r="C190" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="H190" s="2">
         <v>1</v>
       </c>
       <c r="I190" s="2" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="J190" s="2" t="s">
         <v>1</v>
@@ -8542,25 +8542,25 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B191" s="24" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D191" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E191" s="2" t="s">
         <v>553</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>563</v>
       </c>
       <c r="H191" s="2">
         <v>2</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="J191" s="2" t="s">
         <v>6</v>
@@ -8571,28 +8571,28 @@
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B192" s="24" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="H192" s="2">
         <v>3</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="J192" s="2" t="s">
         <v>17</v>
@@ -8603,28 +8603,28 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B193" s="24" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="H193" s="2">
         <v>3</v>
       </c>
       <c r="I193" s="2" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="J193" s="2" t="s">
         <v>18</v>
@@ -8635,28 +8635,28 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B194" s="24" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="H194" s="2">
         <v>3</v>
       </c>
       <c r="I194" s="2" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="J194" s="2" t="s">
         <v>17</v>
@@ -8667,28 +8667,28 @@
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B195" s="24" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="H195" s="2">
         <v>3</v>
       </c>
       <c r="I195" s="2" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="J195" s="2" t="s">
         <v>18</v>
@@ -8699,28 +8699,28 @@
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B196" s="24" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="H196" s="2">
         <v>3</v>
       </c>
       <c r="I196" s="2" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="J196" s="2" t="s">
         <v>19</v>
@@ -8731,28 +8731,28 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B197" s="24" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="H197" s="2">
         <v>3</v>
       </c>
       <c r="I197" s="2" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="J197" s="2" t="s">
         <v>20</v>
@@ -8763,25 +8763,25 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B198" s="24" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="H198" s="2">
         <v>2</v>
       </c>
       <c r="I198" s="2" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="J198" s="2" t="s">
         <v>21</v>
@@ -8792,25 +8792,25 @@
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B199" s="24" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="H199" s="2">
         <v>2</v>
       </c>
       <c r="I199" s="2" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="J199" s="2" t="s">
         <v>22</v>
@@ -8821,22 +8821,22 @@
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B200" s="24" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="H200" s="2">
         <v>1</v>
       </c>
       <c r="I200" s="2" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="J200" s="2" t="s">
         <v>0</v>
@@ -8847,25 +8847,25 @@
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="18" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B201" s="24" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="H201" s="2">
         <v>2</v>
       </c>
       <c r="I201" s="2" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="J201" s="2" t="s">
         <v>23</v>
@@ -8876,28 +8876,28 @@
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="10" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="B202" s="13" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="H202" s="2">
         <v>2</v>
       </c>
       <c r="I202" s="2" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="J202" s="2" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="K202" s="2" t="s">
         <v>74</v>
@@ -8905,28 +8905,28 @@
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="10" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="B203" s="13" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="H203" s="2">
         <v>2</v>
       </c>
       <c r="I203" s="2" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="J203" s="2" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="K203" s="2" t="s">
         <v>48</v>
@@ -8934,57 +8934,57 @@
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="10" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="B204" s="13" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="H204" s="2">
         <v>2</v>
       </c>
       <c r="I204" s="2" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="J204" s="2" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="K204" s="2" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="10" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="B205" s="13" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="H205" s="2">
         <v>2</v>
       </c>
       <c r="I205" s="2" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="J205" s="2" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="K205" s="2" t="s">
         <v>50</v>
@@ -8992,25 +8992,25 @@
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="18" t="s">
+        <v>689</v>
+      </c>
+      <c r="B206" s="17" t="s">
         <v>699</v>
       </c>
-      <c r="B206" s="17" t="s">
-        <v>709</v>
-      </c>
       <c r="C206" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="H206" s="2">
         <v>2</v>
       </c>
       <c r="I206" s="2" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="J206" s="2" t="s">
         <v>23</v>
@@ -9021,28 +9021,28 @@
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="8" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="H207" s="2">
         <v>3</v>
       </c>
       <c r="I207" s="2" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="J207" s="2" t="s">
         <v>52</v>
@@ -9053,28 +9053,28 @@
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="8" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="H208" s="2">
         <v>3</v>
       </c>
       <c r="I208" s="2" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="J208" s="2" t="s">
         <v>53</v>
@@ -9085,28 +9085,28 @@
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="8" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="H209" s="2">
         <v>3</v>
       </c>
       <c r="I209" s="2" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="J209" s="2" t="s">
         <v>52</v>
@@ -9117,28 +9117,28 @@
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="8" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="H210" s="2">
         <v>3</v>
       </c>
       <c r="I210" s="2" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="J210" s="2" t="s">
         <v>53</v>
@@ -9149,28 +9149,28 @@
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="8" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="H211" s="2">
         <v>3</v>
       </c>
       <c r="I211" s="2" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="J211" s="2" t="s">
         <v>54</v>
@@ -9181,28 +9181,28 @@
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="8" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="B212" s="8" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="H212" s="2">
         <v>3</v>
       </c>
       <c r="I212" s="2" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="J212" s="2" t="s">
         <v>55</v>
@@ -9213,25 +9213,25 @@
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="8" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="H213" s="2">
         <v>2</v>
       </c>
       <c r="I213" s="2" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="J213" s="2" t="s">
         <v>56</v>
@@ -9242,25 +9242,25 @@
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B214" s="17" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="H214" s="2">
         <v>2</v>
       </c>
       <c r="I214" s="2" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="J214" s="2" t="s">
         <v>57</v>
@@ -9271,25 +9271,25 @@
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B215" s="17" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="H215" s="2">
         <v>2</v>
       </c>
       <c r="I215" s="2" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="J215" s="2" t="s">
         <v>58</v>
@@ -9300,25 +9300,25 @@
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B216" s="17" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="H216" s="2">
         <v>2</v>
       </c>
       <c r="I216" s="2" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="J216" s="2" t="s">
         <v>57</v>
@@ -9329,25 +9329,25 @@
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B217" s="17" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="H217" s="2">
         <v>2</v>
       </c>
       <c r="I217" s="2" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="J217" s="2" t="s">
         <v>58</v>
@@ -9358,25 +9358,25 @@
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B218" s="17" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="H218" s="2">
         <v>2</v>
       </c>
       <c r="I218" s="2" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="J218" s="2" t="s">
         <v>59</v>
@@ -9387,25 +9387,25 @@
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B219" s="17" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="H219" s="2">
         <v>2</v>
       </c>
       <c r="I219" s="2" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="J219" s="2" t="s">
         <v>60</v>
@@ -9416,22 +9416,22 @@
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B220" s="17" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="H220" s="2">
         <v>1</v>
       </c>
       <c r="I220" s="2" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="J220" s="2" t="s">
         <v>12</v>
@@ -9442,95 +9442,95 @@
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="B221" s="13" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="H221" s="2">
         <v>4</v>
       </c>
       <c r="I221" s="2" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="J221" s="2" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="K221" s="2" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="B222" s="15" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="H222" s="2">
         <v>4</v>
       </c>
       <c r="I222" s="2" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="J222" s="2" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="K222" s="2" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B223" s="24" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="H223" s="2">
         <v>2</v>
       </c>
       <c r="I223" s="2" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="J223" s="2" t="s">
         <v>46</v>
@@ -9541,25 +9541,25 @@
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B224" s="24" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="H224" s="2">
         <v>2</v>
       </c>
       <c r="I224" s="2" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="J224" s="2" t="s">
         <v>47</v>
@@ -9570,25 +9570,25 @@
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B225" s="24" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="H225" s="2">
         <v>2</v>
       </c>
       <c r="I225" s="2" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="J225" s="2" t="s">
         <v>46</v>
@@ -9599,25 +9599,25 @@
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B226" s="24" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="H226" s="2">
         <v>2</v>
       </c>
       <c r="I226" s="2" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="J226" s="2" t="s">
         <v>47</v>
@@ -9628,25 +9628,25 @@
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B227" s="24" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="H227" s="2">
         <v>2</v>
       </c>
       <c r="I227" s="2" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="J227" s="2" t="s">
         <v>15</v>
@@ -9657,25 +9657,25 @@
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B228" s="24" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="H228" s="2">
         <v>2</v>
       </c>
       <c r="I228" s="2" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="J228" s="2" t="s">
         <v>16</v>
@@ -9686,22 +9686,22 @@
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B229" s="24" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="H229" s="2">
         <v>1</v>
       </c>
       <c r="I229" s="2" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="J229" s="2" t="s">
         <v>12</v>
@@ -9712,25 +9712,25 @@
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B230" s="16" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="H230" s="2">
         <v>2</v>
       </c>
       <c r="I230" s="2" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="J230" s="2" t="s">
         <v>46</v>
@@ -9741,25 +9741,25 @@
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B231" s="16" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="H231" s="2">
         <v>2</v>
       </c>
       <c r="I231" s="2" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="J231" s="2" t="s">
         <v>47</v>
@@ -9770,22 +9770,22 @@
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B232" s="16" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="H232" s="2">
         <v>1</v>
       </c>
       <c r="I232" s="2" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="J232" s="2" t="s">
         <v>45</v>
@@ -9796,22 +9796,22 @@
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B233" s="16" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="H233" s="2">
         <v>1</v>
       </c>
       <c r="I233" s="2" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="J233" s="2" t="s">
         <v>7</v>
@@ -9822,22 +9822,22 @@
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B234" s="16" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="H234" s="2">
         <v>1</v>
       </c>
       <c r="I234" s="2" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="J234" s="2" t="s">
         <v>8</v>
@@ -9848,22 +9848,22 @@
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B235" s="16" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="H235" s="2">
         <v>1</v>
       </c>
       <c r="I235" s="2" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="J235" s="2" t="s">
         <v>9</v>
@@ -9874,25 +9874,25 @@
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B236" s="16" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="H236" s="2">
         <v>2</v>
       </c>
       <c r="I236" s="2" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="J236" s="2" t="s">
         <v>46</v>
@@ -9903,25 +9903,25 @@
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B237" s="16" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="H237" s="2">
         <v>2</v>
       </c>
       <c r="I237" s="2" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="J237" s="2" t="s">
         <v>47</v>
@@ -9932,22 +9932,22 @@
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B238" s="16" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="H238" s="2">
         <v>1</v>
       </c>
       <c r="I238" s="2" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="J238" s="2" t="s">
         <v>45</v>
@@ -9958,22 +9958,22 @@
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B239" s="16" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="H239" s="2">
         <v>1</v>
       </c>
       <c r="I239" s="2" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="J239" s="2" t="s">
         <v>7</v>
@@ -9984,22 +9984,22 @@
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B240" s="16" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="H240" s="2">
         <v>1</v>
       </c>
       <c r="I240" s="2" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="J240" s="2" t="s">
         <v>8</v>
@@ -10010,22 +10010,22 @@
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B241" s="16" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="H241" s="2">
         <v>1</v>
       </c>
       <c r="I241" s="2" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="J241" s="2" t="s">
         <v>9</v>
@@ -10036,25 +10036,25 @@
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B242" s="16" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="H242" s="2">
         <v>2</v>
       </c>
       <c r="I242" s="2" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="J242" s="2" t="s">
         <v>46</v>
@@ -10065,25 +10065,25 @@
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B243" s="16" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="H243" s="2">
         <v>2</v>
       </c>
       <c r="I243" s="2" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="J243" s="2" t="s">
         <v>47</v>
@@ -10094,22 +10094,22 @@
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B244" s="16" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="H244" s="2">
         <v>1</v>
       </c>
       <c r="I244" s="2" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="J244" s="2" t="s">
         <v>45</v>
@@ -10120,22 +10120,22 @@
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B245" s="16" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="H245" s="2">
         <v>1</v>
       </c>
       <c r="I245" s="2" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="J245" s="2" t="s">
         <v>7</v>
@@ -10146,22 +10146,22 @@
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B246" s="16" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="H246" s="2">
         <v>1</v>
       </c>
       <c r="I246" s="2" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="J246" s="2" t="s">
         <v>8</v>
@@ -10172,22 +10172,22 @@
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B247" s="16" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="H247" s="2">
         <v>1</v>
       </c>
       <c r="I247" s="2" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="J247" s="2" t="s">
         <v>9</v>
@@ -10198,25 +10198,25 @@
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B248" s="16" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>291</v>
+        <v>793</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="H248" s="2">
         <v>2</v>
       </c>
       <c r="I248" s="2" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="J248" s="2" t="s">
         <v>46</v>
@@ -10227,25 +10227,25 @@
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B249" s="16" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>292</v>
+        <v>794</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="H249" s="2">
         <v>2</v>
       </c>
       <c r="I249" s="2" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="J249" s="2" t="s">
         <v>47</v>
@@ -10256,22 +10256,22 @@
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B250" s="16" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>293</v>
+        <v>795</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="H250" s="2">
         <v>1</v>
       </c>
       <c r="I250" s="2" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="J250" s="2" t="s">
         <v>45</v>
@@ -10282,22 +10282,22 @@
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B251" s="16" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>294</v>
+        <v>796</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="H251" s="2">
         <v>1</v>
       </c>
       <c r="I251" s="2" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="J251" s="2" t="s">
         <v>7</v>
@@ -10308,22 +10308,22 @@
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B252" s="16" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>295</v>
+        <v>797</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="H252" s="2">
         <v>1</v>
       </c>
       <c r="I252" s="2" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="J252" s="2" t="s">
         <v>8</v>
@@ -10334,22 +10334,22 @@
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B253" s="16" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>296</v>
+        <v>798</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="H253" s="2">
         <v>1</v>
       </c>
       <c r="I253" s="2" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="J253" s="2" t="s">
         <v>9</v>
@@ -10360,25 +10360,25 @@
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B254" s="16" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="H254" s="2">
         <v>2</v>
       </c>
       <c r="I254" s="2" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="J254" s="2" t="s">
         <v>46</v>
@@ -10389,25 +10389,25 @@
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B255" s="16" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="H255" s="2">
         <v>2</v>
       </c>
       <c r="I255" s="2" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="J255" s="2" t="s">
         <v>47</v>
@@ -10418,22 +10418,22 @@
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B256" s="16" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="H256" s="2">
         <v>1</v>
       </c>
       <c r="I256" s="2" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="J256" s="2" t="s">
         <v>45</v>
@@ -10444,22 +10444,22 @@
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B257" s="16" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="H257" s="2">
         <v>1</v>
       </c>
       <c r="I257" s="2" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="J257" s="2" t="s">
         <v>7</v>
@@ -10470,22 +10470,22 @@
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B258" s="16" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="H258" s="2">
         <v>1</v>
       </c>
       <c r="I258" s="2" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="J258" s="2" t="s">
         <v>8</v>
@@ -10496,22 +10496,22 @@
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B259" s="16" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="H259" s="2">
         <v>1</v>
       </c>
       <c r="I259" s="2" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="J259" s="2" t="s">
         <v>9</v>
@@ -10522,22 +10522,22 @@
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B260" s="16" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="H260" s="2">
         <v>1</v>
       </c>
       <c r="I260" s="2" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="J260" s="2" t="s">
         <v>12</v>
@@ -10548,22 +10548,22 @@
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B261" s="16" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="H261" s="2">
         <v>1</v>
       </c>
       <c r="I261" s="2" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="J261" s="2" t="s">
         <v>12</v>
@@ -10574,22 +10574,22 @@
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B262" s="16" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="H262" s="2">
         <v>1</v>
       </c>
       <c r="I262" s="2" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="J262" s="2" t="s">
         <v>12</v>
@@ -10600,22 +10600,22 @@
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B263" s="16" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>300</v>
+        <v>799</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="H263" s="2">
         <v>1</v>
       </c>
       <c r="I263" s="2" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="J263" s="2" t="s">
         <v>12</v>
@@ -10626,22 +10626,22 @@
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B264" s="16" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="H264" s="2">
         <v>1</v>
       </c>
       <c r="I264" s="2" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="J264" s="2" t="s">
         <v>12</v>
@@ -10652,25 +10652,25 @@
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="18" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="B265" s="12" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="H265" s="2">
         <v>2</v>
       </c>
       <c r="I265" s="2" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="J265" s="2" t="s">
         <v>22</v>
@@ -10681,22 +10681,22 @@
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="10" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="B266" s="23" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="H266" s="2">
         <v>1</v>
       </c>
       <c r="I266" s="2" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="J266" s="2" t="s">
         <v>12</v>
@@ -10707,22 +10707,22 @@
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="10" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="B267" s="23" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>303</v>
+        <v>800</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="H267" s="2">
         <v>1</v>
       </c>
       <c r="I267" s="2" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="J267" s="2" t="s">
         <v>14</v>
@@ -10733,25 +10733,25 @@
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B268" s="25" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="H268" s="2">
         <v>2</v>
       </c>
       <c r="I268" s="2" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="J268" s="2" t="s">
         <v>46</v>
@@ -10762,25 +10762,25 @@
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B269" s="25" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="H269" s="2">
         <v>2</v>
       </c>
       <c r="I269" s="2" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="J269" s="2" t="s">
         <v>47</v>
@@ -10791,22 +10791,22 @@
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B270" s="25" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="H270" s="2">
         <v>1</v>
       </c>
       <c r="I270" s="2" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="J270" s="2" t="s">
         <v>45</v>
@@ -10817,22 +10817,22 @@
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B271" s="25" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="H271" s="2">
         <v>1</v>
       </c>
       <c r="I271" s="2" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="J271" s="2" t="s">
         <v>7</v>
@@ -10843,22 +10843,22 @@
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B272" s="25" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="H272" s="2">
         <v>1</v>
       </c>
       <c r="I272" s="2" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="J272" s="2" t="s">
         <v>8</v>
@@ -10869,22 +10869,22 @@
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B273" s="25" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="H273" s="2">
         <v>1</v>
       </c>
       <c r="I273" s="2" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="J273" s="2" t="s">
         <v>9</v>
@@ -10895,22 +10895,22 @@
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B274" s="25" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="H274" s="2">
         <v>1</v>
       </c>
       <c r="I274" s="2" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="J274" s="2" t="s">
         <v>12</v>
@@ -10921,22 +10921,22 @@
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="19" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="B275" s="13" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="H275" s="2">
         <v>1</v>
       </c>
       <c r="I275" s="4" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="J275" s="2" t="s">
         <v>13</v>
@@ -10944,25 +10944,25 @@
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="19" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="B276" s="13" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="H276" s="2">
         <v>2</v>
       </c>
       <c r="I276" s="4" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="J276" s="2" t="s">
         <v>12</v>
@@ -10973,28 +10973,28 @@
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="19" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="B277" s="13" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="H277" s="2">
         <v>2</v>
       </c>
       <c r="I277" s="4" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="J277" s="2" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="K277" s="2" t="s">
         <v>4</v>
@@ -11002,51 +11002,51 @@
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="19" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="B278" s="12" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="H278" s="2">
         <v>1</v>
       </c>
       <c r="I278" s="4" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="J278" s="2" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="19" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="B279" s="12" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="H279" s="2">
         <v>2</v>
       </c>
       <c r="I279" s="4" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="J279" s="2" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="K279" s="2" t="s">
         <v>4</v>
@@ -11054,28 +11054,28 @@
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="19" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="B280" s="12" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="H280" s="2">
         <v>2</v>
       </c>
       <c r="I280" s="4" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="J280" s="2" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="K280" s="2" t="s">
         <v>4</v>
@@ -11083,28 +11083,28 @@
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="19" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="B281" s="27" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="H281" s="2">
         <v>2</v>
       </c>
       <c r="I281" s="4" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="J281" s="2" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="K281" s="2" t="s">
         <v>4</v>
@@ -11112,25 +11112,25 @@
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="19" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="B282" s="27" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="H282" s="2">
         <v>2</v>
       </c>
       <c r="I282" s="4" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="J282" s="2" t="s">
         <v>13</v>
@@ -11141,28 +11141,28 @@
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="19" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="B283" s="27" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="H283" s="2">
         <v>2</v>
       </c>
       <c r="I283" s="4" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="J283" s="2" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="K283" s="2" t="s">
         <v>4</v>
@@ -11170,28 +11170,28 @@
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="19" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="B284" s="14" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="H284" s="2">
         <v>2</v>
       </c>
       <c r="I284" s="4" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="J284" s="2" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="K284" s="2" t="s">
         <v>4</v>
@@ -11199,25 +11199,25 @@
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="19" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="B285" s="14" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="H285" s="2">
         <v>2</v>
       </c>
       <c r="I285" s="4" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="J285" s="2" t="s">
         <v>13</v>
@@ -11228,25 +11228,25 @@
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="19" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="B286" s="14" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="H286" s="2">
         <v>2</v>
       </c>
       <c r="I286" s="4" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="J286" s="2" t="s">
         <v>12</v>
@@ -11257,13 +11257,13 @@
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="21" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="B287" s="17" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="D287" s="2" t="s">
         <v>71</v>
@@ -11272,7 +11272,7 @@
         <v>1</v>
       </c>
       <c r="I287" s="2" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="J287" s="2" t="s">
         <v>13</v>
@@ -11283,13 +11283,13 @@
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="21" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="B288" s="17" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="D288" s="2" t="s">
         <v>71</v>
@@ -11298,7 +11298,7 @@
         <v>1</v>
       </c>
       <c r="I288" s="2" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="J288" s="2" t="s">
         <v>13</v>
@@ -11309,25 +11309,25 @@
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="21" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="B289" s="24" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="D289" s="2" t="s">
         <v>72</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="H289" s="2">
         <v>2</v>
       </c>
       <c r="I289" s="2" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="J289" s="2" t="s">
         <v>63</v>
@@ -11338,25 +11338,25 @@
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="21" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="B290" s="24" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="D290" s="2" t="s">
         <v>72</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="H290" s="2">
         <v>2</v>
       </c>
       <c r="I290" s="2" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="J290" s="2" t="s">
         <v>63</v>
@@ -11367,66 +11367,66 @@
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="20" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="B291" s="13" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="H291" s="2">
         <v>3</v>
       </c>
       <c r="I291" s="2" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="J291" s="2" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="K291" s="2" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="20" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="B292" s="15" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="F292" s="2" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="H292" s="2">
         <v>3</v>
       </c>
       <c r="I292" s="2" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="J292" s="2" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="K292" s="2" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
     </row>
   </sheetData>
@@ -11449,12 +11449,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
     </row>
   </sheetData>

--- a/Reference/AeroToolKitFunctionList.xlsx
+++ b/Reference/AeroToolKitFunctionList.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fs272\AeroProgs\StdAtmoAddIn\AeroToolKitAddIn\Reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E189469-97A2-49F4-92D1-6F6AC2C0BF1F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B89286-68D1-4E87-832C-493A1C74884A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AeroToolKitFunctionList" sheetId="1" r:id="rId1"/>
     <sheet name="READ ME" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AeroToolKitFunctionList!$A$1:$K$300</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AeroToolKitFunctionList!$A$1:$K$299</definedName>
     <definedName name="lengthFeet">AeroToolKitFunctionList!$A$190</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2332" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2324" uniqueCount="818">
   <si>
     <t>KCAS</t>
   </si>
@@ -903,9 +903,6 @@
     <t>AeroSpdSndStdDay_kts_fHp</t>
   </si>
   <si>
-    <t>AeroSubsonicKeasOverKcas_fHpQc</t>
-  </si>
-  <si>
     <t>AeroTapeAlt_ft_fGeoptlAlt</t>
   </si>
   <si>
@@ -1543,9 +1540,6 @@
   </si>
   <si>
     <t>Speed of sound in miles/hr (standard day only), f(Hp)</t>
-  </si>
-  <si>
-    <t>Ratio EAS to CAS (EAS/CAS), f(Hp, compressible Q)</t>
   </si>
   <si>
     <t>Tapeline alt from geopotential alt (units feet)</t>
@@ -2215,9 +2209,6 @@
   </si>
   <si>
     <t>KINEMATIC VISCOSITY (ν)</t>
-  </si>
-  <si>
-    <t>KEAS OVER KCAS</t>
   </si>
   <si>
     <t>If making changes, also update equivalent .csv (use save as and select .csv).</t>
@@ -3183,10 +3174,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K300"/>
+  <dimension ref="A1:K299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3206,60 +3197,60 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>668</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>70</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H2" s="2">
         <v>2</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>5</v>
@@ -3270,25 +3261,25 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="H3" s="2">
         <v>2</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>6</v>
@@ -3299,22 +3290,22 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="H4" s="2">
         <v>1</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>45</v>
@@ -3325,22 +3316,22 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="H5" s="2">
         <v>1</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>45</v>
@@ -3351,22 +3342,22 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>79</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="H6" s="2">
         <v>1</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>45</v>
@@ -3377,48 +3368,48 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>674</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>676</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="H7" s="2">
         <v>1</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>521</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="H8" s="2">
         <v>1</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>7</v>
@@ -3429,77 +3420,77 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>82</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="H9" s="2">
         <v>1</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="H10" s="2">
         <v>1</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="H11" s="2">
         <v>1</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>2</v>
@@ -3507,25 +3498,25 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="H12" s="2">
         <v>1</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>11</v>
@@ -3533,25 +3524,25 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="H13" s="2">
         <v>1</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>61</v>
@@ -3559,48 +3550,48 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="H14" s="2">
         <v>1</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="H15" s="2">
         <v>1</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>12</v>
@@ -3611,244 +3602,244 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="H16" s="2">
         <v>1</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C17" s="30" t="s">
+        <v>773</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>776</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="H17" s="2">
-        <v>1</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>779</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="H18" s="2">
         <v>1</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>12</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>86</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H19" s="2">
         <v>1</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="H20" s="2">
         <v>1</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="J20" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="K20" s="2" t="s">
         <v>597</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>88</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="H21" s="2">
         <v>1</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>89</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="H22" s="2">
         <v>1</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>90</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H23" s="2">
         <v>1</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="H24" s="2">
         <v>1</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>92</v>
@@ -3860,7 +3851,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>74</v>
@@ -3871,10 +3862,10 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>93</v>
@@ -3886,21 +3877,21 @@
         <v>1</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>74</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>94</v>
@@ -3912,33 +3903,33 @@
         <v>1</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>74</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H28" s="2">
         <v>1</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>48</v>
@@ -3949,77 +3940,77 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>96</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H29" s="2">
         <v>1</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>48</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H30" s="2">
         <v>1</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>48</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>98</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="H31" s="2">
         <v>1</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>45</v>
@@ -4027,25 +4018,25 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>99</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="H32" s="2">
         <v>1</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>7</v>
@@ -4053,39 +4044,39 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="H33" s="2">
         <v>1</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>73</v>
@@ -4094,7 +4085,7 @@
         <v>1</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>65</v>
@@ -4105,22 +4096,22 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>101</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H35" s="2">
         <v>1</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>2</v>
@@ -4131,22 +4122,22 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H36" s="2">
         <v>1</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>2</v>
@@ -4157,22 +4148,22 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H37" s="2">
         <v>1</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>2</v>
@@ -4183,51 +4174,51 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H38" s="2">
         <v>1</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>2</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>102</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="H39" s="2">
         <v>1</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>74</v>
@@ -4235,25 +4226,25 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>103</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="H40" s="2">
         <v>1</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>48</v>
@@ -4261,51 +4252,51 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>104</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="H41" s="2">
         <v>1</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H42" s="2">
         <v>1</v>
       </c>
       <c r="I42" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="J42" s="2" t="s">
         <v>647</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>649</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>74</v>
@@ -4313,25 +4304,25 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>106</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H43" s="2">
         <v>1</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>48</v>
@@ -4339,48 +4330,48 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>107</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H44" s="2">
         <v>1</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H45" s="2">
         <v>1</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>11</v>
@@ -4391,22 +4382,22 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H46" s="2">
         <v>1</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>11</v>
@@ -4417,22 +4408,22 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H47" s="2">
         <v>1</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>11</v>
@@ -4443,51 +4434,51 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C48" s="30" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H48" s="2">
         <v>1</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="H49" s="2">
         <v>1</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="K49" s="2" t="s">
         <v>2</v>
@@ -4495,25 +4486,25 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C50" s="30" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="H50" s="2">
         <v>1</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>11</v>
@@ -4521,25 +4512,25 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C51" s="30" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="H51" s="2">
         <v>1</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>61</v>
@@ -4547,25 +4538,25 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C52" s="30" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="H52" s="2">
         <v>1</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>10</v>
@@ -4573,22 +4564,22 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C53" s="30" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="H53" s="2">
         <v>1</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>61</v>
@@ -4599,22 +4590,22 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C54" s="30" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="H54" s="2">
         <v>1</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>61</v>
@@ -4625,48 +4616,48 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C55" s="30" t="s">
+        <v>756</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>759</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>762</v>
-      </c>
       <c r="H55" s="2">
         <v>1</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>61</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C56" s="30" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="H56" s="2">
         <v>1</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>61</v>
@@ -4677,22 +4668,22 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="H57" s="2">
         <v>1</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>14</v>
@@ -4703,103 +4694,103 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="H58" s="2">
         <v>1</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C59" s="30" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="H59" s="2">
         <v>1</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C60" s="30" t="s">
+        <v>780</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="H60" s="2">
+        <v>1</v>
+      </c>
+      <c r="I60" s="3" t="s">
         <v>783</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>799</v>
-      </c>
-      <c r="H60" s="2">
-        <v>1</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>786</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="H61" s="2">
         <v>1</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="K61" s="2" t="s">
         <v>12</v>
@@ -4807,25 +4798,25 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="H62" s="2">
         <v>1</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="K62" s="2" t="s">
         <v>14</v>
@@ -4833,77 +4824,77 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C63" s="30" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="H63" s="2">
         <v>1</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C64" s="30" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="H64" s="2">
         <v>1</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C65" s="30" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="H65" s="2">
         <v>1</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="K65" s="2" t="s">
         <v>12</v>
@@ -4911,51 +4902,51 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C66" s="30" t="s">
+        <v>801</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>804</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>807</v>
-      </c>
       <c r="H66" s="2">
         <v>1</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C67" s="30" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="H67" s="2">
         <v>1</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="K67" s="2" t="s">
         <v>14</v>
@@ -4963,51 +4954,51 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C68" s="30" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="H68" s="2">
         <v>1</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C69" s="30" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="H69" s="2">
         <v>1</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="K69" s="2" t="s">
         <v>12</v>
@@ -5015,77 +5006,77 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C70" s="30" t="s">
+        <v>806</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>809</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>812</v>
-      </c>
       <c r="H70" s="2">
         <v>1</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C71" s="30" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="H71" s="2">
         <v>1</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C72" s="30" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="H72" s="2">
         <v>1</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="K72" s="2" t="s">
         <v>14</v>
@@ -5093,51 +5084,51 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="B73" s="14" t="s">
         <v>674</v>
-      </c>
-      <c r="B73" s="14" t="s">
-        <v>676</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>109</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="H73" s="2">
         <v>1</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H74" s="2">
         <v>1</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="K74" s="2" t="s">
         <v>45</v>
@@ -5145,25 +5136,25 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>111</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H75" s="2">
         <v>1</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="K75" s="2" t="s">
         <v>7</v>
@@ -5171,25 +5162,25 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H76" s="2">
         <v>1</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="K76" s="2" t="s">
         <v>8</v>
@@ -5197,13 +5188,13 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>73</v>
@@ -5212,7 +5203,7 @@
         <v>1</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>64</v>
@@ -5223,22 +5214,22 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>113</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H78" s="2">
         <v>1</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J78" s="2" t="s">
         <v>12</v>
@@ -5249,31 +5240,31 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B79" s="29" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>114</v>
       </c>
       <c r="D79" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="F79" s="2" t="s">
         <v>551</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>553</v>
       </c>
       <c r="H79" s="2">
         <v>3</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="K79" s="2" t="s">
         <v>12</v>
@@ -5281,31 +5272,31 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B80" s="28" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="H80" s="2">
         <v>3</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>12</v>
@@ -5313,10 +5304,10 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B81" s="26" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>116</v>
@@ -5328,7 +5319,7 @@
         <v>1</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J81" s="2" t="s">
         <v>12</v>
@@ -5339,13 +5330,13 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B82" s="26" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>3</v>
@@ -5354,7 +5345,7 @@
         <v>1</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>14</v>
@@ -5365,28 +5356,28 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>117</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="H83" s="2">
         <v>2</v>
       </c>
       <c r="I83" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="J83" s="2" t="s">
         <v>607</v>
-      </c>
-      <c r="J83" s="2" t="s">
-        <v>609</v>
       </c>
       <c r="K83" s="2" t="s">
         <v>12</v>
@@ -5394,28 +5385,28 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>118</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="H84" s="2">
         <v>2</v>
       </c>
       <c r="I84" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="J84" s="2" t="s">
         <v>608</v>
-      </c>
-      <c r="J84" s="2" t="s">
-        <v>610</v>
       </c>
       <c r="K84" s="2" t="s">
         <v>12</v>
@@ -5423,28 +5414,28 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>119</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="H85" s="2">
         <v>2</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="K85" s="2" t="s">
         <v>12</v>
@@ -5452,28 +5443,28 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>120</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="H86" s="2">
         <v>2</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="K86" s="2" t="s">
         <v>12</v>
@@ -5481,22 +5472,22 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>121</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H87" s="2">
         <v>1</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="J87" s="2" t="s">
         <v>74</v>
@@ -5507,22 +5498,22 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>122</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H88" s="2">
         <v>1</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="J88" s="2" t="s">
         <v>48</v>
@@ -5533,25 +5524,25 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>123</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H89" s="2">
         <v>1</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="K89" s="2" t="s">
         <v>12</v>
@@ -5559,22 +5550,22 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>124</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H90" s="2">
         <v>1</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>50</v>
@@ -5585,22 +5576,22 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="H91" s="2">
         <v>1</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>74</v>
@@ -5611,22 +5602,22 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>126</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="H92" s="2">
         <v>1</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="J92" s="2" t="s">
         <v>48</v>
@@ -5637,25 +5628,25 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>127</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="H93" s="2">
         <v>1</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="K93" s="2" t="s">
         <v>12</v>
@@ -5663,22 +5654,22 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>128</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="H94" s="2">
         <v>1</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>50</v>
@@ -5689,22 +5680,22 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H95" s="2">
         <v>1</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="J95" s="2" t="s">
         <v>47</v>
@@ -5715,25 +5706,25 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>129</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H96" s="2">
         <v>2</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J96" s="2" t="s">
         <v>46</v>
@@ -5744,25 +5735,25 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>130</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H97" s="2">
         <v>2</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J97" s="2" t="s">
         <v>47</v>
@@ -5773,25 +5764,25 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>131</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H98" s="2">
         <v>2</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J98" s="2" t="s">
         <v>15</v>
@@ -5802,25 +5793,25 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>132</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H99" s="2">
         <v>2</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J99" s="2" t="s">
         <v>16</v>
@@ -5831,22 +5822,22 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
+        <v>698</v>
+      </c>
+      <c r="B100" s="17" t="s">
         <v>700</v>
-      </c>
-      <c r="B100" s="17" t="s">
-        <v>702</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>133</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H100" s="2">
         <v>1</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>46</v>
@@ -5857,25 +5848,25 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
+        <v>698</v>
+      </c>
+      <c r="B101" s="17" t="s">
         <v>700</v>
-      </c>
-      <c r="B101" s="17" t="s">
-        <v>702</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>134</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H101" s="2">
         <v>2</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J101" s="2" t="s">
         <v>46</v>
@@ -5886,25 +5877,25 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
+        <v>698</v>
+      </c>
+      <c r="B102" s="17" t="s">
         <v>700</v>
-      </c>
-      <c r="B102" s="17" t="s">
-        <v>702</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>135</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H102" s="2">
         <v>2</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J102" s="2" t="s">
         <v>47</v>
@@ -5915,25 +5906,25 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
+        <v>698</v>
+      </c>
+      <c r="B103" s="17" t="s">
         <v>700</v>
-      </c>
-      <c r="B103" s="17" t="s">
-        <v>702</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>136</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H103" s="2">
         <v>2</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J103" s="2" t="s">
         <v>15</v>
@@ -5944,25 +5935,25 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
+        <v>698</v>
+      </c>
+      <c r="B104" s="17" t="s">
         <v>700</v>
-      </c>
-      <c r="B104" s="17" t="s">
-        <v>702</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>137</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H104" s="2">
         <v>2</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J104" s="2" t="s">
         <v>16</v>
@@ -5973,7 +5964,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B105" s="15" t="s">
         <v>0</v>
@@ -5982,16 +5973,16 @@
         <v>138</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="H105" s="2">
         <v>2</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>6</v>
@@ -6002,7 +5993,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B106" s="15" t="s">
         <v>0</v>
@@ -6011,19 +6002,19 @@
         <v>139</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="H106" s="2">
         <v>3</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J106" s="2" t="s">
         <v>17</v>
@@ -6034,7 +6025,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B107" s="15" t="s">
         <v>0</v>
@@ -6043,19 +6034,19 @@
         <v>140</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E107" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="F107" s="2" t="s">
         <v>559</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>561</v>
       </c>
       <c r="H107" s="2">
         <v>3</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J107" s="2" t="s">
         <v>18</v>
@@ -6066,7 +6057,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B108" s="15" t="s">
         <v>0</v>
@@ -6075,19 +6066,19 @@
         <v>141</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H108" s="2">
         <v>3</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J108" s="2" t="s">
         <v>17</v>
@@ -6098,7 +6089,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B109" s="15" t="s">
         <v>0</v>
@@ -6107,19 +6098,19 @@
         <v>142</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="H109" s="2">
         <v>3</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J109" s="2" t="s">
         <v>18</v>
@@ -6130,7 +6121,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B110" s="15" t="s">
         <v>0</v>
@@ -6139,19 +6130,19 @@
         <v>143</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H110" s="2">
         <v>3</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J110" s="2" t="s">
         <v>19</v>
@@ -6162,7 +6153,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B111" s="15" t="s">
         <v>0</v>
@@ -6171,19 +6162,19 @@
         <v>144</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="H111" s="2">
         <v>3</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J111" s="2" t="s">
         <v>20</v>
@@ -6194,7 +6185,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B112" s="15" t="s">
         <v>0</v>
@@ -6203,16 +6194,16 @@
         <v>145</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="H112" s="2">
         <v>2</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J112" s="2" t="s">
         <v>21</v>
@@ -6223,7 +6214,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B113" s="15" t="s">
         <v>0</v>
@@ -6232,16 +6223,16 @@
         <v>146</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H113" s="2">
         <v>2</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J113" s="2" t="s">
         <v>22</v>
@@ -6252,7 +6243,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B114" s="15" t="s">
         <v>0</v>
@@ -6261,13 +6252,13 @@
         <v>147</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="H114" s="2">
         <v>1</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J114" s="2" t="s">
         <v>22</v>
@@ -6278,7 +6269,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B115" s="15" t="s">
         <v>0</v>
@@ -6287,16 +6278,16 @@
         <v>148</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H115" s="2">
         <v>2</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J115" s="2" t="s">
         <v>23</v>
@@ -6307,7 +6298,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B116" s="15" t="s">
         <v>0</v>
@@ -6316,16 +6307,16 @@
         <v>149</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H116" s="2">
         <v>2</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J116" s="2" t="s">
         <v>5</v>
@@ -6336,7 +6327,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B117" s="15" t="s">
         <v>0</v>
@@ -6345,19 +6336,19 @@
         <v>150</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="H117" s="2">
         <v>3</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J117" s="2" t="s">
         <v>17</v>
@@ -6368,7 +6359,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B118" s="15" t="s">
         <v>0</v>
@@ -6377,19 +6368,19 @@
         <v>151</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E118" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="F118" s="2" t="s">
         <v>559</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>561</v>
       </c>
       <c r="H118" s="2">
         <v>3</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J118" s="2" t="s">
         <v>18</v>
@@ -6400,7 +6391,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B119" s="15" t="s">
         <v>0</v>
@@ -6409,19 +6400,19 @@
         <v>152</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H119" s="2">
         <v>3</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J119" s="2" t="s">
         <v>17</v>
@@ -6432,7 +6423,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B120" s="15" t="s">
         <v>0</v>
@@ -6441,19 +6432,19 @@
         <v>153</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="H120" s="2">
         <v>3</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J120" s="2" t="s">
         <v>18</v>
@@ -6464,7 +6455,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B121" s="15" t="s">
         <v>0</v>
@@ -6473,19 +6464,19 @@
         <v>154</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H121" s="2">
         <v>3</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J121" s="2" t="s">
         <v>19</v>
@@ -6496,7 +6487,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B122" s="15" t="s">
         <v>0</v>
@@ -6505,19 +6496,19 @@
         <v>155</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="H122" s="2">
         <v>3</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J122" s="2" t="s">
         <v>20</v>
@@ -6528,7 +6519,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B123" s="15" t="s">
         <v>0</v>
@@ -6537,16 +6528,16 @@
         <v>156</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="H123" s="2">
         <v>2</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J123" s="2" t="s">
         <v>21</v>
@@ -6557,7 +6548,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B124" s="15" t="s">
         <v>0</v>
@@ -6566,16 +6557,16 @@
         <v>157</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="H124" s="2">
         <v>2</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J124" s="2" t="s">
         <v>22</v>
@@ -6586,7 +6577,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B125" s="15" t="s">
         <v>0</v>
@@ -6595,13 +6586,13 @@
         <v>158</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="H125" s="2">
         <v>1</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J125" s="2" t="s">
         <v>22</v>
@@ -6612,7 +6603,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B126" s="15" t="s">
         <v>0</v>
@@ -6621,16 +6612,16 @@
         <v>159</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H126" s="2">
         <v>2</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J126" s="2" t="s">
         <v>23</v>
@@ -6641,7 +6632,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B127" s="13" t="s">
         <v>4</v>
@@ -6650,19 +6641,19 @@
         <v>160</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="H127" s="2">
         <v>3</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J127" s="2" t="s">
         <v>24</v>
@@ -6673,7 +6664,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B128" s="13" t="s">
         <v>4</v>
@@ -6682,19 +6673,19 @@
         <v>161</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H128" s="2">
         <v>3</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J128" s="2" t="s">
         <v>25</v>
@@ -6705,7 +6696,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B129" s="13" t="s">
         <v>4</v>
@@ -6714,19 +6705,19 @@
         <v>162</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H129" s="2">
         <v>3</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J129" s="2" t="s">
         <v>24</v>
@@ -6737,7 +6728,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B130" s="13" t="s">
         <v>4</v>
@@ -6746,19 +6737,19 @@
         <v>163</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="H130" s="2">
         <v>3</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J130" s="2" t="s">
         <v>25</v>
@@ -6769,7 +6760,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B131" s="13" t="s">
         <v>4</v>
@@ -6778,19 +6769,19 @@
         <v>164</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H131" s="2">
         <v>3</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J131" s="2" t="s">
         <v>26</v>
@@ -6801,7 +6792,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B132" s="13" t="s">
         <v>4</v>
@@ -6810,19 +6801,19 @@
         <v>165</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="H132" s="2">
         <v>3</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J132" s="2" t="s">
         <v>27</v>
@@ -6833,7 +6824,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B133" s="13" t="s">
         <v>4</v>
@@ -6842,19 +6833,19 @@
         <v>166</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="H133" s="2">
         <v>3</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J133" s="2" t="s">
         <v>28</v>
@@ -6865,7 +6856,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B134" s="13" t="s">
         <v>4</v>
@@ -6874,19 +6865,19 @@
         <v>167</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H134" s="2">
         <v>3</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J134" s="2" t="s">
         <v>29</v>
@@ -6897,7 +6888,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B135" s="13" t="s">
         <v>4</v>
@@ -6906,19 +6897,19 @@
         <v>168</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H135" s="2">
         <v>3</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J135" s="2" t="s">
         <v>28</v>
@@ -6929,7 +6920,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B136" s="13" t="s">
         <v>4</v>
@@ -6938,19 +6929,19 @@
         <v>169</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="H136" s="2">
         <v>3</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J136" s="2" t="s">
         <v>29</v>
@@ -6961,7 +6952,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B137" s="13" t="s">
         <v>4</v>
@@ -6970,19 +6961,19 @@
         <v>170</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H137" s="2">
         <v>3</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J137" s="2" t="s">
         <v>30</v>
@@ -6993,7 +6984,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B138" s="13" t="s">
         <v>4</v>
@@ -7002,19 +6993,19 @@
         <v>171</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="H138" s="2">
         <v>3</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J138" s="2" t="s">
         <v>31</v>
@@ -7025,7 +7016,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B139" s="13" t="s">
         <v>4</v>
@@ -7034,19 +7025,19 @@
         <v>172</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="H139" s="2">
         <v>3</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J139" s="2" t="s">
         <v>34</v>
@@ -7057,7 +7048,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B140" s="13" t="s">
         <v>4</v>
@@ -7066,19 +7057,19 @@
         <v>173</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H140" s="2">
         <v>3</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J140" s="2" t="s">
         <v>35</v>
@@ -7089,7 +7080,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B141" s="13" t="s">
         <v>4</v>
@@ -7098,19 +7089,19 @@
         <v>174</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H141" s="2">
         <v>3</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J141" s="2" t="s">
         <v>34</v>
@@ -7121,7 +7112,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B142" s="13" t="s">
         <v>4</v>
@@ -7130,19 +7121,19 @@
         <v>175</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="H142" s="2">
         <v>3</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J142" s="2" t="s">
         <v>35</v>
@@ -7153,7 +7144,7 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B143" s="13" t="s">
         <v>4</v>
@@ -7162,19 +7153,19 @@
         <v>176</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H143" s="2">
         <v>3</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J143" s="2" t="s">
         <v>36</v>
@@ -7185,7 +7176,7 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B144" s="13" t="s">
         <v>4</v>
@@ -7194,19 +7185,19 @@
         <v>177</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="H144" s="2">
         <v>3</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J144" s="2" t="s">
         <v>37</v>
@@ -7217,7 +7208,7 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B145" s="13" t="s">
         <v>4</v>
@@ -7226,19 +7217,19 @@
         <v>178</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="H145" s="2">
         <v>3</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J145" s="2" t="s">
         <v>34</v>
@@ -7249,7 +7240,7 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B146" s="13" t="s">
         <v>4</v>
@@ -7258,19 +7249,19 @@
         <v>179</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H146" s="2">
         <v>3</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J146" s="2" t="s">
         <v>35</v>
@@ -7281,7 +7272,7 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B147" s="13" t="s">
         <v>4</v>
@@ -7290,19 +7281,19 @@
         <v>180</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H147" s="2">
         <v>3</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J147" s="2" t="s">
         <v>34</v>
@@ -7313,7 +7304,7 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B148" s="13" t="s">
         <v>4</v>
@@ -7322,19 +7313,19 @@
         <v>181</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="H148" s="2">
         <v>3</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J148" s="2" t="s">
         <v>35</v>
@@ -7345,7 +7336,7 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B149" s="13" t="s">
         <v>4</v>
@@ -7354,19 +7345,19 @@
         <v>182</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H149" s="2">
         <v>3</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J149" s="2" t="s">
         <v>36</v>
@@ -7377,7 +7368,7 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B150" s="13" t="s">
         <v>4</v>
@@ -7386,19 +7377,19 @@
         <v>183</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="H150" s="2">
         <v>3</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J150" s="2" t="s">
         <v>37</v>
@@ -7409,7 +7400,7 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B151" s="13" t="s">
         <v>4</v>
@@ -7418,19 +7409,19 @@
         <v>184</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E151" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="F151" s="2" t="s">
         <v>558</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>560</v>
       </c>
       <c r="H151" s="2">
         <v>3</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J151" s="2" t="s">
         <v>32</v>
@@ -7441,7 +7432,7 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B152" s="13" t="s">
         <v>4</v>
@@ -7450,19 +7441,19 @@
         <v>185</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H152" s="2">
         <v>3</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J152" s="2" t="s">
         <v>33</v>
@@ -7473,7 +7464,7 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B153" s="13" t="s">
         <v>4</v>
@@ -7482,16 +7473,16 @@
         <v>186</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H153" s="2">
         <v>2</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J153" s="2" t="s">
         <v>34</v>
@@ -7502,7 +7493,7 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B154" s="13" t="s">
         <v>4</v>
@@ -7511,16 +7502,16 @@
         <v>187</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="H154" s="2">
         <v>2</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J154" s="2" t="s">
         <v>35</v>
@@ -7531,7 +7522,7 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B155" s="13" t="s">
         <v>4</v>
@@ -7540,16 +7531,16 @@
         <v>188</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H155" s="2">
         <v>2</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J155" s="2" t="s">
         <v>36</v>
@@ -7560,7 +7551,7 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B156" s="13" t="s">
         <v>4</v>
@@ -7569,16 +7560,16 @@
         <v>189</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="H156" s="2">
         <v>2</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J156" s="2" t="s">
         <v>37</v>
@@ -7589,7 +7580,7 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B157" s="13" t="s">
         <v>4</v>
@@ -7598,16 +7589,16 @@
         <v>190</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H157" s="2">
         <v>2</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J157" s="2" t="s">
         <v>38</v>
@@ -7618,7 +7609,7 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B158" s="13" t="s">
         <v>4</v>
@@ -7627,16 +7618,16 @@
         <v>191</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="H158" s="2">
         <v>2</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J158" s="2" t="s">
         <v>39</v>
@@ -7647,7 +7638,7 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B159" s="13" t="s">
         <v>4</v>
@@ -7656,16 +7647,16 @@
         <v>192</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="H159" s="2">
         <v>2</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J159" s="2" t="s">
         <v>40</v>
@@ -7676,7 +7667,7 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B160" s="13" t="s">
         <v>4</v>
@@ -7685,16 +7676,16 @@
         <v>193</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H160" s="2">
         <v>2</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J160" s="2" t="s">
         <v>22</v>
@@ -7705,7 +7696,7 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B161" s="13" t="s">
         <v>4</v>
@@ -7714,16 +7705,16 @@
         <v>194</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="H161" s="2">
         <v>2</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J161" s="2" t="s">
         <v>22</v>
@@ -7734,25 +7725,25 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B162" s="16" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>195</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H162" s="2">
         <v>2</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J162" s="2" t="s">
         <v>5</v>
@@ -7763,25 +7754,25 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B163" s="16" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>196</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="H163" s="2">
         <v>2</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J163" s="2" t="s">
         <v>6</v>
@@ -7792,28 +7783,28 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B164" s="16" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>197</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="H164" s="2">
         <v>3</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J164" s="2" t="s">
         <v>17</v>
@@ -7824,28 +7815,28 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B165" s="16" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>198</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E165" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="F165" s="2" t="s">
         <v>559</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>561</v>
       </c>
       <c r="H165" s="2">
         <v>3</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J165" s="2" t="s">
         <v>18</v>
@@ -7856,25 +7847,25 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B166" s="16" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>199</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H166" s="2">
         <v>2</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J166" s="2" t="s">
         <v>22</v>
@@ -7885,25 +7876,25 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B167" s="16" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>200</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="H167" s="2">
         <v>2</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J167" s="2" t="s">
         <v>22</v>
@@ -7914,25 +7905,25 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B168" s="16" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>201</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H168" s="2">
         <v>2</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J168" s="2" t="s">
         <v>43</v>
@@ -7943,25 +7934,25 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B169" s="16" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>202</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="H169" s="2">
         <v>2</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J169" s="2" t="s">
         <v>44</v>
@@ -7972,25 +7963,25 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B170" s="16" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>203</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H170" s="2">
         <v>2</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J170" s="2" t="s">
         <v>42</v>
@@ -8001,25 +7992,25 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B171" s="16" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>204</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="H171" s="2">
         <v>2</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J171" s="2" t="s">
         <v>41</v>
@@ -8030,25 +8021,25 @@
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B172" s="16" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>205</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H172" s="2">
         <v>2</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="J172" s="2" t="s">
         <v>23</v>
@@ -8059,25 +8050,25 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B173" s="14" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>206</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H173" s="2">
         <v>2</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="J173" s="2" t="s">
         <v>46</v>
@@ -8088,25 +8079,25 @@
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B174" s="14" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>207</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H174" s="2">
         <v>2</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J174" s="2" t="s">
         <v>47</v>
@@ -8117,25 +8108,25 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B175" s="14" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>208</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H175" s="2">
         <v>2</v>
       </c>
       <c r="I175" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J175" s="2" t="s">
         <v>46</v>
@@ -8146,25 +8137,25 @@
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B176" s="14" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>209</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H176" s="2">
         <v>2</v>
       </c>
       <c r="I176" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J176" s="2" t="s">
         <v>47</v>
@@ -8175,25 +8166,25 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B177" s="14" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>210</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H177" s="2">
         <v>2</v>
       </c>
       <c r="I177" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J177" s="2" t="s">
         <v>46</v>
@@ -8204,25 +8195,25 @@
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B178" s="14" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>211</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H178" s="2">
         <v>2</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J178" s="2" t="s">
         <v>47</v>
@@ -8233,25 +8224,25 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B179" s="14" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>212</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H179" s="2">
         <v>2</v>
       </c>
       <c r="I179" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J179" s="2" t="s">
         <v>46</v>
@@ -8262,25 +8253,25 @@
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B180" s="14" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>213</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H180" s="2">
         <v>2</v>
       </c>
       <c r="I180" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J180" s="2" t="s">
         <v>47</v>
@@ -8291,22 +8282,22 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B181" s="14" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>214</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H181" s="2">
         <v>1</v>
       </c>
       <c r="I181" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J181" s="2" t="s">
         <v>12</v>
@@ -8317,22 +8308,22 @@
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B182" s="14" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>215</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H182" s="2">
         <v>1</v>
       </c>
       <c r="I182" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J182" s="2" t="s">
         <v>12</v>
@@ -8343,22 +8334,22 @@
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B183" s="14" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>216</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H183" s="2">
         <v>1</v>
       </c>
       <c r="I183" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J183" s="2" t="s">
         <v>12</v>
@@ -8369,22 +8360,22 @@
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B184" s="14" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>217</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H184" s="2">
         <v>1</v>
       </c>
       <c r="I184" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J184" s="2" t="s">
         <v>12</v>
@@ -8395,22 +8386,22 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B185" s="16" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>218</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H185" s="2">
         <v>1</v>
       </c>
       <c r="I185" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J185" s="2" t="s">
         <v>12</v>
@@ -8421,22 +8412,22 @@
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B186" s="16" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>219</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H186" s="2">
         <v>1</v>
       </c>
       <c r="I186" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J186" s="2" t="s">
         <v>12</v>
@@ -8447,22 +8438,22 @@
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B187" s="16" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>220</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H187" s="2">
         <v>1</v>
       </c>
       <c r="I187" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J187" s="2" t="s">
         <v>12</v>
@@ -8473,22 +8464,22 @@
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B188" s="16" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>221</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H188" s="2">
         <v>1</v>
       </c>
       <c r="I188" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J188" s="2" t="s">
         <v>12</v>
@@ -8499,25 +8490,25 @@
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B189" s="17" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>222</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H189" s="2">
         <v>2</v>
       </c>
       <c r="I189" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J189" s="2" t="s">
         <v>5</v>
@@ -8528,28 +8519,28 @@
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B190" s="17" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>223</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="H190" s="2">
         <v>3</v>
       </c>
       <c r="I190" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="J190" s="2" t="s">
         <v>17</v>
@@ -8560,28 +8551,28 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B191" s="17" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>224</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E191" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="F191" s="2" t="s">
         <v>559</v>
-      </c>
-      <c r="F191" s="2" t="s">
-        <v>561</v>
       </c>
       <c r="H191" s="2">
         <v>3</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J191" s="2" t="s">
         <v>18</v>
@@ -8592,28 +8583,28 @@
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B192" s="17" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>225</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H192" s="2">
         <v>3</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J192" s="2" t="s">
         <v>17</v>
@@ -8624,28 +8615,28 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B193" s="17" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>226</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="H193" s="2">
         <v>3</v>
       </c>
       <c r="I193" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J193" s="2" t="s">
         <v>18</v>
@@ -8656,28 +8647,28 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B194" s="17" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>227</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H194" s="2">
         <v>3</v>
       </c>
       <c r="I194" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J194" s="2" t="s">
         <v>19</v>
@@ -8688,28 +8679,28 @@
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B195" s="17" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>228</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="H195" s="2">
         <v>3</v>
       </c>
       <c r="I195" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J195" s="2" t="s">
         <v>20</v>
@@ -8720,25 +8711,25 @@
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B196" s="17" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>229</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="H196" s="2">
         <v>2</v>
       </c>
       <c r="I196" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J196" s="2" t="s">
         <v>21</v>
@@ -8749,25 +8740,25 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B197" s="17" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>230</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="H197" s="2">
         <v>2</v>
       </c>
       <c r="I197" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J197" s="2" t="s">
         <v>22</v>
@@ -8778,22 +8769,22 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B198" s="17" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>231</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="H198" s="2">
         <v>1</v>
       </c>
       <c r="I198" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J198" s="2" t="s">
         <v>1</v>
@@ -8804,25 +8795,25 @@
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B199" s="24" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>232</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="H199" s="2">
         <v>2</v>
       </c>
       <c r="I199" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J199" s="2" t="s">
         <v>6</v>
@@ -8833,28 +8824,28 @@
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B200" s="24" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>233</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="H200" s="2">
         <v>3</v>
       </c>
       <c r="I200" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J200" s="2" t="s">
         <v>17</v>
@@ -8865,28 +8856,28 @@
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B201" s="24" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>234</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E201" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="F201" s="2" t="s">
         <v>559</v>
-      </c>
-      <c r="F201" s="2" t="s">
-        <v>561</v>
       </c>
       <c r="H201" s="2">
         <v>3</v>
       </c>
       <c r="I201" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J201" s="2" t="s">
         <v>18</v>
@@ -8897,28 +8888,28 @@
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B202" s="24" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>235</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H202" s="2">
         <v>3</v>
       </c>
       <c r="I202" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J202" s="2" t="s">
         <v>17</v>
@@ -8929,28 +8920,28 @@
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B203" s="24" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>236</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="H203" s="2">
         <v>3</v>
       </c>
       <c r="I203" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J203" s="2" t="s">
         <v>18</v>
@@ -8961,28 +8952,28 @@
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B204" s="24" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>237</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H204" s="2">
         <v>3</v>
       </c>
       <c r="I204" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J204" s="2" t="s">
         <v>19</v>
@@ -8993,28 +8984,28 @@
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B205" s="24" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>238</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="H205" s="2">
         <v>3</v>
       </c>
       <c r="I205" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J205" s="2" t="s">
         <v>20</v>
@@ -9025,25 +9016,25 @@
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B206" s="24" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>239</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="H206" s="2">
         <v>2</v>
       </c>
       <c r="I206" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J206" s="2" t="s">
         <v>21</v>
@@ -9054,25 +9045,25 @@
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B207" s="24" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>240</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H207" s="2">
         <v>2</v>
       </c>
       <c r="I207" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J207" s="2" t="s">
         <v>22</v>
@@ -9083,22 +9074,22 @@
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B208" s="24" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H208" s="2">
         <v>1</v>
       </c>
       <c r="I208" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J208" s="2" t="s">
         <v>0</v>
@@ -9109,25 +9100,25 @@
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B209" s="24" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>242</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H209" s="2">
         <v>2</v>
       </c>
       <c r="I209" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J209" s="2" t="s">
         <v>23</v>
@@ -9138,28 +9129,28 @@
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="10" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B210" s="13" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>243</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="H210" s="2">
         <v>2</v>
       </c>
       <c r="I210" s="2" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="J210" s="2" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="K210" s="2" t="s">
         <v>74</v>
@@ -9167,28 +9158,28 @@
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="10" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B211" s="13" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>244</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="H211" s="2">
         <v>2</v>
       </c>
       <c r="I211" s="2" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="J211" s="2" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="K211" s="2" t="s">
         <v>48</v>
@@ -9196,57 +9187,57 @@
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="10" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B212" s="13" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>245</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="H212" s="2">
         <v>2</v>
       </c>
       <c r="I212" s="2" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="J212" s="2" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="K212" s="2" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="10" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B213" s="13" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>246</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="H213" s="2">
         <v>2</v>
       </c>
       <c r="I213" s="2" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="J213" s="2" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="K213" s="2" t="s">
         <v>50</v>
@@ -9254,25 +9245,25 @@
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B214" s="17" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>247</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H214" s="2">
         <v>2</v>
       </c>
       <c r="I214" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="J214" s="2" t="s">
         <v>23</v>
@@ -9283,28 +9274,28 @@
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="8" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>248</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="H215" s="2">
         <v>3</v>
       </c>
       <c r="I215" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J215" s="2" t="s">
         <v>52</v>
@@ -9315,28 +9306,28 @@
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="8" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>249</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H216" s="2">
         <v>3</v>
       </c>
       <c r="I216" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J216" s="2" t="s">
         <v>53</v>
@@ -9347,28 +9338,28 @@
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="8" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>250</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H217" s="2">
         <v>3</v>
       </c>
       <c r="I217" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J217" s="2" t="s">
         <v>52</v>
@@ -9379,28 +9370,28 @@
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="8" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>251</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="H218" s="2">
         <v>3</v>
       </c>
       <c r="I218" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J218" s="2" t="s">
         <v>53</v>
@@ -9411,28 +9402,28 @@
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="8" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>252</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H219" s="2">
         <v>3</v>
       </c>
       <c r="I219" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J219" s="2" t="s">
         <v>54</v>
@@ -9443,28 +9434,28 @@
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="8" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B220" s="8" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>253</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="H220" s="2">
         <v>3</v>
       </c>
       <c r="I220" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J220" s="2" t="s">
         <v>55</v>
@@ -9475,25 +9466,25 @@
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="8" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>254</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="H221" s="2">
         <v>2</v>
       </c>
       <c r="I221" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J221" s="2" t="s">
         <v>56</v>
@@ -9504,25 +9495,25 @@
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B222" s="17" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>255</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="H222" s="2">
         <v>2</v>
       </c>
       <c r="I222" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J222" s="2" t="s">
         <v>57</v>
@@ -9533,25 +9524,25 @@
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B223" s="17" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>256</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H223" s="2">
         <v>2</v>
       </c>
       <c r="I223" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J223" s="2" t="s">
         <v>58</v>
@@ -9562,25 +9553,25 @@
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B224" s="17" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>257</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H224" s="2">
         <v>2</v>
       </c>
       <c r="I224" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J224" s="2" t="s">
         <v>57</v>
@@ -9591,25 +9582,25 @@
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B225" s="17" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>258</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="H225" s="2">
         <v>2</v>
       </c>
       <c r="I225" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J225" s="2" t="s">
         <v>58</v>
@@ -9620,25 +9611,25 @@
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B226" s="17" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>259</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H226" s="2">
         <v>2</v>
       </c>
       <c r="I226" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J226" s="2" t="s">
         <v>59</v>
@@ -9649,25 +9640,25 @@
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B227" s="17" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>260</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="H227" s="2">
         <v>2</v>
       </c>
       <c r="I227" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="J227" s="2" t="s">
         <v>60</v>
@@ -9678,22 +9669,22 @@
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B228" s="17" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>261</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H228" s="2">
         <v>1</v>
       </c>
       <c r="I228" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J228" s="2" t="s">
         <v>12</v>
@@ -9704,95 +9695,95 @@
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B229" s="13" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>262</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="H229" s="2">
         <v>4</v>
       </c>
       <c r="I229" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="J229" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="K229" s="2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="B230" s="15" t="s">
         <v>711</v>
-      </c>
-      <c r="B230" s="15" t="s">
-        <v>713</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>263</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H230" s="2">
         <v>4</v>
       </c>
       <c r="I230" s="2" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="J230" s="2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="K230" s="2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B231" s="24" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>264</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H231" s="2">
         <v>2</v>
       </c>
       <c r="I231" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="J231" s="2" t="s">
         <v>46</v>
@@ -9803,25 +9794,25 @@
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B232" s="24" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>265</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H232" s="2">
         <v>2</v>
       </c>
       <c r="I232" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="J232" s="2" t="s">
         <v>47</v>
@@ -9832,25 +9823,25 @@
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B233" s="24" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>266</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H233" s="2">
         <v>2</v>
       </c>
       <c r="I233" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J233" s="2" t="s">
         <v>46</v>
@@ -9861,25 +9852,25 @@
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B234" s="24" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>267</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H234" s="2">
         <v>2</v>
       </c>
       <c r="I234" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="J234" s="2" t="s">
         <v>47</v>
@@ -9890,25 +9881,25 @@
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B235" s="24" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>268</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H235" s="2">
         <v>2</v>
       </c>
       <c r="I235" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J235" s="2" t="s">
         <v>15</v>
@@ -9919,25 +9910,25 @@
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B236" s="24" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>269</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H236" s="2">
         <v>2</v>
       </c>
       <c r="I236" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J236" s="2" t="s">
         <v>16</v>
@@ -9948,22 +9939,22 @@
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B237" s="24" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>270</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H237" s="2">
         <v>1</v>
       </c>
       <c r="I237" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="J237" s="2" t="s">
         <v>12</v>
@@ -9974,25 +9965,25 @@
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B238" s="16" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>271</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H238" s="2">
         <v>2</v>
       </c>
       <c r="I238" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J238" s="2" t="s">
         <v>46</v>
@@ -10003,25 +9994,25 @@
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B239" s="16" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>272</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H239" s="2">
         <v>2</v>
       </c>
       <c r="I239" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J239" s="2" t="s">
         <v>47</v>
@@ -10032,22 +10023,22 @@
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B240" s="16" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>273</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="H240" s="2">
         <v>1</v>
       </c>
       <c r="I240" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J240" s="2" t="s">
         <v>45</v>
@@ -10058,22 +10049,22 @@
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B241" s="16" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>274</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="H241" s="2">
         <v>1</v>
       </c>
       <c r="I241" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J241" s="2" t="s">
         <v>7</v>
@@ -10084,22 +10075,22 @@
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B242" s="16" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>275</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="H242" s="2">
         <v>1</v>
       </c>
       <c r="I242" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="J242" s="2" t="s">
         <v>8</v>
@@ -10110,22 +10101,22 @@
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B243" s="16" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>276</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H243" s="2">
         <v>1</v>
       </c>
       <c r="I243" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J243" s="2" t="s">
         <v>9</v>
@@ -10136,25 +10127,25 @@
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B244" s="16" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>277</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H244" s="2">
         <v>2</v>
       </c>
       <c r="I244" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J244" s="2" t="s">
         <v>46</v>
@@ -10165,25 +10156,25 @@
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B245" s="16" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>278</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H245" s="2">
         <v>2</v>
       </c>
       <c r="I245" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J245" s="2" t="s">
         <v>47</v>
@@ -10194,22 +10185,22 @@
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B246" s="16" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="H246" s="2">
         <v>1</v>
       </c>
       <c r="I246" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J246" s="2" t="s">
         <v>45</v>
@@ -10220,22 +10211,22 @@
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B247" s="16" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>280</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="H247" s="2">
         <v>1</v>
       </c>
       <c r="I247" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J247" s="2" t="s">
         <v>7</v>
@@ -10246,22 +10237,22 @@
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B248" s="16" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>281</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="H248" s="2">
         <v>1</v>
       </c>
       <c r="I248" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="J248" s="2" t="s">
         <v>8</v>
@@ -10272,22 +10263,22 @@
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B249" s="16" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>282</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H249" s="2">
         <v>1</v>
       </c>
       <c r="I249" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J249" s="2" t="s">
         <v>9</v>
@@ -10298,25 +10289,25 @@
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B250" s="16" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>283</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H250" s="2">
         <v>2</v>
       </c>
       <c r="I250" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="J250" s="2" t="s">
         <v>46</v>
@@ -10327,25 +10318,25 @@
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B251" s="16" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>284</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H251" s="2">
         <v>2</v>
       </c>
       <c r="I251" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J251" s="2" t="s">
         <v>47</v>
@@ -10356,22 +10347,22 @@
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B252" s="16" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>285</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="H252" s="2">
         <v>1</v>
       </c>
       <c r="I252" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="J252" s="2" t="s">
         <v>45</v>
@@ -10382,22 +10373,22 @@
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B253" s="16" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>286</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="H253" s="2">
         <v>1</v>
       </c>
       <c r="I253" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J253" s="2" t="s">
         <v>7</v>
@@ -10408,22 +10399,22 @@
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B254" s="16" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>287</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="H254" s="2">
         <v>1</v>
       </c>
       <c r="I254" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J254" s="2" t="s">
         <v>8</v>
@@ -10434,22 +10425,22 @@
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B255" s="16" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>288</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H255" s="2">
         <v>1</v>
       </c>
       <c r="I255" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J255" s="2" t="s">
         <v>9</v>
@@ -10460,25 +10451,25 @@
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B256" s="16" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H256" s="2">
         <v>2</v>
       </c>
       <c r="I256" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="J256" s="2" t="s">
         <v>46</v>
@@ -10489,25 +10480,25 @@
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B257" s="16" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H257" s="2">
         <v>2</v>
       </c>
       <c r="I257" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J257" s="2" t="s">
         <v>47</v>
@@ -10518,22 +10509,22 @@
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B258" s="16" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="H258" s="2">
         <v>1</v>
       </c>
       <c r="I258" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="J258" s="2" t="s">
         <v>45</v>
@@ -10544,22 +10535,22 @@
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B259" s="16" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="H259" s="2">
         <v>1</v>
       </c>
       <c r="I259" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J259" s="2" t="s">
         <v>7</v>
@@ -10570,22 +10561,22 @@
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B260" s="16" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="H260" s="2">
         <v>1</v>
       </c>
       <c r="I260" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J260" s="2" t="s">
         <v>8</v>
@@ -10596,22 +10587,22 @@
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B261" s="16" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H261" s="2">
         <v>1</v>
       </c>
       <c r="I261" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J261" s="2" t="s">
         <v>9</v>
@@ -10622,25 +10613,25 @@
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B262" s="16" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H262" s="2">
         <v>2</v>
       </c>
       <c r="I262" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J262" s="2" t="s">
         <v>46</v>
@@ -10651,25 +10642,25 @@
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B263" s="16" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H263" s="2">
         <v>2</v>
       </c>
       <c r="I263" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J263" s="2" t="s">
         <v>47</v>
@@ -10680,22 +10671,22 @@
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B264" s="16" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="H264" s="2">
         <v>1</v>
       </c>
       <c r="I264" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="J264" s="2" t="s">
         <v>45</v>
@@ -10706,22 +10697,22 @@
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B265" s="16" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="H265" s="2">
         <v>1</v>
       </c>
       <c r="I265" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J265" s="2" t="s">
         <v>7</v>
@@ -10732,22 +10723,22 @@
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B266" s="16" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="H266" s="2">
         <v>1</v>
       </c>
       <c r="I266" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J266" s="2" t="s">
         <v>8</v>
@@ -10758,22 +10749,22 @@
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B267" s="16" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H267" s="2">
         <v>1</v>
       </c>
       <c r="I267" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="J267" s="2" t="s">
         <v>9</v>
@@ -10784,22 +10775,22 @@
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B268" s="16" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>289</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H268" s="2">
         <v>1</v>
       </c>
       <c r="I268" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J268" s="2" t="s">
         <v>12</v>
@@ -10810,22 +10801,22 @@
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B269" s="16" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>290</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H269" s="2">
         <v>1</v>
       </c>
       <c r="I269" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="J269" s="2" t="s">
         <v>12</v>
@@ -10836,22 +10827,22 @@
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B270" s="16" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>291</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H270" s="2">
         <v>1</v>
       </c>
       <c r="I270" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="J270" s="2" t="s">
         <v>12</v>
@@ -10862,22 +10853,22 @@
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B271" s="16" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H271" s="2">
         <v>1</v>
       </c>
       <c r="I271" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J271" s="2" t="s">
         <v>12</v>
@@ -10888,22 +10879,22 @@
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B272" s="16" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H272" s="2">
         <v>1</v>
       </c>
       <c r="I272" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J272" s="2" t="s">
         <v>12</v>
@@ -10913,110 +10904,110 @@
       </c>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A273" s="18" t="s">
-        <v>714</v>
-      </c>
-      <c r="B273" s="12" t="s">
-        <v>723</v>
+      <c r="A273" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="B273" s="23" t="s">
+        <v>705</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>292</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="E273" s="2" t="s">
-        <v>568</v>
+        <v>545</v>
       </c>
       <c r="H273" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I273" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J273" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="K273" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="10" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B274" s="23" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C274" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="H274" s="2">
+        <v>1</v>
+      </c>
+      <c r="I274" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="J274" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K274" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A275" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="B275" s="25" t="s">
+        <v>704</v>
+      </c>
+      <c r="C275" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="D274" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="H274" s="2">
-        <v>1</v>
-      </c>
-      <c r="I274" s="2" t="s">
+      <c r="D275" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="E275" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="H275" s="2">
+        <v>2</v>
+      </c>
+      <c r="I275" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="J274" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K274" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A275" s="10" t="s">
-        <v>683</v>
-      </c>
-      <c r="B275" s="23" t="s">
-        <v>707</v>
-      </c>
-      <c r="C275" s="2" t="s">
-        <v>797</v>
-      </c>
-      <c r="D275" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="H275" s="2">
-        <v>1</v>
-      </c>
-      <c r="I275" s="2" t="s">
-        <v>508</v>
-      </c>
       <c r="J275" s="2" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="K275" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B276" s="25" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>294</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H276" s="2">
         <v>2</v>
       </c>
       <c r="I276" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J276" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K276" s="2" t="s">
         <v>13</v>
@@ -11024,28 +11015,25 @@
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B277" s="25" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>295</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="E277" s="2" t="s">
-        <v>558</v>
+        <v>522</v>
       </c>
       <c r="H277" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I277" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J277" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K277" s="2" t="s">
         <v>13</v>
@@ -11053,10 +11041,10 @@
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B278" s="25" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>296</v>
@@ -11068,10 +11056,10 @@
         <v>1</v>
       </c>
       <c r="I278" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="J278" s="2" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="K278" s="2" t="s">
         <v>13</v>
@@ -11079,25 +11067,25 @@
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B279" s="25" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>297</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="H279" s="2">
         <v>1</v>
       </c>
       <c r="I279" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J279" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K279" s="2" t="s">
         <v>13</v>
@@ -11105,25 +11093,25 @@
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B280" s="25" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>298</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="H280" s="2">
         <v>1</v>
       </c>
       <c r="I280" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="J280" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K280" s="2" t="s">
         <v>13</v>
@@ -11131,103 +11119,106 @@
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B281" s="25" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>299</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H281" s="2">
         <v>1</v>
       </c>
       <c r="I281" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J281" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K281" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A282" s="7" t="s">
-        <v>698</v>
-      </c>
-      <c r="B282" s="25" t="s">
-        <v>706</v>
+      <c r="A282" s="19" t="s">
+        <v>685</v>
+      </c>
+      <c r="B282" s="13" t="s">
+        <v>714</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>300</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="H282" s="2">
         <v>1</v>
       </c>
-      <c r="I282" s="2" t="s">
-        <v>515</v>
+      <c r="I282" s="4" t="s">
+        <v>650</v>
       </c>
       <c r="J282" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K282" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="19" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B283" s="13" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>301</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>548</v>
+        <v>570</v>
+      </c>
+      <c r="E283" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="H283" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I283" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="J283" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="K283" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="19" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B284" s="13" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>302</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H284" s="2">
         <v>2</v>
       </c>
       <c r="I284" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="J284" s="2" t="s">
-        <v>12</v>
+        <v>649</v>
       </c>
       <c r="K284" s="2" t="s">
         <v>4</v>
@@ -11235,80 +11226,80 @@
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="19" t="s">
-        <v>687</v>
-      </c>
-      <c r="B285" s="13" t="s">
-        <v>716</v>
+        <v>685</v>
+      </c>
+      <c r="B285" s="12" t="s">
+        <v>715</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>303</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="E285" s="2" t="s">
-        <v>559</v>
+        <v>523</v>
       </c>
       <c r="H285" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I285" s="4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="J285" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="K285" s="2" t="s">
-        <v>4</v>
+        <v>520</v>
       </c>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="19" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B286" s="12" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>304</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>525</v>
+        <v>570</v>
+      </c>
+      <c r="E286" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="H286" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I286" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="J286" s="2" t="s">
-        <v>522</v>
+        <v>526</v>
+      </c>
+      <c r="K286" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="19" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B287" s="12" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>305</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H287" s="2">
         <v>2</v>
       </c>
       <c r="I287" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="J287" s="2" t="s">
-        <v>528</v>
+        <v>649</v>
       </c>
       <c r="K287" s="2" t="s">
         <v>4</v>
@@ -11316,28 +11307,28 @@
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="19" t="s">
-        <v>687</v>
-      </c>
-      <c r="B288" s="12" t="s">
-        <v>717</v>
+        <v>685</v>
+      </c>
+      <c r="B288" s="27" t="s">
+        <v>706</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>306</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H288" s="2">
         <v>2</v>
       </c>
       <c r="I288" s="4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="J288" s="2" t="s">
-        <v>651</v>
+        <v>520</v>
       </c>
       <c r="K288" s="2" t="s">
         <v>4</v>
@@ -11345,28 +11336,28 @@
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="19" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B289" s="27" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>307</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>574</v>
+        <v>546</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H289" s="2">
         <v>2</v>
       </c>
       <c r="I289" s="4" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="J289" s="2" t="s">
-        <v>522</v>
+        <v>13</v>
       </c>
       <c r="K289" s="2" t="s">
         <v>4</v>
@@ -11374,28 +11365,28 @@
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="19" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B290" s="27" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>308</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>548</v>
+        <v>571</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H290" s="2">
         <v>2</v>
       </c>
       <c r="I290" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="J290" s="2" t="s">
-        <v>13</v>
+        <v>649</v>
       </c>
       <c r="K290" s="2" t="s">
         <v>4</v>
@@ -11403,28 +11394,28 @@
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="19" t="s">
-        <v>687</v>
-      </c>
-      <c r="B291" s="27" t="s">
-        <v>708</v>
+        <v>685</v>
+      </c>
+      <c r="B291" s="14" t="s">
+        <v>697</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>309</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H291" s="2">
         <v>2</v>
       </c>
       <c r="I291" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="J291" s="2" t="s">
-        <v>651</v>
+        <v>520</v>
       </c>
       <c r="K291" s="2" t="s">
         <v>4</v>
@@ -11432,28 +11423,28 @@
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="19" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B292" s="14" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>310</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>574</v>
+        <v>546</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H292" s="2">
         <v>2</v>
       </c>
       <c r="I292" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="J292" s="2" t="s">
-        <v>522</v>
+        <v>13</v>
       </c>
       <c r="K292" s="2" t="s">
         <v>4</v>
@@ -11461,71 +11452,68 @@
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="19" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B293" s="14" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>311</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>548</v>
+        <v>573</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H293" s="2">
         <v>2</v>
       </c>
       <c r="I293" s="4" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="J293" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K293" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A294" s="19" t="s">
-        <v>687</v>
-      </c>
-      <c r="B294" s="14" t="s">
-        <v>699</v>
+      <c r="A294" s="21" t="s">
+        <v>708</v>
+      </c>
+      <c r="B294" s="17" t="s">
+        <v>719</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>312</v>
+        <v>741</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="E294" s="2" t="s">
-        <v>559</v>
+        <v>71</v>
       </c>
       <c r="H294" s="2">
-        <v>2</v>
-      </c>
-      <c r="I294" s="4" t="s">
-        <v>663</v>
+        <v>1</v>
+      </c>
+      <c r="I294" s="2" t="s">
+        <v>514</v>
       </c>
       <c r="J294" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K294" s="2" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="21" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B295" s="17" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>744</v>
+        <v>312</v>
       </c>
       <c r="D295" s="2" t="s">
         <v>71</v>
@@ -11534,165 +11522,139 @@
         <v>1</v>
       </c>
       <c r="I295" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="J295" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K295" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="21" t="s">
-        <v>710</v>
-      </c>
-      <c r="B296" s="17" t="s">
-        <v>721</v>
+        <v>708</v>
+      </c>
+      <c r="B296" s="24" t="s">
+        <v>720</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>313</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="E296" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H296" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I296" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J296" s="2" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="K296" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="21" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B297" s="24" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>314</v>
+        <v>738</v>
       </c>
       <c r="D297" s="2" t="s">
         <v>72</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="H297" s="2">
         <v>2</v>
       </c>
       <c r="I297" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J297" s="2" t="s">
         <v>63</v>
       </c>
       <c r="K297" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A298" s="21" t="s">
-        <v>710</v>
-      </c>
-      <c r="B298" s="24" t="s">
-        <v>722</v>
+      <c r="A298" s="20" t="s">
+        <v>686</v>
+      </c>
+      <c r="B298" s="13" t="s">
+        <v>687</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>741</v>
+        <v>689</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>72</v>
+        <v>577</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>576</v>
+        <v>578</v>
+      </c>
+      <c r="F298" s="2" t="s">
+        <v>555</v>
       </c>
       <c r="H298" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I298" s="2" t="s">
-        <v>519</v>
+        <v>616</v>
       </c>
       <c r="J298" s="2" t="s">
-        <v>63</v>
+        <v>614</v>
       </c>
       <c r="K298" s="2" t="s">
-        <v>67</v>
+        <v>615</v>
       </c>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="20" t="s">
+        <v>686</v>
+      </c>
+      <c r="B299" s="15" t="s">
+        <v>690</v>
+      </c>
+      <c r="C299" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="B299" s="13" t="s">
-        <v>689</v>
-      </c>
-      <c r="C299" s="2" t="s">
-        <v>691</v>
-      </c>
       <c r="D299" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F299" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="H299" s="2">
         <v>3</v>
       </c>
       <c r="I299" s="2" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="J299" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="K299" s="2" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A300" s="20" t="s">
-        <v>688</v>
-      </c>
-      <c r="B300" s="15" t="s">
-        <v>692</v>
-      </c>
-      <c r="C300" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="D300" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="E300" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="F300" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="H300" s="2">
-        <v>3</v>
-      </c>
-      <c r="I300" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="J300" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="K300" s="2" t="s">
-        <v>617</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K300" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K299" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -11711,12 +11673,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
   </sheetData>

--- a/Reference/AeroToolKitFunctionList.xlsx
+++ b/Reference/AeroToolKitFunctionList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fs272\AeroProgs\StdAtmoAddIn\AeroToolKitAddIn\Reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B89286-68D1-4E87-832C-493A1C74884A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E451406-2C9B-4AA6-8BA0-C37994ED5B6F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AeroToolKitFunctionList" sheetId="1" r:id="rId1"/>
@@ -285,24 +285,6 @@
     <t>AeroConvFtToNm</t>
   </si>
   <si>
-    <t>AeroConvGradFtPerNmToPct</t>
-  </si>
-  <si>
-    <t>AeroConvGradPctToFtPerNm</t>
-  </si>
-  <si>
-    <t>AeroConvGradPctToDeg</t>
-  </si>
-  <si>
-    <t>AeroConvGradDegToPct</t>
-  </si>
-  <si>
-    <t>AeroConvGradFtPerNmToDeg</t>
-  </si>
-  <si>
-    <t>AeroConvGradDegToFtPerNm</t>
-  </si>
-  <si>
     <t>AeroConvHPaToInHg</t>
   </si>
   <si>
@@ -1768,24 +1750,6 @@
   </si>
   <si>
     <t>Convert feet to nautical miles</t>
-  </si>
-  <si>
-    <t>Convert gradient: % to degrees</t>
-  </si>
-  <si>
-    <t>Convert gradient: degrees to %</t>
-  </si>
-  <si>
-    <t>Convert gradient: degrees to feet/nautical mile</t>
-  </si>
-  <si>
-    <t>Convert gradient: feet/nautical mile to degrees</t>
-  </si>
-  <si>
-    <t>Convert gradient: % to feet/nautical mile</t>
-  </si>
-  <si>
-    <t>Convert gradient: feet/nautical mile to %</t>
   </si>
   <si>
     <t>Convert meters to feet</t>
@@ -2500,6 +2464,42 @@
   </si>
   <si>
     <t>Convert kilometers to meters</t>
+  </si>
+  <si>
+    <t>AeroConvFtPerNmToPctGrad</t>
+  </si>
+  <si>
+    <t>AeroConvPctGradToFtPerNm</t>
+  </si>
+  <si>
+    <t>AeroConvPctGradToDeg</t>
+  </si>
+  <si>
+    <t>AeroConvDegToPctGrad</t>
+  </si>
+  <si>
+    <t>AeroConvFtPerNmToDeg</t>
+  </si>
+  <si>
+    <t>AeroConvDegToFtPerNm</t>
+  </si>
+  <si>
+    <t>Convert gradient in feet/nautical mile to %</t>
+  </si>
+  <si>
+    <t>Convert gradient in % to feet/nautical mile</t>
+  </si>
+  <si>
+    <t>Convert gradient in % to degrees</t>
+  </si>
+  <si>
+    <t>Convert gradient in degrees to %</t>
+  </si>
+  <si>
+    <t>Convert gradient in feet/nautical mile to degrees</t>
+  </si>
+  <si>
+    <t>Convert gradient in degrees to feet/nautical mile</t>
   </si>
 </sst>
 </file>
@@ -3177,7 +3177,7 @@
   <dimension ref="A1:K299"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="I300" sqref="I300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3197,60 +3197,60 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>70</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>712</v>
+        <v>700</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>538</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>544</v>
       </c>
       <c r="H2" s="2">
         <v>2</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>5</v>
@@ -3261,25 +3261,25 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>712</v>
+        <v>700</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="H3" s="2">
         <v>2</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>6</v>
@@ -3290,22 +3290,22 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="H4" s="2">
         <v>1</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>45</v>
@@ -3316,22 +3316,22 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="H5" s="2">
         <v>1</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>45</v>
@@ -3342,22 +3342,22 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>79</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="H6" s="2">
         <v>1</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>45</v>
@@ -3368,48 +3368,48 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="H7" s="2">
         <v>1</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="H8" s="2">
         <v>1</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>7</v>
@@ -3420,77 +3420,77 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>82</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="H9" s="2">
         <v>1</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="H10" s="2">
         <v>1</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="H11" s="2">
         <v>1</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>2</v>
@@ -3498,25 +3498,25 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="H12" s="2">
         <v>1</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>11</v>
@@ -3524,25 +3524,25 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="H13" s="2">
         <v>1</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>767</v>
+        <v>755</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>61</v>
@@ -3550,48 +3550,48 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="H14" s="2">
         <v>1</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>744</v>
+        <v>732</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>745</v>
+        <v>733</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="H15" s="2">
         <v>1</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>12</v>
@@ -3602,247 +3602,247 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="H16" s="2">
         <v>1</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>773</v>
+        <v>761</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="H17" s="2">
         <v>1</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>776</v>
+        <v>764</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>778</v>
+        <v>766</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>774</v>
+        <v>762</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="H18" s="2">
         <v>1</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>775</v>
+        <v>763</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>12</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>777</v>
+        <v>765</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>86</v>
+        <v>806</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H19" s="2">
         <v>1</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>586</v>
+        <v>812</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>87</v>
+        <v>807</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="H20" s="2">
         <v>1</v>
       </c>
       <c r="I20" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="K20" s="2" t="s">
         <v>585</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>595</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>88</v>
+        <v>808</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="H21" s="2">
         <v>1</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>581</v>
+        <v>814</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>89</v>
+        <v>809</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="H22" s="2">
         <v>1</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>582</v>
+        <v>815</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>90</v>
+        <v>810</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H23" s="2">
         <v>1</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>584</v>
+        <v>816</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>91</v>
+        <v>811</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="H24" s="2">
         <v>1</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>583</v>
+        <v>817</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>74</v>
@@ -3851,7 +3851,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>74</v>
@@ -3862,13 +3862,13 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>74</v>
@@ -3877,24 +3877,24 @@
         <v>1</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>74</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>74</v>
@@ -3903,33 +3903,33 @@
         <v>1</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>74</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="H28" s="2">
         <v>1</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>48</v>
@@ -3940,77 +3940,77 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="H29" s="2">
         <v>1</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>48</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="H30" s="2">
         <v>1</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>48</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="H31" s="2">
         <v>1</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>45</v>
@@ -4018,25 +4018,25 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="H32" s="2">
         <v>1</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>7</v>
@@ -4044,39 +4044,39 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="H33" s="2">
         <v>1</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>739</v>
+        <v>727</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>73</v>
@@ -4085,7 +4085,7 @@
         <v>1</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>65</v>
@@ -4096,22 +4096,22 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="H35" s="2">
         <v>1</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>2</v>
@@ -4122,22 +4122,22 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="H36" s="2">
         <v>1</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>2</v>
@@ -4148,22 +4148,22 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>746</v>
+        <v>734</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="H37" s="2">
         <v>1</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>764</v>
+        <v>752</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>2</v>
@@ -4174,51 +4174,51 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>747</v>
+        <v>735</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="H38" s="2">
         <v>1</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>760</v>
+        <v>748</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>2</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>745</v>
+        <v>733</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="H39" s="2">
         <v>1</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>74</v>
@@ -4226,25 +4226,25 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="H40" s="2">
         <v>1</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>48</v>
@@ -4252,51 +4252,51 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="H41" s="2">
         <v>1</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="H42" s="2">
         <v>1</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>74</v>
@@ -4304,25 +4304,25 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="H43" s="2">
         <v>1</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>48</v>
@@ -4330,48 +4330,48 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="H44" s="2">
         <v>1</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>736</v>
+        <v>724</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="H45" s="2">
         <v>1</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>11</v>
@@ -4382,22 +4382,22 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="H46" s="2">
         <v>1</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>11</v>
@@ -4408,22 +4408,22 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="H47" s="2">
         <v>1</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>765</v>
+        <v>753</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>11</v>
@@ -4434,51 +4434,51 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="C48" s="30" t="s">
+        <v>737</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="H48" s="2">
+        <v>1</v>
+      </c>
+      <c r="I48" s="2" t="s">
         <v>749</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="H48" s="2">
-        <v>1</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>761</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>745</v>
+        <v>733</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="C49" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="H49" s="2">
+        <v>1</v>
+      </c>
+      <c r="I49" s="2" t="s">
         <v>750</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>758</v>
-      </c>
-      <c r="H49" s="2">
-        <v>1</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>762</v>
-      </c>
       <c r="J49" s="2" t="s">
-        <v>745</v>
+        <v>733</v>
       </c>
       <c r="K49" s="2" t="s">
         <v>2</v>
@@ -4486,25 +4486,25 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="C50" s="30" t="s">
+        <v>739</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="H50" s="2">
+        <v>1</v>
+      </c>
+      <c r="I50" s="2" t="s">
         <v>751</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>758</v>
-      </c>
-      <c r="H50" s="2">
-        <v>1</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>763</v>
-      </c>
       <c r="J50" s="2" t="s">
-        <v>745</v>
+        <v>733</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>11</v>
@@ -4512,25 +4512,25 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="C51" s="30" t="s">
-        <v>752</v>
+        <v>740</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
       <c r="H51" s="2">
         <v>1</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>766</v>
+        <v>754</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>745</v>
+        <v>733</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>61</v>
@@ -4538,25 +4538,25 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="C52" s="30" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
       <c r="H52" s="2">
         <v>1</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>769</v>
+        <v>757</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>745</v>
+        <v>733</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>10</v>
@@ -4564,22 +4564,22 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="C53" s="30" t="s">
-        <v>754</v>
+        <v>742</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>759</v>
+        <v>747</v>
       </c>
       <c r="H53" s="2">
         <v>1</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>768</v>
+        <v>756</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>61</v>
@@ -4590,22 +4590,22 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="C54" s="30" t="s">
-        <v>755</v>
+        <v>743</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>759</v>
+        <v>747</v>
       </c>
       <c r="H54" s="2">
         <v>1</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>770</v>
+        <v>758</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>61</v>
@@ -4616,48 +4616,48 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="C55" s="30" t="s">
-        <v>756</v>
+        <v>744</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>759</v>
+        <v>747</v>
       </c>
       <c r="H55" s="2">
         <v>1</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>772</v>
+        <v>760</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>61</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>745</v>
+        <v>733</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="C56" s="30" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="D56" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="H56" s="2">
+        <v>1</v>
+      </c>
+      <c r="I56" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="H56" s="2">
-        <v>1</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>771</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>61</v>
@@ -4668,22 +4668,22 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>796</v>
+        <v>784</v>
       </c>
       <c r="H57" s="2">
         <v>1</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>14</v>
@@ -4694,103 +4694,103 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>796</v>
+        <v>784</v>
       </c>
       <c r="H58" s="2">
         <v>1</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="C59" s="30" t="s">
-        <v>779</v>
+        <v>767</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>796</v>
+        <v>784</v>
       </c>
       <c r="H59" s="2">
         <v>1</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>785</v>
+        <v>773</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>778</v>
+        <v>766</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="C60" s="30" t="s">
-        <v>780</v>
+        <v>768</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>796</v>
+        <v>784</v>
       </c>
       <c r="H60" s="2">
         <v>1</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>783</v>
+        <v>771</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>777</v>
+        <v>765</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="H61" s="2">
         <v>1</v>
       </c>
       <c r="I61" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="J61" s="3" t="s">
         <v>589</v>
-      </c>
-      <c r="J61" s="3" t="s">
-        <v>601</v>
       </c>
       <c r="K61" s="2" t="s">
         <v>12</v>
@@ -4798,25 +4798,25 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>725</v>
+        <v>713</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="H62" s="2">
         <v>1</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="K62" s="2" t="s">
         <v>14</v>
@@ -4824,77 +4824,77 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="C63" s="30" t="s">
-        <v>781</v>
+        <v>769</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="H63" s="2">
         <v>1</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>786</v>
+        <v>774</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>778</v>
+        <v>766</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="C64" s="30" t="s">
-        <v>782</v>
+        <v>770</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="H64" s="2">
         <v>1</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>784</v>
+        <v>772</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>777</v>
+        <v>765</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="C65" s="30" t="s">
-        <v>800</v>
+        <v>788</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>804</v>
+        <v>792</v>
       </c>
       <c r="H65" s="2">
         <v>1</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>810</v>
+        <v>798</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>777</v>
+        <v>765</v>
       </c>
       <c r="K65" s="2" t="s">
         <v>12</v>
@@ -4902,51 +4902,51 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="C66" s="30" t="s">
-        <v>801</v>
+        <v>789</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>804</v>
+        <v>792</v>
       </c>
       <c r="H66" s="2">
         <v>1</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>811</v>
+        <v>799</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>777</v>
+        <v>765</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="C67" s="30" t="s">
-        <v>802</v>
+        <v>790</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>804</v>
+        <v>792</v>
       </c>
       <c r="H67" s="2">
         <v>1</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>812</v>
+        <v>800</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>777</v>
+        <v>765</v>
       </c>
       <c r="K67" s="2" t="s">
         <v>14</v>
@@ -4954,51 +4954,51 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="C68" s="30" t="s">
-        <v>803</v>
+        <v>791</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>804</v>
+        <v>792</v>
       </c>
       <c r="H68" s="2">
         <v>1</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>813</v>
+        <v>801</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>777</v>
+        <v>765</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>778</v>
+        <v>766</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="C69" s="30" t="s">
-        <v>805</v>
+        <v>793</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>809</v>
+        <v>797</v>
       </c>
       <c r="H69" s="2">
         <v>1</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>814</v>
+        <v>802</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>778</v>
+        <v>766</v>
       </c>
       <c r="K69" s="2" t="s">
         <v>12</v>
@@ -5006,77 +5006,77 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="C70" s="30" t="s">
-        <v>806</v>
+        <v>794</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>809</v>
+        <v>797</v>
       </c>
       <c r="H70" s="2">
         <v>1</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>815</v>
+        <v>803</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>778</v>
+        <v>766</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="C71" s="30" t="s">
-        <v>807</v>
+        <v>795</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>809</v>
+        <v>797</v>
       </c>
       <c r="H71" s="2">
         <v>1</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>816</v>
+        <v>804</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>778</v>
+        <v>766</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>777</v>
+        <v>765</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="C72" s="30" t="s">
-        <v>808</v>
+        <v>796</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>809</v>
+        <v>797</v>
       </c>
       <c r="H72" s="2">
         <v>1</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>817</v>
+        <v>805</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>778</v>
+        <v>766</v>
       </c>
       <c r="K72" s="2" t="s">
         <v>14</v>
@@ -5084,51 +5084,51 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="H73" s="2">
         <v>1</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="H74" s="2">
         <v>1</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="K74" s="2" t="s">
         <v>45</v>
@@ -5136,25 +5136,25 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="H75" s="2">
         <v>1</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="K75" s="2" t="s">
         <v>7</v>
@@ -5162,25 +5162,25 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="H76" s="2">
         <v>1</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="K76" s="2" t="s">
         <v>8</v>
@@ -5188,13 +5188,13 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>73</v>
@@ -5203,7 +5203,7 @@
         <v>1</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>64</v>
@@ -5214,22 +5214,22 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="H78" s="2">
         <v>1</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="J78" s="2" t="s">
         <v>12</v>
@@ -5240,31 +5240,31 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="B79" s="29" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="H79" s="2">
         <v>3</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="K79" s="2" t="s">
         <v>12</v>
@@ -5272,31 +5272,31 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="B80" s="28" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="H80" s="2">
         <v>3</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>12</v>
@@ -5304,13 +5304,13 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="B81" s="26" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>3</v>
@@ -5319,7 +5319,7 @@
         <v>1</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="J81" s="2" t="s">
         <v>12</v>
@@ -5330,13 +5330,13 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="B82" s="26" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>795</v>
+        <v>783</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>3</v>
@@ -5345,7 +5345,7 @@
         <v>1</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>14</v>
@@ -5356,28 +5356,28 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="H83" s="2">
         <v>2</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="K83" s="2" t="s">
         <v>12</v>
@@ -5385,28 +5385,28 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="H84" s="2">
         <v>2</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="K84" s="2" t="s">
         <v>12</v>
@@ -5414,28 +5414,28 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="H85" s="2">
         <v>2</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="K85" s="2" t="s">
         <v>12</v>
@@ -5443,28 +5443,28 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="H86" s="2">
         <v>2</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="K86" s="2" t="s">
         <v>12</v>
@@ -5472,22 +5472,22 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="H87" s="2">
         <v>1</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="J87" s="2" t="s">
         <v>74</v>
@@ -5498,22 +5498,22 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="H88" s="2">
         <v>1</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="J88" s="2" t="s">
         <v>48</v>
@@ -5524,25 +5524,25 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="H89" s="2">
         <v>1</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="K89" s="2" t="s">
         <v>12</v>
@@ -5550,22 +5550,22 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="H90" s="2">
         <v>1</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>50</v>
@@ -5576,22 +5576,22 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="H91" s="2">
         <v>1</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>74</v>
@@ -5602,22 +5602,22 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="H92" s="2">
         <v>1</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="J92" s="2" t="s">
         <v>48</v>
@@ -5628,25 +5628,25 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="H93" s="2">
         <v>1</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="K93" s="2" t="s">
         <v>12</v>
@@ -5654,22 +5654,22 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="H94" s="2">
         <v>1</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>50</v>
@@ -5680,22 +5680,22 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>797</v>
+        <v>785</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="H95" s="2">
         <v>1</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>798</v>
+        <v>786</v>
       </c>
       <c r="J95" s="2" t="s">
         <v>47</v>
@@ -5706,25 +5706,25 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="H96" s="2">
         <v>2</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="J96" s="2" t="s">
         <v>46</v>
@@ -5735,25 +5735,25 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="H97" s="2">
         <v>2</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="J97" s="2" t="s">
         <v>47</v>
@@ -5764,25 +5764,25 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="H98" s="2">
         <v>2</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="J98" s="2" t="s">
         <v>15</v>
@@ -5793,25 +5793,25 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="H99" s="2">
         <v>2</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="J99" s="2" t="s">
         <v>16</v>
@@ -5822,22 +5822,22 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
       <c r="B100" s="17" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="H100" s="2">
         <v>1</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>799</v>
+        <v>787</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>46</v>
@@ -5848,25 +5848,25 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
       <c r="B101" s="17" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="H101" s="2">
         <v>2</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="J101" s="2" t="s">
         <v>46</v>
@@ -5877,25 +5877,25 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
       <c r="B102" s="17" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="H102" s="2">
         <v>2</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="J102" s="2" t="s">
         <v>47</v>
@@ -5906,25 +5906,25 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
       <c r="B103" s="17" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="H103" s="2">
         <v>2</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="J103" s="2" t="s">
         <v>15</v>
@@ -5935,25 +5935,25 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
       <c r="B104" s="17" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="H104" s="2">
         <v>2</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="J104" s="2" t="s">
         <v>16</v>
@@ -5964,25 +5964,25 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B105" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="H105" s="2">
         <v>2</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>6</v>
@@ -5993,28 +5993,28 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B106" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="H106" s="2">
         <v>3</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="J106" s="2" t="s">
         <v>17</v>
@@ -6025,28 +6025,28 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B107" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="H107" s="2">
         <v>3</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="J107" s="2" t="s">
         <v>18</v>
@@ -6057,28 +6057,28 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B108" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="H108" s="2">
         <v>3</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="J108" s="2" t="s">
         <v>17</v>
@@ -6089,28 +6089,28 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B109" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="H109" s="2">
         <v>3</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="J109" s="2" t="s">
         <v>18</v>
@@ -6121,28 +6121,28 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B110" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="H110" s="2">
         <v>3</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="J110" s="2" t="s">
         <v>19</v>
@@ -6153,28 +6153,28 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B111" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E111" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="F111" s="2" t="s">
         <v>557</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>563</v>
       </c>
       <c r="H111" s="2">
         <v>3</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="J111" s="2" t="s">
         <v>20</v>
@@ -6185,25 +6185,25 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B112" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="H112" s="2">
         <v>2</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="J112" s="2" t="s">
         <v>21</v>
@@ -6214,25 +6214,25 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B113" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="H113" s="2">
         <v>2</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="J113" s="2" t="s">
         <v>22</v>
@@ -6243,22 +6243,22 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B114" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="H114" s="2">
         <v>1</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="J114" s="2" t="s">
         <v>22</v>
@@ -6269,25 +6269,25 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B115" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="H115" s="2">
         <v>2</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="J115" s="2" t="s">
         <v>23</v>
@@ -6298,25 +6298,25 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B116" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="H116" s="2">
         <v>2</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="J116" s="2" t="s">
         <v>5</v>
@@ -6327,28 +6327,28 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B117" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="H117" s="2">
         <v>3</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="J117" s="2" t="s">
         <v>17</v>
@@ -6359,28 +6359,28 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B118" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="H118" s="2">
         <v>3</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="J118" s="2" t="s">
         <v>18</v>
@@ -6391,28 +6391,28 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B119" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="H119" s="2">
         <v>3</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="J119" s="2" t="s">
         <v>17</v>
@@ -6423,28 +6423,28 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B120" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="H120" s="2">
         <v>3</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="J120" s="2" t="s">
         <v>18</v>
@@ -6455,28 +6455,28 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B121" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="H121" s="2">
         <v>3</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="J121" s="2" t="s">
         <v>19</v>
@@ -6487,28 +6487,28 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B122" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E122" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="F122" s="2" t="s">
         <v>557</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>563</v>
       </c>
       <c r="H122" s="2">
         <v>3</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="J122" s="2" t="s">
         <v>20</v>
@@ -6519,25 +6519,25 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B123" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="H123" s="2">
         <v>2</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="J123" s="2" t="s">
         <v>21</v>
@@ -6548,25 +6548,25 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B124" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="H124" s="2">
         <v>2</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="J124" s="2" t="s">
         <v>22</v>
@@ -6577,22 +6577,22 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B125" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="H125" s="2">
         <v>1</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="J125" s="2" t="s">
         <v>22</v>
@@ -6603,25 +6603,25 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B126" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="H126" s="2">
         <v>2</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="J126" s="2" t="s">
         <v>23</v>
@@ -6632,28 +6632,28 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B127" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="H127" s="2">
         <v>3</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="J127" s="2" t="s">
         <v>24</v>
@@ -6664,28 +6664,28 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B128" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="H128" s="2">
         <v>3</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="J128" s="2" t="s">
         <v>25</v>
@@ -6696,28 +6696,28 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B129" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="H129" s="2">
         <v>3</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="J129" s="2" t="s">
         <v>24</v>
@@ -6728,28 +6728,28 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B130" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="H130" s="2">
         <v>3</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="J130" s="2" t="s">
         <v>25</v>
@@ -6760,28 +6760,28 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B131" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="H131" s="2">
         <v>3</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="J131" s="2" t="s">
         <v>26</v>
@@ -6792,28 +6792,28 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B132" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="H132" s="2">
         <v>3</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="J132" s="2" t="s">
         <v>27</v>
@@ -6824,28 +6824,28 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B133" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="H133" s="2">
         <v>3</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="J133" s="2" t="s">
         <v>28</v>
@@ -6856,28 +6856,28 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B134" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="H134" s="2">
         <v>3</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="J134" s="2" t="s">
         <v>29</v>
@@ -6888,28 +6888,28 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B135" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="H135" s="2">
         <v>3</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="J135" s="2" t="s">
         <v>28</v>
@@ -6920,28 +6920,28 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B136" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="H136" s="2">
         <v>3</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="J136" s="2" t="s">
         <v>29</v>
@@ -6952,28 +6952,28 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B137" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="H137" s="2">
         <v>3</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="J137" s="2" t="s">
         <v>30</v>
@@ -6984,28 +6984,28 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B138" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="H138" s="2">
         <v>3</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="J138" s="2" t="s">
         <v>31</v>
@@ -7016,28 +7016,28 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B139" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="H139" s="2">
         <v>3</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="J139" s="2" t="s">
         <v>34</v>
@@ -7048,28 +7048,28 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B140" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="H140" s="2">
         <v>3</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="J140" s="2" t="s">
         <v>35</v>
@@ -7080,28 +7080,28 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B141" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="H141" s="2">
         <v>3</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="J141" s="2" t="s">
         <v>34</v>
@@ -7112,28 +7112,28 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B142" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="H142" s="2">
         <v>3</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="J142" s="2" t="s">
         <v>35</v>
@@ -7144,28 +7144,28 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B143" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="H143" s="2">
         <v>3</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="J143" s="2" t="s">
         <v>36</v>
@@ -7176,28 +7176,28 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B144" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="H144" s="2">
         <v>3</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="J144" s="2" t="s">
         <v>37</v>
@@ -7208,28 +7208,28 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B145" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="H145" s="2">
         <v>3</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="J145" s="2" t="s">
         <v>34</v>
@@ -7240,28 +7240,28 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B146" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="H146" s="2">
         <v>3</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="J146" s="2" t="s">
         <v>35</v>
@@ -7272,28 +7272,28 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B147" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="H147" s="2">
         <v>3</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="J147" s="2" t="s">
         <v>34</v>
@@ -7304,28 +7304,28 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B148" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="H148" s="2">
         <v>3</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="J148" s="2" t="s">
         <v>35</v>
@@ -7336,28 +7336,28 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B149" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="H149" s="2">
         <v>3</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="J149" s="2" t="s">
         <v>36</v>
@@ -7368,28 +7368,28 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B150" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="H150" s="2">
         <v>3</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="J150" s="2" t="s">
         <v>37</v>
@@ -7400,28 +7400,28 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B151" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="H151" s="2">
         <v>3</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="J151" s="2" t="s">
         <v>32</v>
@@ -7432,28 +7432,28 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B152" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="H152" s="2">
         <v>3</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="J152" s="2" t="s">
         <v>33</v>
@@ -7464,25 +7464,25 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B153" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="H153" s="2">
         <v>2</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="J153" s="2" t="s">
         <v>34</v>
@@ -7493,25 +7493,25 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B154" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="H154" s="2">
         <v>2</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="J154" s="2" t="s">
         <v>35</v>
@@ -7522,25 +7522,25 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B155" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="H155" s="2">
         <v>2</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="J155" s="2" t="s">
         <v>36</v>
@@ -7551,25 +7551,25 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B156" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="H156" s="2">
         <v>2</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="J156" s="2" t="s">
         <v>37</v>
@@ -7580,25 +7580,25 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B157" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="H157" s="2">
         <v>2</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="J157" s="2" t="s">
         <v>38</v>
@@ -7609,25 +7609,25 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B158" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="H158" s="2">
         <v>2</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="J158" s="2" t="s">
         <v>39</v>
@@ -7638,25 +7638,25 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B159" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="H159" s="2">
         <v>2</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="J159" s="2" t="s">
         <v>40</v>
@@ -7667,25 +7667,25 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B160" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="H160" s="2">
         <v>2</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="J160" s="2" t="s">
         <v>22</v>
@@ -7696,25 +7696,25 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B161" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="H161" s="2">
         <v>2</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="J161" s="2" t="s">
         <v>22</v>
@@ -7725,25 +7725,25 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B162" s="16" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="H162" s="2">
         <v>2</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="J162" s="2" t="s">
         <v>5</v>
@@ -7754,25 +7754,25 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B163" s="16" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="H163" s="2">
         <v>2</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="J163" s="2" t="s">
         <v>6</v>
@@ -7783,28 +7783,28 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B164" s="16" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="H164" s="2">
         <v>3</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="J164" s="2" t="s">
         <v>17</v>
@@ -7815,28 +7815,28 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B165" s="16" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="H165" s="2">
         <v>3</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="J165" s="2" t="s">
         <v>18</v>
@@ -7847,25 +7847,25 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B166" s="16" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="H166" s="2">
         <v>2</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="J166" s="2" t="s">
         <v>22</v>
@@ -7876,25 +7876,25 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B167" s="16" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="H167" s="2">
         <v>2</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="J167" s="2" t="s">
         <v>22</v>
@@ -7905,25 +7905,25 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B168" s="16" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="H168" s="2">
         <v>2</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="J168" s="2" t="s">
         <v>43</v>
@@ -7934,25 +7934,25 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B169" s="16" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="H169" s="2">
         <v>2</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="J169" s="2" t="s">
         <v>44</v>
@@ -7963,25 +7963,25 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B170" s="16" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="H170" s="2">
         <v>2</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="J170" s="2" t="s">
         <v>42</v>
@@ -7992,25 +7992,25 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B171" s="16" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="H171" s="2">
         <v>2</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="J171" s="2" t="s">
         <v>41</v>
@@ -8021,25 +8021,25 @@
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B172" s="16" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="H172" s="2">
         <v>2</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="J172" s="2" t="s">
         <v>23</v>
@@ -8050,25 +8050,25 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B173" s="14" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="H173" s="2">
         <v>2</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="J173" s="2" t="s">
         <v>46</v>
@@ -8079,25 +8079,25 @@
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B174" s="14" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="H174" s="2">
         <v>2</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="J174" s="2" t="s">
         <v>47</v>
@@ -8108,25 +8108,25 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B175" s="14" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="H175" s="2">
         <v>2</v>
       </c>
       <c r="I175" s="2" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="J175" s="2" t="s">
         <v>46</v>
@@ -8137,25 +8137,25 @@
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B176" s="14" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="H176" s="2">
         <v>2</v>
       </c>
       <c r="I176" s="2" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="J176" s="2" t="s">
         <v>47</v>
@@ -8166,25 +8166,25 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B177" s="14" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="H177" s="2">
         <v>2</v>
       </c>
       <c r="I177" s="2" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="J177" s="2" t="s">
         <v>46</v>
@@ -8195,25 +8195,25 @@
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B178" s="14" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="H178" s="2">
         <v>2</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="J178" s="2" t="s">
         <v>47</v>
@@ -8224,25 +8224,25 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B179" s="14" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="H179" s="2">
         <v>2</v>
       </c>
       <c r="I179" s="2" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="J179" s="2" t="s">
         <v>46</v>
@@ -8253,25 +8253,25 @@
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B180" s="14" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="H180" s="2">
         <v>2</v>
       </c>
       <c r="I180" s="2" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="J180" s="2" t="s">
         <v>47</v>
@@ -8282,22 +8282,22 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B181" s="14" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="H181" s="2">
         <v>1</v>
       </c>
       <c r="I181" s="2" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="J181" s="2" t="s">
         <v>12</v>
@@ -8308,22 +8308,22 @@
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B182" s="14" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="H182" s="2">
         <v>1</v>
       </c>
       <c r="I182" s="2" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="J182" s="2" t="s">
         <v>12</v>
@@ -8334,22 +8334,22 @@
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B183" s="14" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="H183" s="2">
         <v>1</v>
       </c>
       <c r="I183" s="2" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="J183" s="2" t="s">
         <v>12</v>
@@ -8360,22 +8360,22 @@
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B184" s="14" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="H184" s="2">
         <v>1</v>
       </c>
       <c r="I184" s="2" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="J184" s="2" t="s">
         <v>12</v>
@@ -8386,22 +8386,22 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B185" s="16" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="H185" s="2">
         <v>1</v>
       </c>
       <c r="I185" s="2" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="J185" s="2" t="s">
         <v>12</v>
@@ -8412,22 +8412,22 @@
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B186" s="16" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="H186" s="2">
         <v>1</v>
       </c>
       <c r="I186" s="2" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="J186" s="2" t="s">
         <v>12</v>
@@ -8438,22 +8438,22 @@
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B187" s="16" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="H187" s="2">
         <v>1</v>
       </c>
       <c r="I187" s="2" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="J187" s="2" t="s">
         <v>12</v>
@@ -8464,22 +8464,22 @@
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B188" s="16" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="H188" s="2">
         <v>1</v>
       </c>
       <c r="I188" s="2" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="J188" s="2" t="s">
         <v>12</v>
@@ -8490,25 +8490,25 @@
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B189" s="17" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="H189" s="2">
         <v>2</v>
       </c>
       <c r="I189" s="2" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="J189" s="2" t="s">
         <v>5</v>
@@ -8519,28 +8519,28 @@
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B190" s="17" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="H190" s="2">
         <v>3</v>
       </c>
       <c r="I190" s="2" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="J190" s="2" t="s">
         <v>17</v>
@@ -8551,28 +8551,28 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B191" s="17" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="H191" s="2">
         <v>3</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="J191" s="2" t="s">
         <v>18</v>
@@ -8583,28 +8583,28 @@
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B192" s="17" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="H192" s="2">
         <v>3</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="J192" s="2" t="s">
         <v>17</v>
@@ -8615,28 +8615,28 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B193" s="17" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="H193" s="2">
         <v>3</v>
       </c>
       <c r="I193" s="2" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="J193" s="2" t="s">
         <v>18</v>
@@ -8647,28 +8647,28 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B194" s="17" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="H194" s="2">
         <v>3</v>
       </c>
       <c r="I194" s="2" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="J194" s="2" t="s">
         <v>19</v>
@@ -8679,28 +8679,28 @@
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B195" s="17" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E195" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="F195" s="2" t="s">
         <v>557</v>
-      </c>
-      <c r="F195" s="2" t="s">
-        <v>563</v>
       </c>
       <c r="H195" s="2">
         <v>3</v>
       </c>
       <c r="I195" s="2" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="J195" s="2" t="s">
         <v>20</v>
@@ -8711,25 +8711,25 @@
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B196" s="17" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="H196" s="2">
         <v>2</v>
       </c>
       <c r="I196" s="2" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="J196" s="2" t="s">
         <v>21</v>
@@ -8740,25 +8740,25 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B197" s="17" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="H197" s="2">
         <v>2</v>
       </c>
       <c r="I197" s="2" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="J197" s="2" t="s">
         <v>22</v>
@@ -8769,22 +8769,22 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B198" s="17" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="H198" s="2">
         <v>1</v>
       </c>
       <c r="I198" s="2" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="J198" s="2" t="s">
         <v>1</v>
@@ -8795,25 +8795,25 @@
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B199" s="24" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="H199" s="2">
         <v>2</v>
       </c>
       <c r="I199" s="2" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="J199" s="2" t="s">
         <v>6</v>
@@ -8824,28 +8824,28 @@
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B200" s="24" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="H200" s="2">
         <v>3</v>
       </c>
       <c r="I200" s="2" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="J200" s="2" t="s">
         <v>17</v>
@@ -8856,28 +8856,28 @@
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B201" s="24" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="H201" s="2">
         <v>3</v>
       </c>
       <c r="I201" s="2" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="J201" s="2" t="s">
         <v>18</v>
@@ -8888,28 +8888,28 @@
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B202" s="24" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="H202" s="2">
         <v>3</v>
       </c>
       <c r="I202" s="2" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="J202" s="2" t="s">
         <v>17</v>
@@ -8920,28 +8920,28 @@
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B203" s="24" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="H203" s="2">
         <v>3</v>
       </c>
       <c r="I203" s="2" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="J203" s="2" t="s">
         <v>18</v>
@@ -8952,28 +8952,28 @@
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B204" s="24" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="H204" s="2">
         <v>3</v>
       </c>
       <c r="I204" s="2" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="J204" s="2" t="s">
         <v>19</v>
@@ -8984,28 +8984,28 @@
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B205" s="24" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E205" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="F205" s="2" t="s">
         <v>557</v>
-      </c>
-      <c r="F205" s="2" t="s">
-        <v>563</v>
       </c>
       <c r="H205" s="2">
         <v>3</v>
       </c>
       <c r="I205" s="2" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="J205" s="2" t="s">
         <v>20</v>
@@ -9016,25 +9016,25 @@
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B206" s="24" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="H206" s="2">
         <v>2</v>
       </c>
       <c r="I206" s="2" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="J206" s="2" t="s">
         <v>21</v>
@@ -9045,25 +9045,25 @@
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B207" s="24" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="H207" s="2">
         <v>2</v>
       </c>
       <c r="I207" s="2" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="J207" s="2" t="s">
         <v>22</v>
@@ -9074,22 +9074,22 @@
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B208" s="24" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="H208" s="2">
         <v>1</v>
       </c>
       <c r="I208" s="2" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="J208" s="2" t="s">
         <v>0</v>
@@ -9100,25 +9100,25 @@
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B209" s="24" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="H209" s="2">
         <v>2</v>
       </c>
       <c r="I209" s="2" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="J209" s="2" t="s">
         <v>23</v>
@@ -9129,28 +9129,28 @@
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="10" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="B210" s="13" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="H210" s="2">
         <v>2</v>
       </c>
       <c r="I210" s="2" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="J210" s="2" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="K210" s="2" t="s">
         <v>74</v>
@@ -9158,28 +9158,28 @@
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="10" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="B211" s="13" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="H211" s="2">
         <v>2</v>
       </c>
       <c r="I211" s="2" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="J211" s="2" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="K211" s="2" t="s">
         <v>48</v>
@@ -9187,57 +9187,57 @@
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="10" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="B212" s="13" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="H212" s="2">
         <v>2</v>
       </c>
       <c r="I212" s="2" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="J212" s="2" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="K212" s="2" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="10" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="B213" s="13" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="H213" s="2">
         <v>2</v>
       </c>
       <c r="I213" s="2" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="J213" s="2" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="K213" s="2" t="s">
         <v>50</v>
@@ -9245,25 +9245,25 @@
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="18" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B214" s="17" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="H214" s="2">
         <v>2</v>
       </c>
       <c r="I214" s="2" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="J214" s="2" t="s">
         <v>23</v>
@@ -9274,28 +9274,28 @@
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="8" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="H215" s="2">
         <v>3</v>
       </c>
       <c r="I215" s="2" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="J215" s="2" t="s">
         <v>52</v>
@@ -9306,28 +9306,28 @@
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="8" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="H216" s="2">
         <v>3</v>
       </c>
       <c r="I216" s="2" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="J216" s="2" t="s">
         <v>53</v>
@@ -9338,28 +9338,28 @@
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="8" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="H217" s="2">
         <v>3</v>
       </c>
       <c r="I217" s="2" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="J217" s="2" t="s">
         <v>52</v>
@@ -9370,28 +9370,28 @@
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="8" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="H218" s="2">
         <v>3</v>
       </c>
       <c r="I218" s="2" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="J218" s="2" t="s">
         <v>53</v>
@@ -9402,28 +9402,28 @@
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="8" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="H219" s="2">
         <v>3</v>
       </c>
       <c r="I219" s="2" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="J219" s="2" t="s">
         <v>54</v>
@@ -9434,28 +9434,28 @@
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="8" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="B220" s="8" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="H220" s="2">
         <v>3</v>
       </c>
       <c r="I220" s="2" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="J220" s="2" t="s">
         <v>55</v>
@@ -9466,25 +9466,25 @@
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="8" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="H221" s="2">
         <v>2</v>
       </c>
       <c r="I221" s="2" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="J221" s="2" t="s">
         <v>56</v>
@@ -9495,25 +9495,25 @@
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B222" s="17" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="H222" s="2">
         <v>2</v>
       </c>
       <c r="I222" s="2" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="J222" s="2" t="s">
         <v>57</v>
@@ -9524,25 +9524,25 @@
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B223" s="17" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="H223" s="2">
         <v>2</v>
       </c>
       <c r="I223" s="2" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="J223" s="2" t="s">
         <v>58</v>
@@ -9553,25 +9553,25 @@
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B224" s="17" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="H224" s="2">
         <v>2</v>
       </c>
       <c r="I224" s="2" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="J224" s="2" t="s">
         <v>57</v>
@@ -9582,25 +9582,25 @@
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B225" s="17" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="H225" s="2">
         <v>2</v>
       </c>
       <c r="I225" s="2" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="J225" s="2" t="s">
         <v>58</v>
@@ -9611,25 +9611,25 @@
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B226" s="17" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="H226" s="2">
         <v>2</v>
       </c>
       <c r="I226" s="2" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="J226" s="2" t="s">
         <v>59</v>
@@ -9640,25 +9640,25 @@
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B227" s="17" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="H227" s="2">
         <v>2</v>
       </c>
       <c r="I227" s="2" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="J227" s="2" t="s">
         <v>60</v>
@@ -9669,22 +9669,22 @@
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B228" s="17" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="H228" s="2">
         <v>1</v>
       </c>
       <c r="I228" s="2" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="J228" s="2" t="s">
         <v>12</v>
@@ -9695,95 +9695,95 @@
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
-        <v>709</v>
+        <v>697</v>
       </c>
       <c r="B229" s="13" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="H229" s="2">
         <v>4</v>
       </c>
       <c r="I229" s="2" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="J229" s="2" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="K229" s="2" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="6" t="s">
-        <v>709</v>
+        <v>697</v>
       </c>
       <c r="B230" s="15" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D230" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="G230" s="2" t="s">
         <v>538</v>
-      </c>
-      <c r="E230" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="F230" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="G230" s="2" t="s">
-        <v>544</v>
       </c>
       <c r="H230" s="2">
         <v>4</v>
       </c>
       <c r="I230" s="2" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="J230" s="2" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="K230" s="2" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B231" s="24" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="H231" s="2">
         <v>2</v>
       </c>
       <c r="I231" s="2" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="J231" s="2" t="s">
         <v>46</v>
@@ -9794,25 +9794,25 @@
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B232" s="24" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="H232" s="2">
         <v>2</v>
       </c>
       <c r="I232" s="2" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="J232" s="2" t="s">
         <v>47</v>
@@ -9823,25 +9823,25 @@
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B233" s="24" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="H233" s="2">
         <v>2</v>
       </c>
       <c r="I233" s="2" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="J233" s="2" t="s">
         <v>46</v>
@@ -9852,25 +9852,25 @@
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B234" s="24" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="H234" s="2">
         <v>2</v>
       </c>
       <c r="I234" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="J234" s="2" t="s">
         <v>47</v>
@@ -9881,25 +9881,25 @@
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B235" s="24" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="H235" s="2">
         <v>2</v>
       </c>
       <c r="I235" s="2" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="J235" s="2" t="s">
         <v>15</v>
@@ -9910,25 +9910,25 @@
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B236" s="24" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="H236" s="2">
         <v>2</v>
       </c>
       <c r="I236" s="2" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="J236" s="2" t="s">
         <v>16</v>
@@ -9939,22 +9939,22 @@
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B237" s="24" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="H237" s="2">
         <v>1</v>
       </c>
       <c r="I237" s="2" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="J237" s="2" t="s">
         <v>12</v>
@@ -9965,25 +9965,25 @@
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B238" s="16" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="H238" s="2">
         <v>2</v>
       </c>
       <c r="I238" s="2" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="J238" s="2" t="s">
         <v>46</v>
@@ -9994,25 +9994,25 @@
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B239" s="16" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="H239" s="2">
         <v>2</v>
       </c>
       <c r="I239" s="2" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="J239" s="2" t="s">
         <v>47</v>
@@ -10023,22 +10023,22 @@
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B240" s="16" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="H240" s="2">
         <v>1</v>
       </c>
       <c r="I240" s="2" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="J240" s="2" t="s">
         <v>45</v>
@@ -10049,22 +10049,22 @@
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B241" s="16" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="H241" s="2">
         <v>1</v>
       </c>
       <c r="I241" s="2" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="J241" s="2" t="s">
         <v>7</v>
@@ -10075,22 +10075,22 @@
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B242" s="16" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="H242" s="2">
         <v>1</v>
       </c>
       <c r="I242" s="2" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="J242" s="2" t="s">
         <v>8</v>
@@ -10101,22 +10101,22 @@
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B243" s="16" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="H243" s="2">
         <v>1</v>
       </c>
       <c r="I243" s="2" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="J243" s="2" t="s">
         <v>9</v>
@@ -10127,25 +10127,25 @@
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B244" s="16" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="H244" s="2">
         <v>2</v>
       </c>
       <c r="I244" s="2" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="J244" s="2" t="s">
         <v>46</v>
@@ -10156,25 +10156,25 @@
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B245" s="16" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="H245" s="2">
         <v>2</v>
       </c>
       <c r="I245" s="2" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="J245" s="2" t="s">
         <v>47</v>
@@ -10185,22 +10185,22 @@
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B246" s="16" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="H246" s="2">
         <v>1</v>
       </c>
       <c r="I246" s="2" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="J246" s="2" t="s">
         <v>45</v>
@@ -10211,22 +10211,22 @@
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B247" s="16" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="H247" s="2">
         <v>1</v>
       </c>
       <c r="I247" s="2" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="J247" s="2" t="s">
         <v>7</v>
@@ -10237,22 +10237,22 @@
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B248" s="16" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="H248" s="2">
         <v>1</v>
       </c>
       <c r="I248" s="2" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="J248" s="2" t="s">
         <v>8</v>
@@ -10263,22 +10263,22 @@
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B249" s="16" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="H249" s="2">
         <v>1</v>
       </c>
       <c r="I249" s="2" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="J249" s="2" t="s">
         <v>9</v>
@@ -10289,25 +10289,25 @@
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B250" s="16" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="H250" s="2">
         <v>2</v>
       </c>
       <c r="I250" s="2" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="J250" s="2" t="s">
         <v>46</v>
@@ -10318,25 +10318,25 @@
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B251" s="16" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="H251" s="2">
         <v>2</v>
       </c>
       <c r="I251" s="2" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="J251" s="2" t="s">
         <v>47</v>
@@ -10347,22 +10347,22 @@
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B252" s="16" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="H252" s="2">
         <v>1</v>
       </c>
       <c r="I252" s="2" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="J252" s="2" t="s">
         <v>45</v>
@@ -10373,22 +10373,22 @@
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B253" s="16" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="H253" s="2">
         <v>1</v>
       </c>
       <c r="I253" s="2" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="J253" s="2" t="s">
         <v>7</v>
@@ -10399,22 +10399,22 @@
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B254" s="16" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="H254" s="2">
         <v>1</v>
       </c>
       <c r="I254" s="2" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="J254" s="2" t="s">
         <v>8</v>
@@ -10425,22 +10425,22 @@
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B255" s="16" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="H255" s="2">
         <v>1</v>
       </c>
       <c r="I255" s="2" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="J255" s="2" t="s">
         <v>9</v>
@@ -10451,25 +10451,25 @@
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B256" s="16" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>787</v>
+        <v>775</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="H256" s="2">
         <v>2</v>
       </c>
       <c r="I256" s="2" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="J256" s="2" t="s">
         <v>46</v>
@@ -10480,25 +10480,25 @@
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B257" s="16" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>788</v>
+        <v>776</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="H257" s="2">
         <v>2</v>
       </c>
       <c r="I257" s="2" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="J257" s="2" t="s">
         <v>47</v>
@@ -10509,22 +10509,22 @@
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B258" s="16" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>789</v>
+        <v>777</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="H258" s="2">
         <v>1</v>
       </c>
       <c r="I258" s="2" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="J258" s="2" t="s">
         <v>45</v>
@@ -10535,22 +10535,22 @@
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B259" s="16" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>790</v>
+        <v>778</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="H259" s="2">
         <v>1</v>
       </c>
       <c r="I259" s="2" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="J259" s="2" t="s">
         <v>7</v>
@@ -10561,22 +10561,22 @@
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B260" s="16" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>791</v>
+        <v>779</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="H260" s="2">
         <v>1</v>
       </c>
       <c r="I260" s="2" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="J260" s="2" t="s">
         <v>8</v>
@@ -10587,22 +10587,22 @@
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B261" s="16" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>792</v>
+        <v>780</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="H261" s="2">
         <v>1</v>
       </c>
       <c r="I261" s="2" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="J261" s="2" t="s">
         <v>9</v>
@@ -10613,25 +10613,25 @@
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B262" s="16" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="H262" s="2">
         <v>2</v>
       </c>
       <c r="I262" s="2" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J262" s="2" t="s">
         <v>46</v>
@@ -10642,25 +10642,25 @@
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B263" s="16" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>729</v>
+        <v>717</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="H263" s="2">
         <v>2</v>
       </c>
       <c r="I263" s="2" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="J263" s="2" t="s">
         <v>47</v>
@@ -10671,22 +10671,22 @@
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B264" s="16" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>730</v>
+        <v>718</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="H264" s="2">
         <v>1</v>
       </c>
       <c r="I264" s="2" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="J264" s="2" t="s">
         <v>45</v>
@@ -10697,22 +10697,22 @@
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B265" s="16" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="H265" s="2">
         <v>1</v>
       </c>
       <c r="I265" s="2" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="J265" s="2" t="s">
         <v>7</v>
@@ -10723,22 +10723,22 @@
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B266" s="16" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>732</v>
+        <v>720</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="H266" s="2">
         <v>1</v>
       </c>
       <c r="I266" s="2" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="J266" s="2" t="s">
         <v>8</v>
@@ -10749,22 +10749,22 @@
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B267" s="16" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>733</v>
+        <v>721</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="H267" s="2">
         <v>1</v>
       </c>
       <c r="I267" s="2" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="J267" s="2" t="s">
         <v>9</v>
@@ -10775,22 +10775,22 @@
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B268" s="16" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="H268" s="2">
         <v>1</v>
       </c>
       <c r="I268" s="2" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="J268" s="2" t="s">
         <v>12</v>
@@ -10801,22 +10801,22 @@
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B269" s="16" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="H269" s="2">
         <v>1</v>
       </c>
       <c r="I269" s="2" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="J269" s="2" t="s">
         <v>12</v>
@@ -10827,22 +10827,22 @@
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B270" s="16" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="H270" s="2">
         <v>1</v>
       </c>
       <c r="I270" s="2" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="J270" s="2" t="s">
         <v>12</v>
@@ -10853,22 +10853,22 @@
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B271" s="16" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>793</v>
+        <v>781</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="H271" s="2">
         <v>1</v>
       </c>
       <c r="I271" s="2" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="J271" s="2" t="s">
         <v>12</v>
@@ -10879,22 +10879,22 @@
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B272" s="16" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="H272" s="2">
         <v>1</v>
       </c>
       <c r="I272" s="2" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="J272" s="2" t="s">
         <v>12</v>
@@ -10905,22 +10905,22 @@
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="10" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="B273" s="23" t="s">
-        <v>705</v>
+        <v>693</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="H273" s="2">
         <v>1</v>
       </c>
       <c r="I273" s="2" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="J273" s="2" t="s">
         <v>12</v>
@@ -10931,22 +10931,22 @@
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="10" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="B274" s="23" t="s">
-        <v>705</v>
+        <v>693</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>794</v>
+        <v>782</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>735</v>
+        <v>723</v>
       </c>
       <c r="H274" s="2">
         <v>1</v>
       </c>
       <c r="I274" s="2" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="J274" s="2" t="s">
         <v>14</v>
@@ -10957,25 +10957,25 @@
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B275" s="25" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="H275" s="2">
         <v>2</v>
       </c>
       <c r="I275" s="2" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="J275" s="2" t="s">
         <v>46</v>
@@ -10986,25 +10986,25 @@
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B276" s="25" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="H276" s="2">
         <v>2</v>
       </c>
       <c r="I276" s="2" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="J276" s="2" t="s">
         <v>47</v>
@@ -11015,22 +11015,22 @@
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B277" s="25" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="H277" s="2">
         <v>1</v>
       </c>
       <c r="I277" s="2" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="J277" s="2" t="s">
         <v>45</v>
@@ -11041,22 +11041,22 @@
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B278" s="25" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="H278" s="2">
         <v>1</v>
       </c>
       <c r="I278" s="2" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="J278" s="2" t="s">
         <v>7</v>
@@ -11067,22 +11067,22 @@
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B279" s="25" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="H279" s="2">
         <v>1</v>
       </c>
       <c r="I279" s="2" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="J279" s="2" t="s">
         <v>8</v>
@@ -11093,22 +11093,22 @@
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B280" s="25" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="H280" s="2">
         <v>1</v>
       </c>
       <c r="I280" s="2" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="J280" s="2" t="s">
         <v>9</v>
@@ -11119,22 +11119,22 @@
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B281" s="25" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="H281" s="2">
         <v>1</v>
       </c>
       <c r="I281" s="2" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="J281" s="2" t="s">
         <v>12</v>
@@ -11145,22 +11145,22 @@
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="19" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="B282" s="13" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="H282" s="2">
         <v>1</v>
       </c>
       <c r="I282" s="4" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="J282" s="2" t="s">
         <v>13</v>
@@ -11168,25 +11168,25 @@
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="19" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="B283" s="13" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="H283" s="2">
         <v>2</v>
       </c>
       <c r="I283" s="4" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="J283" s="2" t="s">
         <v>12</v>
@@ -11197,28 +11197,28 @@
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="19" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="B284" s="13" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="H284" s="2">
         <v>2</v>
       </c>
       <c r="I284" s="4" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="J284" s="2" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="K284" s="2" t="s">
         <v>4</v>
@@ -11226,51 +11226,51 @@
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="19" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="B285" s="12" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="H285" s="2">
         <v>1</v>
       </c>
       <c r="I285" s="4" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="J285" s="2" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="19" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="B286" s="12" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="H286" s="2">
         <v>2</v>
       </c>
       <c r="I286" s="4" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="J286" s="2" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="K286" s="2" t="s">
         <v>4</v>
@@ -11278,28 +11278,28 @@
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="19" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="B287" s="12" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="H287" s="2">
         <v>2</v>
       </c>
       <c r="I287" s="4" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="J287" s="2" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="K287" s="2" t="s">
         <v>4</v>
@@ -11307,28 +11307,28 @@
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="19" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="B288" s="27" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="H288" s="2">
         <v>2</v>
       </c>
       <c r="I288" s="4" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="J288" s="2" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="K288" s="2" t="s">
         <v>4</v>
@@ -11336,25 +11336,25 @@
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="19" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="B289" s="27" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="H289" s="2">
         <v>2</v>
       </c>
       <c r="I289" s="4" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="J289" s="2" t="s">
         <v>13</v>
@@ -11365,28 +11365,28 @@
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="19" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="B290" s="27" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="H290" s="2">
         <v>2</v>
       </c>
       <c r="I290" s="4" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="J290" s="2" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="K290" s="2" t="s">
         <v>4</v>
@@ -11394,28 +11394,28 @@
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="19" t="s">
+        <v>673</v>
+      </c>
+      <c r="B291" s="14" t="s">
         <v>685</v>
       </c>
-      <c r="B291" s="14" t="s">
-        <v>697</v>
-      </c>
       <c r="C291" s="2" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="H291" s="2">
         <v>2</v>
       </c>
       <c r="I291" s="4" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="J291" s="2" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="K291" s="2" t="s">
         <v>4</v>
@@ -11423,25 +11423,25 @@
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="19" t="s">
+        <v>673</v>
+      </c>
+      <c r="B292" s="14" t="s">
         <v>685</v>
       </c>
-      <c r="B292" s="14" t="s">
-        <v>697</v>
-      </c>
       <c r="C292" s="2" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="H292" s="2">
         <v>2</v>
       </c>
       <c r="I292" s="4" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="J292" s="2" t="s">
         <v>13</v>
@@ -11452,25 +11452,25 @@
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="19" t="s">
+        <v>673</v>
+      </c>
+      <c r="B293" s="14" t="s">
         <v>685</v>
       </c>
-      <c r="B293" s="14" t="s">
-        <v>697</v>
-      </c>
       <c r="C293" s="2" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="H293" s="2">
         <v>2</v>
       </c>
       <c r="I293" s="4" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="J293" s="2" t="s">
         <v>12</v>
@@ -11481,13 +11481,13 @@
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="21" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
       <c r="B294" s="17" t="s">
-        <v>719</v>
+        <v>707</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>741</v>
+        <v>729</v>
       </c>
       <c r="D294" s="2" t="s">
         <v>71</v>
@@ -11496,7 +11496,7 @@
         <v>1</v>
       </c>
       <c r="I294" s="2" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="J294" s="2" t="s">
         <v>13</v>
@@ -11507,13 +11507,13 @@
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="21" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
       <c r="B295" s="17" t="s">
-        <v>719</v>
+        <v>707</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D295" s="2" t="s">
         <v>71</v>
@@ -11522,7 +11522,7 @@
         <v>1</v>
       </c>
       <c r="I295" s="2" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="J295" s="2" t="s">
         <v>13</v>
@@ -11533,25 +11533,25 @@
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="21" t="s">
+        <v>696</v>
+      </c>
+      <c r="B296" s="24" t="s">
         <v>708</v>
       </c>
-      <c r="B296" s="24" t="s">
-        <v>720</v>
-      </c>
       <c r="C296" s="2" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D296" s="2" t="s">
         <v>72</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="H296" s="2">
         <v>2</v>
       </c>
       <c r="I296" s="2" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="J296" s="2" t="s">
         <v>63</v>
@@ -11562,25 +11562,25 @@
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="21" t="s">
+        <v>696</v>
+      </c>
+      <c r="B297" s="24" t="s">
         <v>708</v>
       </c>
-      <c r="B297" s="24" t="s">
-        <v>720</v>
-      </c>
       <c r="C297" s="2" t="s">
-        <v>738</v>
+        <v>726</v>
       </c>
       <c r="D297" s="2" t="s">
         <v>72</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="H297" s="2">
         <v>2</v>
       </c>
       <c r="I297" s="2" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="J297" s="2" t="s">
         <v>63</v>
@@ -11591,66 +11591,66 @@
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="20" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="B298" s="13" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="H298" s="2">
         <v>3</v>
       </c>
       <c r="I298" s="2" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="J298" s="2" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="K298" s="2" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="20" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="B299" s="15" t="s">
-        <v>690</v>
+        <v>678</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="F299" s="2" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="H299" s="2">
         <v>3</v>
       </c>
       <c r="I299" s="2" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="J299" s="2" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="K299" s="2" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
     </row>
   </sheetData>
@@ -11673,12 +11673,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>718</v>
+        <v>706</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
     </row>
   </sheetData>

--- a/Reference/AeroToolKitFunctionList.xlsx
+++ b/Reference/AeroToolKitFunctionList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fs272\AeroProgs\StdAtmoAddIn\AeroToolKitAddIn\Reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADC54C6-7BF2-4598-8CEB-D89C014BD30E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EE9ED8-4A7B-4BC2-8C23-D621E1953A67}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,15 +17,15 @@
     <sheet name="READ ME" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AeroToolKitFunctionList!$A$1:$K$311</definedName>
-    <definedName name="lengthFeet">AeroToolKitFunctionList!$A$202</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AeroToolKitFunctionList!$A$1:$K$323</definedName>
+    <definedName name="lengthFeet">AeroToolKitFunctionList!$A$214</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2408" uniqueCount="855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2492" uniqueCount="885">
   <si>
     <t>KCAS</t>
   </si>
@@ -2611,6 +2611,96 @@
   </si>
   <si>
     <t>kgPerMeter3</t>
+  </si>
+  <si>
+    <t>POWER</t>
+  </si>
+  <si>
+    <t>AeroConvFtLbfPerSecToHorsepower</t>
+  </si>
+  <si>
+    <t>AeroConvFtLbfPerSecToWatt</t>
+  </si>
+  <si>
+    <t>AeroConvFtLbfPerSecToKilowatt</t>
+  </si>
+  <si>
+    <t>AeroConvHorsepowerToFtLbfPerSec</t>
+  </si>
+  <si>
+    <t>AeroConvHorsepowerToWatt</t>
+  </si>
+  <si>
+    <t>AeroConvHorsepowerToKilowatt</t>
+  </si>
+  <si>
+    <t>AeroConvWattToFtLbfPerSec</t>
+  </si>
+  <si>
+    <t>AeroConvWattToHorsepower</t>
+  </si>
+  <si>
+    <t>AeroConvWattToKilowatt</t>
+  </si>
+  <si>
+    <t>AeroConvKilowattToFtLbfPerSec</t>
+  </si>
+  <si>
+    <t>AeroConvKilowattToHorsepower</t>
+  </si>
+  <si>
+    <t>AeroConvKilowattToWatt</t>
+  </si>
+  <si>
+    <t>ftLbfPerSec</t>
+  </si>
+  <si>
+    <t>horsepower</t>
+  </si>
+  <si>
+    <t>watt</t>
+  </si>
+  <si>
+    <t>kilowatt</t>
+  </si>
+  <si>
+    <t>ft-lbf/sec</t>
+  </si>
+  <si>
+    <t>Convert ft-lbf/sec to horsepower</t>
+  </si>
+  <si>
+    <t>Convert ft-lbf/sec to watt</t>
+  </si>
+  <si>
+    <t>Convert ft-lbf/sec to kilowatt</t>
+  </si>
+  <si>
+    <t>Convert horsepower to ft-lbf/sec</t>
+  </si>
+  <si>
+    <t>Convert horsepower to watt</t>
+  </si>
+  <si>
+    <t>Convert horsepower to kilowatt</t>
+  </si>
+  <si>
+    <t>Convert watt to ft-lbf/sec</t>
+  </si>
+  <si>
+    <t>Convert watt to horsepower</t>
+  </si>
+  <si>
+    <t>Convert watt to kilowatt</t>
+  </si>
+  <si>
+    <t>Convert kilowatt to ft-lbf/sec</t>
+  </si>
+  <si>
+    <t>Convert kilowatt to horsepower</t>
+  </si>
+  <si>
+    <t>Convert kilowatt to watt</t>
   </si>
 </sst>
 </file>
@@ -2660,7 +2750,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="27">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2816,6 +2906,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -2840,7 +2936,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2879,6 +2975,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -3288,10 +3385,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K311"/>
+  <dimension ref="A1:K323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5639,1116 +5736,1065 @@
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="7" t="s">
-        <v>683</v>
-      </c>
-      <c r="B90" s="15" t="s">
-        <v>688</v>
+      <c r="A90" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="B90" s="32" t="s">
+        <v>855</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>106</v>
+        <v>856</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>531</v>
+        <v>868</v>
       </c>
       <c r="H90" s="2">
         <v>1</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>325</v>
+        <v>873</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>12</v>
+        <v>872</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>13</v>
+        <v>869</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="10" t="s">
-        <v>668</v>
-      </c>
-      <c r="B91" s="29" t="s">
-        <v>703</v>
+      <c r="A91" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="B91" s="32" t="s">
+        <v>855</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>107</v>
+        <v>857</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>544</v>
+        <v>868</v>
       </c>
       <c r="H91" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>649</v>
+        <v>874</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>591</v>
+        <v>872</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>12</v>
+        <v>870</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="10" t="s">
-        <v>668</v>
-      </c>
-      <c r="B92" s="28" t="s">
-        <v>704</v>
+      <c r="A92" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="B92" s="32" t="s">
+        <v>855</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>108</v>
+        <v>858</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>544</v>
+        <v>868</v>
       </c>
       <c r="H92" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>650</v>
+        <v>875</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>591</v>
+        <v>872</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>12</v>
+        <v>871</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="10" t="s">
-        <v>668</v>
-      </c>
-      <c r="B93" s="26" t="s">
-        <v>694</v>
+      <c r="A93" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="B93" s="32" t="s">
+        <v>855</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>109</v>
+        <v>859</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>3</v>
+        <v>869</v>
       </c>
       <c r="H93" s="2">
         <v>1</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>326</v>
+        <v>876</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>12</v>
+        <v>869</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>12</v>
+        <v>872</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="10" t="s">
-        <v>668</v>
-      </c>
-      <c r="B94" s="26" t="s">
-        <v>694</v>
+      <c r="A94" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="B94" s="32" t="s">
+        <v>855</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>782</v>
+        <v>860</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>3</v>
+        <v>869</v>
       </c>
       <c r="H94" s="2">
         <v>1</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>327</v>
+        <v>877</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>14</v>
+        <v>869</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>14</v>
+        <v>870</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="10" t="s">
-        <v>668</v>
-      </c>
-      <c r="B95" s="16" t="s">
-        <v>689</v>
+      <c r="A95" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="B95" s="32" t="s">
+        <v>855</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>110</v>
+        <v>861</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>547</v>
+        <v>869</v>
       </c>
       <c r="H95" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>592</v>
+        <v>878</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>594</v>
+        <v>869</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>12</v>
+        <v>871</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="10" t="s">
-        <v>668</v>
-      </c>
-      <c r="B96" s="16" t="s">
-        <v>689</v>
+      <c r="A96" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="B96" s="32" t="s">
+        <v>855</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>111</v>
+        <v>862</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>547</v>
+        <v>870</v>
       </c>
       <c r="H96" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>593</v>
+        <v>879</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>595</v>
+        <v>870</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>12</v>
+        <v>872</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="10" t="s">
-        <v>668</v>
-      </c>
-      <c r="B97" s="16" t="s">
-        <v>689</v>
+      <c r="A97" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="B97" s="32" t="s">
+        <v>855</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>112</v>
+        <v>863</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>547</v>
+        <v>870</v>
       </c>
       <c r="H97" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>620</v>
+        <v>880</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>613</v>
+        <v>870</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>12</v>
+        <v>869</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="10" t="s">
-        <v>668</v>
-      </c>
-      <c r="B98" s="16" t="s">
-        <v>689</v>
+      <c r="A98" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="B98" s="32" t="s">
+        <v>855</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>113</v>
+        <v>864</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>547</v>
+        <v>870</v>
       </c>
       <c r="H98" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>616</v>
+        <v>881</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>615</v>
+        <v>870</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>12</v>
+        <v>871</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="7" t="s">
-        <v>683</v>
-      </c>
-      <c r="B99" s="13" t="s">
-        <v>689</v>
+      <c r="A99" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="B99" s="32" t="s">
+        <v>855</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>114</v>
+        <v>865</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>568</v>
+        <v>871</v>
       </c>
       <c r="H99" s="2">
         <v>1</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>596</v>
+        <v>882</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>73</v>
+        <v>871</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>12</v>
+        <v>872</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="7" t="s">
-        <v>683</v>
-      </c>
-      <c r="B100" s="13" t="s">
-        <v>689</v>
+      <c r="A100" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="B100" s="32" t="s">
+        <v>855</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>115</v>
+        <v>866</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>568</v>
+        <v>871</v>
       </c>
       <c r="H100" s="2">
         <v>1</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>597</v>
+        <v>883</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>48</v>
+        <v>871</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>12</v>
+        <v>869</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="7" t="s">
-        <v>683</v>
-      </c>
-      <c r="B101" s="13" t="s">
-        <v>689</v>
+      <c r="A101" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="B101" s="32" t="s">
+        <v>855</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>116</v>
+        <v>867</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>568</v>
+        <v>871</v>
       </c>
       <c r="H101" s="2">
         <v>1</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>621</v>
+        <v>884</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>614</v>
+        <v>871</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>12</v>
+        <v>870</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>683</v>
       </c>
-      <c r="B102" s="13" t="s">
-        <v>689</v>
+      <c r="B102" s="15" t="s">
+        <v>688</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>568</v>
+        <v>531</v>
       </c>
       <c r="H102" s="2">
         <v>1</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>617</v>
+        <v>325</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="7" t="s">
-        <v>683</v>
-      </c>
-      <c r="B103" s="13" t="s">
-        <v>689</v>
+      <c r="A103" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="B103" s="29" t="s">
+        <v>703</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>569</v>
+        <v>542</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>544</v>
       </c>
       <c r="H103" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>599</v>
+        <v>649</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>73</v>
+        <v>591</v>
       </c>
       <c r="K103" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="7" t="s">
-        <v>683</v>
-      </c>
-      <c r="B104" s="13" t="s">
-        <v>689</v>
+      <c r="A104" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="B104" s="28" t="s">
+        <v>704</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>569</v>
+        <v>545</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>544</v>
       </c>
       <c r="H104" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>598</v>
+        <v>650</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>48</v>
+        <v>591</v>
       </c>
       <c r="K104" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="7" t="s">
-        <v>683</v>
-      </c>
-      <c r="B105" s="13" t="s">
-        <v>689</v>
+      <c r="A105" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="B105" s="26" t="s">
+        <v>694</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>569</v>
+        <v>3</v>
       </c>
       <c r="H105" s="2">
         <v>1</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>622</v>
+        <v>326</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>614</v>
+        <v>12</v>
       </c>
       <c r="K105" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="7" t="s">
-        <v>683</v>
-      </c>
-      <c r="B106" s="13" t="s">
+      <c r="A106" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="B106" s="26" t="s">
+        <v>694</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H106" s="2">
+        <v>1</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="B107" s="16" t="s">
         <v>689</v>
       </c>
-      <c r="C106" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="H106" s="2">
-        <v>1</v>
-      </c>
-      <c r="I106" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="J106" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K106" s="2" t="s">
+      <c r="C107" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="H107" s="2">
+        <v>2</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="K107" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="9" t="s">
-        <v>685</v>
-      </c>
-      <c r="B107" s="11" t="s">
-        <v>686</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>784</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="H107" s="2">
-        <v>1</v>
-      </c>
-      <c r="I107" s="2" t="s">
-        <v>785</v>
-      </c>
-      <c r="J107" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K107" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="9" t="s">
-        <v>685</v>
-      </c>
-      <c r="B108" s="11" t="s">
-        <v>686</v>
+      <c r="A108" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="B108" s="16" t="s">
+        <v>689</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>515</v>
+        <v>546</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H108" s="2">
         <v>2</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>328</v>
+        <v>593</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>46</v>
+        <v>595</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="9" t="s">
-        <v>685</v>
-      </c>
-      <c r="B109" s="11" t="s">
-        <v>686</v>
+      <c r="A109" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="B109" s="16" t="s">
+        <v>689</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>517</v>
+        <v>546</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H109" s="2">
         <v>2</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>329</v>
+        <v>620</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>47</v>
+        <v>613</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="9" t="s">
-        <v>685</v>
-      </c>
-      <c r="B110" s="11" t="s">
-        <v>686</v>
+      <c r="A110" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="B110" s="16" t="s">
+        <v>689</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>523</v>
+        <v>546</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H110" s="2">
         <v>2</v>
       </c>
       <c r="I110" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="K110" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="B111" s="13" t="s">
+        <v>689</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="H111" s="2">
+        <v>1</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="J111" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K111" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="B112" s="13" t="s">
+        <v>689</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="H112" s="2">
+        <v>1</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="J112" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K112" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="B113" s="13" t="s">
+        <v>689</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="H113" s="2">
+        <v>1</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="J113" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="K113" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="B114" s="13" t="s">
+        <v>689</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="H114" s="2">
+        <v>1</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K114" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="B115" s="13" t="s">
+        <v>689</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="H115" s="2">
+        <v>1</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K115" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="B116" s="13" t="s">
+        <v>689</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="H116" s="2">
+        <v>1</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="J116" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K116" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="B117" s="13" t="s">
+        <v>689</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="H117" s="2">
+        <v>1</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="J117" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="K117" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="B118" s="13" t="s">
+        <v>689</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="H118" s="2">
+        <v>1</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="J118" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K118" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="B119" s="11" t="s">
+        <v>686</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="H119" s="2">
+        <v>1</v>
+      </c>
+      <c r="I119" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="J119" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K119" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="B120" s="11" t="s">
+        <v>686</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="H120" s="2">
+        <v>2</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="J120" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K120" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>686</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="H121" s="2">
+        <v>2</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="J121" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K121" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="B122" s="11" t="s">
+        <v>686</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="H122" s="2">
+        <v>2</v>
+      </c>
+      <c r="I122" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="J110" s="2" t="s">
+      <c r="J122" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K110" s="2" t="s">
+      <c r="K122" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="9" t="s">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" s="9" t="s">
         <v>685</v>
       </c>
-      <c r="B111" s="11" t="s">
+      <c r="B123" s="11" t="s">
         <v>686</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C123" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="D123" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="E111" s="2" t="s">
+      <c r="E123" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="H111" s="2">
+      <c r="H123" s="2">
         <v>2</v>
       </c>
-      <c r="I111" s="2" t="s">
+      <c r="I123" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="J111" s="2" t="s">
+      <c r="J123" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K111" s="2" t="s">
+      <c r="K123" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="9" t="s">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" s="9" t="s">
         <v>685</v>
       </c>
-      <c r="B112" s="17" t="s">
+      <c r="B124" s="17" t="s">
         <v>687</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="C124" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="D124" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="H112" s="2">
-        <v>1</v>
-      </c>
-      <c r="I112" s="2" t="s">
+      <c r="H124" s="2">
+        <v>1</v>
+      </c>
+      <c r="I124" s="2" t="s">
         <v>786</v>
       </c>
-      <c r="J112" s="2" t="s">
+      <c r="J124" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K112" s="2" t="s">
+      <c r="K124" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="9" t="s">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" s="9" t="s">
         <v>685</v>
       </c>
-      <c r="B113" s="17" t="s">
+      <c r="B125" s="17" t="s">
         <v>687</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="C125" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="D125" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="E113" s="2" t="s">
+      <c r="E125" s="2" t="s">
         <v>549</v>
-      </c>
-      <c r="H113" s="2">
-        <v>2</v>
-      </c>
-      <c r="I113" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="J113" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K113" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="9" t="s">
-        <v>685</v>
-      </c>
-      <c r="B114" s="17" t="s">
-        <v>687</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="H114" s="2">
-        <v>2</v>
-      </c>
-      <c r="I114" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="J114" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K114" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="9" t="s">
-        <v>685</v>
-      </c>
-      <c r="B115" s="17" t="s">
-        <v>687</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="H115" s="2">
-        <v>2</v>
-      </c>
-      <c r="I115" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="J115" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K115" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="9" t="s">
-        <v>685</v>
-      </c>
-      <c r="B116" s="17" t="s">
-        <v>687</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="H116" s="2">
-        <v>2</v>
-      </c>
-      <c r="I116" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="J116" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K116" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="18" t="s">
-        <v>671</v>
-      </c>
-      <c r="B117" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="H117" s="2">
-        <v>2</v>
-      </c>
-      <c r="I117" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="J117" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K117" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="18" t="s">
-        <v>671</v>
-      </c>
-      <c r="B118" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="H118" s="2">
-        <v>3</v>
-      </c>
-      <c r="I118" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="J118" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K118" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="18" t="s">
-        <v>671</v>
-      </c>
-      <c r="B119" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="H119" s="2">
-        <v>3</v>
-      </c>
-      <c r="I119" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="J119" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K119" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="18" t="s">
-        <v>671</v>
-      </c>
-      <c r="B120" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="H120" s="2">
-        <v>3</v>
-      </c>
-      <c r="I120" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="J120" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K120" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="18" t="s">
-        <v>671</v>
-      </c>
-      <c r="B121" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="H121" s="2">
-        <v>3</v>
-      </c>
-      <c r="I121" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="J121" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K121" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="18" t="s">
-        <v>671</v>
-      </c>
-      <c r="B122" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="H122" s="2">
-        <v>3</v>
-      </c>
-      <c r="I122" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="J122" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K122" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="18" t="s">
-        <v>671</v>
-      </c>
-      <c r="B123" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="H123" s="2">
-        <v>3</v>
-      </c>
-      <c r="I123" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="J123" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K123" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="18" t="s">
-        <v>671</v>
-      </c>
-      <c r="B124" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="H124" s="2">
-        <v>2</v>
-      </c>
-      <c r="I124" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="J124" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K124" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="18" t="s">
-        <v>671</v>
-      </c>
-      <c r="B125" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>558</v>
       </c>
       <c r="H125" s="2">
         <v>2</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="18" t="s">
-        <v>671</v>
-      </c>
-      <c r="B126" s="15" t="s">
-        <v>0</v>
+      <c r="A126" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="B126" s="17" t="s">
+        <v>687</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>534</v>
+        <v>517</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>549</v>
       </c>
       <c r="H126" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="18" t="s">
-        <v>671</v>
-      </c>
-      <c r="B127" s="15" t="s">
-        <v>0</v>
+      <c r="A127" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="B127" s="17" t="s">
+        <v>687</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H127" s="2">
         <v>2</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="K127" s="2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="18" t="s">
-        <v>671</v>
-      </c>
-      <c r="B128" s="15" t="s">
-        <v>0</v>
+      <c r="A128" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="B128" s="17" t="s">
+        <v>687</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="H128" s="2">
         <v>2</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
@@ -6759,28 +6805,25 @@
         <v>0</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>531</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="H129" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="K129" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
@@ -6791,7 +6834,7 @@
         <v>0</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>531</v>
@@ -6800,19 +6843,19 @@
         <v>550</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H130" s="2">
         <v>3</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
@@ -6823,7 +6866,7 @@
         <v>0</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>531</v>
@@ -6832,19 +6875,19 @@
         <v>550</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H131" s="2">
         <v>3</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
@@ -6855,7 +6898,7 @@
         <v>0</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>531</v>
@@ -6864,19 +6907,19 @@
         <v>550</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H132" s="2">
         <v>3</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
@@ -6887,7 +6930,7 @@
         <v>0</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>531</v>
@@ -6896,19 +6939,19 @@
         <v>550</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H133" s="2">
         <v>3</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K133" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
@@ -6919,7 +6962,7 @@
         <v>0</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>531</v>
@@ -6928,19 +6971,19 @@
         <v>550</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H134" s="2">
         <v>3</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K134" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
@@ -6951,25 +6994,28 @@
         <v>0</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>531</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>557</v>
+        <v>550</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>556</v>
       </c>
       <c r="H135" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K135" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
@@ -6980,25 +7026,25 @@
         <v>0</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>531</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H136" s="2">
         <v>2</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="J136" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K136" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
@@ -7009,22 +7055,25 @@
         <v>0</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>535</v>
+        <v>531</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>558</v>
       </c>
       <c r="H137" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="J137" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K137" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
@@ -7035,68 +7084,62 @@
         <v>0</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="H138" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="J138" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K138" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="18" t="s">
         <v>671</v>
       </c>
-      <c r="B139" s="13" t="s">
-        <v>4</v>
+      <c r="B139" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>531</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H139" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K139" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="18" t="s">
         <v>671</v>
       </c>
-      <c r="B140" s="13" t="s">
-        <v>4</v>
+      <c r="B140" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>531</v>
@@ -7104,340 +7147,322 @@
       <c r="E140" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="F140" s="2" t="s">
-        <v>552</v>
-      </c>
       <c r="H140" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="J140" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="K140" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="18" t="s">
         <v>671</v>
       </c>
-      <c r="B141" s="13" t="s">
-        <v>4</v>
+      <c r="B141" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>531</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="H141" s="2">
         <v>3</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="J141" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="K141" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="18" t="s">
         <v>671</v>
       </c>
-      <c r="B142" s="13" t="s">
-        <v>4</v>
+      <c r="B142" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>531</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="H142" s="2">
         <v>3</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K142" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="18" t="s">
         <v>671</v>
       </c>
-      <c r="B143" s="13" t="s">
-        <v>4</v>
+      <c r="B143" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>531</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="H143" s="2">
         <v>3</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="K143" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="18" t="s">
         <v>671</v>
       </c>
-      <c r="B144" s="13" t="s">
-        <v>4</v>
+      <c r="B144" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>531</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="H144" s="2">
         <v>3</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="K144" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="18" t="s">
         <v>671</v>
       </c>
-      <c r="B145" s="13" t="s">
-        <v>4</v>
+      <c r="B145" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>531</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="H145" s="2">
         <v>3</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="K145" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="18" t="s">
         <v>671</v>
       </c>
-      <c r="B146" s="13" t="s">
-        <v>4</v>
+      <c r="B146" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>531</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="H146" s="2">
         <v>3</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="K146" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="18" t="s">
         <v>671</v>
       </c>
-      <c r="B147" s="13" t="s">
-        <v>4</v>
+      <c r="B147" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>531</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="H147" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="K147" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="18" t="s">
         <v>671</v>
       </c>
-      <c r="B148" s="13" t="s">
-        <v>4</v>
+      <c r="B148" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>531</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="H148" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K148" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="18" t="s">
         <v>671</v>
       </c>
-      <c r="B149" s="13" t="s">
-        <v>4</v>
+      <c r="B149" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>555</v>
+        <v>535</v>
       </c>
       <c r="H149" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K149" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="18" t="s">
         <v>671</v>
       </c>
-      <c r="B150" s="13" t="s">
-        <v>4</v>
+      <c r="B150" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>531</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="H150" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="K150" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
@@ -7448,13 +7473,13 @@
         <v>4</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>531</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>559</v>
+        <v>540</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>551</v>
@@ -7463,10 +7488,10 @@
         <v>3</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="K151" s="2" t="s">
         <v>4</v>
@@ -7480,13 +7505,13 @@
         <v>4</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>531</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>559</v>
+        <v>540</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>552</v>
@@ -7495,10 +7520,10 @@
         <v>3</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K152" s="2" t="s">
         <v>4</v>
@@ -7512,13 +7537,13 @@
         <v>4</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>531</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>559</v>
+        <v>540</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>553</v>
@@ -7527,10 +7552,10 @@
         <v>3</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="K153" s="2" t="s">
         <v>4</v>
@@ -7544,13 +7569,13 @@
         <v>4</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>531</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>559</v>
+        <v>540</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>554</v>
@@ -7559,10 +7584,10 @@
         <v>3</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="J154" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K154" s="2" t="s">
         <v>4</v>
@@ -7576,13 +7601,13 @@
         <v>4</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>531</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>559</v>
+        <v>540</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>555</v>
@@ -7591,10 +7616,10 @@
         <v>3</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="J155" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="K155" s="2" t="s">
         <v>4</v>
@@ -7608,13 +7633,13 @@
         <v>4</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>531</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>559</v>
+        <v>540</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>556</v>
@@ -7623,10 +7648,10 @@
         <v>3</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="J156" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="K156" s="2" t="s">
         <v>4</v>
@@ -7640,13 +7665,13 @@
         <v>4</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>531</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>558</v>
+        <v>541</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>551</v>
@@ -7655,10 +7680,10 @@
         <v>3</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="J157" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="K157" s="2" t="s">
         <v>4</v>
@@ -7672,13 +7697,13 @@
         <v>4</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>531</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>558</v>
+        <v>541</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>552</v>
@@ -7687,10 +7712,10 @@
         <v>3</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="J158" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K158" s="2" t="s">
         <v>4</v>
@@ -7704,13 +7729,13 @@
         <v>4</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>531</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>558</v>
+        <v>541</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>553</v>
@@ -7719,10 +7744,10 @@
         <v>3</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="J159" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="K159" s="2" t="s">
         <v>4</v>
@@ -7736,13 +7761,13 @@
         <v>4</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>531</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>558</v>
+        <v>541</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>554</v>
@@ -7751,10 +7776,10 @@
         <v>3</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="J160" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K160" s="2" t="s">
         <v>4</v>
@@ -7768,13 +7793,13 @@
         <v>4</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>531</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>558</v>
+        <v>541</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>555</v>
@@ -7783,10 +7808,10 @@
         <v>3</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="J161" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="K161" s="2" t="s">
         <v>4</v>
@@ -7800,13 +7825,13 @@
         <v>4</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>531</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>558</v>
+        <v>541</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>556</v>
@@ -7815,10 +7840,10 @@
         <v>3</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="J162" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="K162" s="2" t="s">
         <v>4</v>
@@ -7832,13 +7857,13 @@
         <v>4</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>560</v>
+        <v>531</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>551</v>
@@ -7847,10 +7872,10 @@
         <v>3</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="J163" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K163" s="2" t="s">
         <v>4</v>
@@ -7864,13 +7889,13 @@
         <v>4</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>560</v>
+        <v>531</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>552</v>
@@ -7879,10 +7904,10 @@
         <v>3</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="J164" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K164" s="2" t="s">
         <v>4</v>
@@ -7896,19 +7921,22 @@
         <v>4</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>560</v>
+        <v>531</v>
       </c>
       <c r="E165" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="F165" s="2" t="s">
         <v>553</v>
       </c>
       <c r="H165" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="J165" s="2" t="s">
         <v>34</v>
@@ -7925,19 +7953,22 @@
         <v>4</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>560</v>
+        <v>531</v>
       </c>
       <c r="E166" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="F166" s="2" t="s">
         <v>554</v>
       </c>
       <c r="H166" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="J166" s="2" t="s">
         <v>35</v>
@@ -7954,19 +7985,22 @@
         <v>4</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>560</v>
+        <v>531</v>
       </c>
       <c r="E167" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="F167" s="2" t="s">
         <v>555</v>
       </c>
       <c r="H167" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="J167" s="2" t="s">
         <v>36</v>
@@ -7983,19 +8017,22 @@
         <v>4</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>560</v>
+        <v>531</v>
       </c>
       <c r="E168" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="F168" s="2" t="s">
         <v>556</v>
       </c>
       <c r="H168" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="J168" s="2" t="s">
         <v>37</v>
@@ -8012,22 +8049,25 @@
         <v>4</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>531</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>540</v>
+        <v>558</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>551</v>
       </c>
       <c r="H169" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="J169" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K169" s="2" t="s">
         <v>4</v>
@@ -8041,22 +8081,25 @@
         <v>4</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>531</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>541</v>
+        <v>558</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>552</v>
       </c>
       <c r="H170" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="J170" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K170" s="2" t="s">
         <v>4</v>
@@ -8070,22 +8113,25 @@
         <v>4</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>531</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>553</v>
       </c>
       <c r="H171" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="J171" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K171" s="2" t="s">
         <v>4</v>
@@ -8099,7 +8145,7 @@
         <v>4</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>531</v>
@@ -8107,14 +8153,17 @@
       <c r="E172" s="2" t="s">
         <v>558</v>
       </c>
+      <c r="F172" s="2" t="s">
+        <v>554</v>
+      </c>
       <c r="H172" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="J172" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="K172" s="2" t="s">
         <v>4</v>
@@ -8128,22 +8177,25 @@
         <v>4</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>531</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>555</v>
       </c>
       <c r="H173" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="J173" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="K173" s="2" t="s">
         <v>4</v>
@@ -8153,1160 +8205,1148 @@
       <c r="A174" s="18" t="s">
         <v>671</v>
       </c>
-      <c r="B174" s="16" t="s">
-        <v>678</v>
+      <c r="B174" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>531</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>540</v>
+        <v>558</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>556</v>
       </c>
       <c r="H174" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="J174" s="2" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="K174" s="2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="18" t="s">
         <v>671</v>
       </c>
-      <c r="B175" s="16" t="s">
-        <v>678</v>
+      <c r="B175" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>531</v>
+        <v>560</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>541</v>
+        <v>549</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>551</v>
       </c>
       <c r="H175" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I175" s="2" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="J175" s="2" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="K175" s="2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="18" t="s">
         <v>671</v>
       </c>
-      <c r="B176" s="16" t="s">
-        <v>678</v>
+      <c r="B176" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>531</v>
+        <v>560</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H176" s="2">
         <v>3</v>
       </c>
       <c r="I176" s="2" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="J176" s="2" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="K176" s="2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="18" t="s">
         <v>671</v>
       </c>
-      <c r="B177" s="16" t="s">
-        <v>678</v>
+      <c r="B177" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>531</v>
+        <v>560</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H177" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I177" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="J177" s="2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="K177" s="2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="18" t="s">
         <v>671</v>
       </c>
-      <c r="B178" s="16" t="s">
-        <v>678</v>
+      <c r="B178" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>531</v>
+        <v>560</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="H178" s="2">
         <v>2</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="J178" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="K178" s="2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="18" t="s">
         <v>671</v>
       </c>
-      <c r="B179" s="16" t="s">
-        <v>678</v>
+      <c r="B179" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>531</v>
+        <v>560</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="H179" s="2">
         <v>2</v>
       </c>
       <c r="I179" s="2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="J179" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="K179" s="2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="18" t="s">
         <v>671</v>
       </c>
-      <c r="B180" s="16" t="s">
-        <v>678</v>
+      <c r="B180" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="H180" s="2">
         <v>2</v>
       </c>
       <c r="I180" s="2" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="J180" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="K180" s="2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="18" t="s">
         <v>671</v>
       </c>
-      <c r="B181" s="16" t="s">
-        <v>678</v>
+      <c r="B181" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>561</v>
+        <v>531</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="H181" s="2">
         <v>2</v>
       </c>
       <c r="I181" s="2" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="J181" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="K181" s="2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="18" t="s">
         <v>671</v>
       </c>
-      <c r="B182" s="16" t="s">
-        <v>678</v>
+      <c r="B182" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>561</v>
+        <v>531</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="H182" s="2">
         <v>2</v>
       </c>
       <c r="I182" s="2" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="J182" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K182" s="2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="18" t="s">
         <v>671</v>
       </c>
-      <c r="B183" s="16" t="s">
-        <v>678</v>
+      <c r="B183" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>561</v>
+        <v>531</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H183" s="2">
         <v>2</v>
       </c>
       <c r="I183" s="2" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="J183" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K183" s="2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="18" t="s">
         <v>671</v>
       </c>
-      <c r="B184" s="16" t="s">
-        <v>678</v>
+      <c r="B184" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>531</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="H184" s="2">
         <v>2</v>
       </c>
       <c r="I184" s="2" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="J184" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K184" s="2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A185" s="7" t="s">
-        <v>683</v>
-      </c>
-      <c r="B185" s="14" t="s">
-        <v>680</v>
+      <c r="A185" s="18" t="s">
+        <v>671</v>
+      </c>
+      <c r="B185" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="H185" s="2">
         <v>2</v>
       </c>
       <c r="I185" s="2" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="J185" s="2" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="K185" s="2" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A186" s="7" t="s">
-        <v>683</v>
-      </c>
-      <c r="B186" s="14" t="s">
-        <v>680</v>
+      <c r="A186" s="18" t="s">
+        <v>671</v>
+      </c>
+      <c r="B186" s="16" t="s">
+        <v>678</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="H186" s="2">
         <v>2</v>
       </c>
       <c r="I186" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="J186" s="2" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="K186" s="2" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A187" s="7" t="s">
-        <v>683</v>
-      </c>
-      <c r="B187" s="14" t="s">
-        <v>680</v>
+      <c r="A187" s="18" t="s">
+        <v>671</v>
+      </c>
+      <c r="B187" s="16" t="s">
+        <v>678</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="H187" s="2">
         <v>2</v>
       </c>
       <c r="I187" s="2" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="J187" s="2" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="K187" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A188" s="7" t="s">
-        <v>683</v>
-      </c>
-      <c r="B188" s="14" t="s">
-        <v>680</v>
+      <c r="A188" s="18" t="s">
+        <v>671</v>
+      </c>
+      <c r="B188" s="16" t="s">
+        <v>678</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>551</v>
       </c>
       <c r="H188" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I188" s="2" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="J188" s="2" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="K188" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A189" s="7" t="s">
-        <v>683</v>
-      </c>
-      <c r="B189" s="14" t="s">
-        <v>680</v>
+      <c r="A189" s="18" t="s">
+        <v>671</v>
+      </c>
+      <c r="B189" s="16" t="s">
+        <v>678</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>552</v>
       </c>
       <c r="H189" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I189" s="2" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="J189" s="2" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="K189" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A190" s="7" t="s">
-        <v>683</v>
-      </c>
-      <c r="B190" s="14" t="s">
-        <v>680</v>
+      <c r="A190" s="18" t="s">
+        <v>671</v>
+      </c>
+      <c r="B190" s="16" t="s">
+        <v>678</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="H190" s="2">
         <v>2</v>
       </c>
       <c r="I190" s="2" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="J190" s="2" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="K190" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A191" s="7" t="s">
-        <v>683</v>
-      </c>
-      <c r="B191" s="14" t="s">
-        <v>680</v>
+      <c r="A191" s="18" t="s">
+        <v>671</v>
+      </c>
+      <c r="B191" s="16" t="s">
+        <v>678</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="H191" s="2">
         <v>2</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="J191" s="2" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="K191" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A192" s="7" t="s">
-        <v>683</v>
-      </c>
-      <c r="B192" s="14" t="s">
-        <v>680</v>
+      <c r="A192" s="18" t="s">
+        <v>671</v>
+      </c>
+      <c r="B192" s="16" t="s">
+        <v>678</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>532</v>
+        <v>561</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="H192" s="2">
         <v>2</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="J192" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K192" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A193" s="7" t="s">
-        <v>683</v>
-      </c>
-      <c r="B193" s="14" t="s">
-        <v>680</v>
+      <c r="A193" s="18" t="s">
+        <v>671</v>
+      </c>
+      <c r="B193" s="16" t="s">
+        <v>678</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>531</v>
+        <v>561</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>554</v>
       </c>
       <c r="H193" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I193" s="2" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="J193" s="2" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="K193" s="2" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A194" s="7" t="s">
-        <v>683</v>
-      </c>
-      <c r="B194" s="14" t="s">
-        <v>680</v>
+      <c r="A194" s="18" t="s">
+        <v>671</v>
+      </c>
+      <c r="B194" s="16" t="s">
+        <v>678</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>531</v>
+        <v>561</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>555</v>
       </c>
       <c r="H194" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I194" s="2" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="J194" s="2" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="K194" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A195" s="7" t="s">
-        <v>683</v>
-      </c>
-      <c r="B195" s="14" t="s">
-        <v>680</v>
+      <c r="A195" s="18" t="s">
+        <v>671</v>
+      </c>
+      <c r="B195" s="16" t="s">
+        <v>678</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>531</v>
+        <v>561</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>556</v>
       </c>
       <c r="H195" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I195" s="2" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="J195" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="K195" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A196" s="7" t="s">
-        <v>683</v>
-      </c>
-      <c r="B196" s="14" t="s">
-        <v>680</v>
+      <c r="A196" s="18" t="s">
+        <v>671</v>
+      </c>
+      <c r="B196" s="16" t="s">
+        <v>678</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>531</v>
       </c>
+      <c r="E196" s="2" t="s">
+        <v>550</v>
+      </c>
       <c r="H196" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I196" s="2" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="J196" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="K196" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
         <v>683</v>
       </c>
-      <c r="B197" s="16" t="s">
-        <v>666</v>
+      <c r="B197" s="14" t="s">
+        <v>680</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>531</v>
+        <v>533</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>549</v>
       </c>
       <c r="H197" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I197" s="2" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="J197" s="2" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="K197" s="2" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
         <v>683</v>
       </c>
-      <c r="B198" s="16" t="s">
-        <v>666</v>
+      <c r="B198" s="14" t="s">
+        <v>680</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>549</v>
       </c>
       <c r="H198" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I198" s="2" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="J198" s="2" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="K198" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
         <v>683</v>
       </c>
-      <c r="B199" s="16" t="s">
-        <v>666</v>
+      <c r="B199" s="14" t="s">
+        <v>680</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>531</v>
+        <v>533</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>549</v>
       </c>
       <c r="H199" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I199" s="2" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="J199" s="2" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="K199" s="2" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
         <v>683</v>
       </c>
-      <c r="B200" s="16" t="s">
-        <v>666</v>
+      <c r="B200" s="14" t="s">
+        <v>680</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>549</v>
       </c>
       <c r="H200" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I200" s="2" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="J200" s="2" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="K200" s="2" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A201" s="18" t="s">
-        <v>671</v>
-      </c>
-      <c r="B201" s="17" t="s">
-        <v>681</v>
+      <c r="A201" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="B201" s="14" t="s">
+        <v>680</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="H201" s="2">
         <v>2</v>
       </c>
       <c r="I201" s="2" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="J201" s="2" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="K201" s="2" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A202" s="18" t="s">
-        <v>671</v>
-      </c>
-      <c r="B202" s="17" t="s">
-        <v>681</v>
+      <c r="A202" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="B202" s="14" t="s">
+        <v>680</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="F202" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="H202" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I202" s="2" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="J202" s="2" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="K202" s="2" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A203" s="18" t="s">
-        <v>671</v>
-      </c>
-      <c r="B203" s="17" t="s">
-        <v>681</v>
+      <c r="A203" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="B203" s="14" t="s">
+        <v>680</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="F203" s="2" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="H203" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I203" s="2" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="J203" s="2" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="K203" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A204" s="18" t="s">
-        <v>671</v>
-      </c>
-      <c r="B204" s="17" t="s">
-        <v>681</v>
+      <c r="A204" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="B204" s="14" t="s">
+        <v>680</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="F204" s="2" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="H204" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I204" s="2" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="J204" s="2" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="K204" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A205" s="18" t="s">
-        <v>671</v>
-      </c>
-      <c r="B205" s="17" t="s">
-        <v>681</v>
+      <c r="A205" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="B205" s="14" t="s">
+        <v>680</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="E205" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="F205" s="2" t="s">
-        <v>554</v>
-      </c>
       <c r="H205" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I205" s="2" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="J205" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K205" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A206" s="18" t="s">
-        <v>671</v>
-      </c>
-      <c r="B206" s="17" t="s">
-        <v>681</v>
+      <c r="A206" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="B206" s="14" t="s">
+        <v>680</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="E206" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="F206" s="2" t="s">
-        <v>555</v>
-      </c>
       <c r="H206" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I206" s="2" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="J206" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="K206" s="2" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A207" s="18" t="s">
-        <v>671</v>
-      </c>
-      <c r="B207" s="17" t="s">
-        <v>681</v>
+      <c r="A207" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="B207" s="14" t="s">
+        <v>680</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="E207" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="F207" s="2" t="s">
-        <v>556</v>
-      </c>
       <c r="H207" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I207" s="2" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="J207" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K207" s="2" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A208" s="18" t="s">
-        <v>671</v>
-      </c>
-      <c r="B208" s="17" t="s">
-        <v>681</v>
+      <c r="A208" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="B208" s="14" t="s">
+        <v>680</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="E208" s="2" t="s">
-        <v>557</v>
-      </c>
       <c r="H208" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I208" s="2" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="J208" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="K208" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A209" s="18" t="s">
-        <v>671</v>
-      </c>
-      <c r="B209" s="17" t="s">
-        <v>681</v>
+      <c r="A209" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="B209" s="16" t="s">
+        <v>666</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="E209" s="2" t="s">
-        <v>559</v>
-      </c>
       <c r="H209" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I209" s="2" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="J209" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="K209" s="2" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A210" s="18" t="s">
-        <v>671</v>
-      </c>
-      <c r="B210" s="17" t="s">
-        <v>681</v>
+      <c r="A210" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="B210" s="16" t="s">
+        <v>666</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="H210" s="2">
         <v>1</v>
       </c>
       <c r="I210" s="2" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="J210" s="2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="K210" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A211" s="18" t="s">
-        <v>671</v>
-      </c>
-      <c r="B211" s="24" t="s">
-        <v>682</v>
+      <c r="A211" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="B211" s="16" t="s">
+        <v>666</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="E211" s="2" t="s">
-        <v>541</v>
-      </c>
       <c r="H211" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I211" s="2" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="J211" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K211" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A212" s="18" t="s">
-        <v>671</v>
-      </c>
-      <c r="B212" s="24" t="s">
-        <v>682</v>
+      <c r="A212" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="B212" s="16" t="s">
+        <v>666</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="E212" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="F212" s="2" t="s">
-        <v>551</v>
-      </c>
       <c r="H212" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I212" s="2" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="J212" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K212" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="18" t="s">
         <v>671</v>
       </c>
-      <c r="B213" s="24" t="s">
-        <v>682</v>
+      <c r="B213" s="17" t="s">
+        <v>681</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>531</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="F213" s="2" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="H213" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I213" s="2" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="J213" s="2" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="K213" s="2" t="s">
         <v>49</v>
@@ -9316,11 +9356,11 @@
       <c r="A214" s="18" t="s">
         <v>671</v>
       </c>
-      <c r="B214" s="24" t="s">
-        <v>682</v>
+      <c r="B214" s="17" t="s">
+        <v>681</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>531</v>
@@ -9329,13 +9369,13 @@
         <v>550</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="H214" s="2">
         <v>3</v>
       </c>
       <c r="I214" s="2" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="J214" s="2" t="s">
         <v>17</v>
@@ -9348,11 +9388,11 @@
       <c r="A215" s="18" t="s">
         <v>671</v>
       </c>
-      <c r="B215" s="24" t="s">
-        <v>682</v>
+      <c r="B215" s="17" t="s">
+        <v>681</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>531</v>
@@ -9361,13 +9401,13 @@
         <v>550</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="H215" s="2">
         <v>3</v>
       </c>
       <c r="I215" s="2" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="J215" s="2" t="s">
         <v>18</v>
@@ -9380,11 +9420,11 @@
       <c r="A216" s="18" t="s">
         <v>671</v>
       </c>
-      <c r="B216" s="24" t="s">
-        <v>682</v>
+      <c r="B216" s="17" t="s">
+        <v>681</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>531</v>
@@ -9393,16 +9433,16 @@
         <v>550</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="H216" s="2">
         <v>3</v>
       </c>
       <c r="I216" s="2" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="J216" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K216" s="2" t="s">
         <v>49</v>
@@ -9412,11 +9452,11 @@
       <c r="A217" s="18" t="s">
         <v>671</v>
       </c>
-      <c r="B217" s="24" t="s">
-        <v>682</v>
+      <c r="B217" s="17" t="s">
+        <v>681</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>531</v>
@@ -9425,16 +9465,16 @@
         <v>550</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="H217" s="2">
         <v>3</v>
       </c>
       <c r="I217" s="2" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="J217" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K217" s="2" t="s">
         <v>49</v>
@@ -9444,26 +9484,29 @@
       <c r="A218" s="18" t="s">
         <v>671</v>
       </c>
-      <c r="B218" s="24" t="s">
-        <v>682</v>
+      <c r="B218" s="17" t="s">
+        <v>681</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>531</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>557</v>
+        <v>550</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>555</v>
       </c>
       <c r="H218" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I218" s="2" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="J218" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K218" s="2" t="s">
         <v>49</v>
@@ -9473,26 +9516,29 @@
       <c r="A219" s="18" t="s">
         <v>671</v>
       </c>
-      <c r="B219" s="24" t="s">
-        <v>682</v>
+      <c r="B219" s="17" t="s">
+        <v>681</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>531</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>558</v>
+        <v>550</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>556</v>
       </c>
       <c r="H219" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I219" s="2" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="J219" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K219" s="2" t="s">
         <v>49</v>
@@ -9502,23 +9548,26 @@
       <c r="A220" s="18" t="s">
         <v>671</v>
       </c>
-      <c r="B220" s="24" t="s">
-        <v>682</v>
+      <c r="B220" s="17" t="s">
+        <v>681</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>537</v>
+        <v>531</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="H220" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I220" s="2" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="J220" s="2" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K220" s="2" t="s">
         <v>49</v>
@@ -9528,156 +9577,159 @@
       <c r="A221" s="18" t="s">
         <v>671</v>
       </c>
-      <c r="B221" s="24" t="s">
-        <v>682</v>
+      <c r="B221" s="17" t="s">
+        <v>681</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>531</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="H221" s="2">
         <v>2</v>
       </c>
       <c r="I221" s="2" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="J221" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K221" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A222" s="10" t="s">
-        <v>668</v>
-      </c>
-      <c r="B222" s="13" t="s">
-        <v>665</v>
+      <c r="A222" s="18" t="s">
+        <v>671</v>
+      </c>
+      <c r="B222" s="17" t="s">
+        <v>681</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="E222" s="2" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="H222" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I222" s="2" t="s">
-        <v>604</v>
+        <v>429</v>
       </c>
       <c r="J222" s="2" t="s">
-        <v>605</v>
+        <v>1</v>
       </c>
       <c r="K222" s="2" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A223" s="10" t="s">
-        <v>668</v>
-      </c>
-      <c r="B223" s="13" t="s">
-        <v>665</v>
+      <c r="A223" s="18" t="s">
+        <v>671</v>
+      </c>
+      <c r="B223" s="24" t="s">
+        <v>682</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>531</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="H223" s="2">
         <v>2</v>
       </c>
       <c r="I223" s="2" t="s">
-        <v>606</v>
+        <v>430</v>
       </c>
       <c r="J223" s="2" t="s">
-        <v>605</v>
+        <v>6</v>
       </c>
       <c r="K223" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A224" s="10" t="s">
-        <v>668</v>
-      </c>
-      <c r="B224" s="13" t="s">
-        <v>665</v>
+      <c r="A224" s="18" t="s">
+        <v>671</v>
+      </c>
+      <c r="B224" s="24" t="s">
+        <v>682</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>531</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>547</v>
+        <v>550</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>551</v>
       </c>
       <c r="H224" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I224" s="2" t="s">
-        <v>623</v>
+        <v>431</v>
       </c>
       <c r="J224" s="2" t="s">
-        <v>605</v>
+        <v>17</v>
       </c>
       <c r="K224" s="2" t="s">
-        <v>614</v>
+        <v>49</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A225" s="10" t="s">
-        <v>668</v>
-      </c>
-      <c r="B225" s="13" t="s">
-        <v>665</v>
+      <c r="A225" s="18" t="s">
+        <v>671</v>
+      </c>
+      <c r="B225" s="24" t="s">
+        <v>682</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>531</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>547</v>
+        <v>550</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>552</v>
       </c>
       <c r="H225" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I225" s="2" t="s">
-        <v>619</v>
+        <v>432</v>
       </c>
       <c r="J225" s="2" t="s">
-        <v>605</v>
+        <v>18</v>
       </c>
       <c r="K225" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="18" t="s">
         <v>671</v>
       </c>
-      <c r="B226" s="17" t="s">
-        <v>681</v>
+      <c r="B226" s="24" t="s">
+        <v>682</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>531</v>
@@ -9685,124 +9737,127 @@
       <c r="E226" s="2" t="s">
         <v>550</v>
       </c>
+      <c r="F226" s="2" t="s">
+        <v>553</v>
+      </c>
       <c r="H226" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I226" s="2" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="J226" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="K226" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A227" s="8" t="s">
-        <v>700</v>
-      </c>
-      <c r="B227" s="8" t="s">
-        <v>700</v>
+      <c r="A227" s="18" t="s">
+        <v>671</v>
+      </c>
+      <c r="B227" s="24" t="s">
+        <v>682</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>531</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="H227" s="2">
         <v>3</v>
       </c>
       <c r="I227" s="2" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="J227" s="2" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="K227" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A228" s="8" t="s">
-        <v>700</v>
-      </c>
-      <c r="B228" s="8" t="s">
-        <v>700</v>
+      <c r="A228" s="18" t="s">
+        <v>671</v>
+      </c>
+      <c r="B228" s="24" t="s">
+        <v>682</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>531</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="H228" s="2">
         <v>3</v>
       </c>
       <c r="I228" s="2" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="J228" s="2" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="K228" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A229" s="8" t="s">
-        <v>700</v>
-      </c>
-      <c r="B229" s="8" t="s">
-        <v>700</v>
+      <c r="A229" s="18" t="s">
+        <v>671</v>
+      </c>
+      <c r="B229" s="24" t="s">
+        <v>682</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>531</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="H229" s="2">
         <v>3</v>
       </c>
       <c r="I229" s="2" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="J229" s="2" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="K229" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A230" s="8" t="s">
-        <v>700</v>
-      </c>
-      <c r="B230" s="8" t="s">
-        <v>700</v>
+      <c r="A230" s="18" t="s">
+        <v>671</v>
+      </c>
+      <c r="B230" s="24" t="s">
+        <v>682</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="D230" s="2" t="s">
         <v>531</v>
@@ -9810,759 +9865,780 @@
       <c r="E230" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="F230" s="2" t="s">
-        <v>554</v>
-      </c>
       <c r="H230" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I230" s="2" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="J230" s="2" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="K230" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A231" s="8" t="s">
-        <v>700</v>
-      </c>
-      <c r="B231" s="8" t="s">
-        <v>700</v>
+      <c r="A231" s="18" t="s">
+        <v>671</v>
+      </c>
+      <c r="B231" s="24" t="s">
+        <v>682</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>531</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="F231" s="2" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="H231" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I231" s="2" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="J231" s="2" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="K231" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A232" s="8" t="s">
-        <v>700</v>
-      </c>
-      <c r="B232" s="8" t="s">
-        <v>700</v>
+      <c r="A232" s="18" t="s">
+        <v>671</v>
+      </c>
+      <c r="B232" s="24" t="s">
+        <v>682</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="E232" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="F232" s="2" t="s">
-        <v>556</v>
+        <v>537</v>
       </c>
       <c r="H232" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I232" s="2" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="J232" s="2" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="K232" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A233" s="8" t="s">
-        <v>700</v>
-      </c>
-      <c r="B233" s="8" t="s">
-        <v>700</v>
+      <c r="A233" s="18" t="s">
+        <v>671</v>
+      </c>
+      <c r="B233" s="24" t="s">
+        <v>682</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>531</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="H233" s="2">
         <v>2</v>
       </c>
       <c r="I233" s="2" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="J233" s="2" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="K233" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A234" s="7" t="s">
-        <v>683</v>
-      </c>
-      <c r="B234" s="17" t="s">
-        <v>664</v>
+      <c r="A234" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="B234" s="13" t="s">
+        <v>665</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>531</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="H234" s="2">
         <v>2</v>
       </c>
       <c r="I234" s="2" t="s">
-        <v>449</v>
+        <v>604</v>
       </c>
       <c r="J234" s="2" t="s">
-        <v>57</v>
+        <v>605</v>
       </c>
       <c r="K234" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A235" s="7" t="s">
-        <v>683</v>
-      </c>
-      <c r="B235" s="17" t="s">
-        <v>664</v>
+      <c r="A235" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="B235" s="13" t="s">
+        <v>665</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>531</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="H235" s="2">
         <v>2</v>
       </c>
       <c r="I235" s="2" t="s">
-        <v>450</v>
+        <v>606</v>
       </c>
       <c r="J235" s="2" t="s">
-        <v>58</v>
+        <v>605</v>
       </c>
       <c r="K235" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A236" s="7" t="s">
-        <v>683</v>
-      </c>
-      <c r="B236" s="17" t="s">
-        <v>664</v>
+      <c r="A236" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="B236" s="13" t="s">
+        <v>665</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="D236" s="2" t="s">
         <v>531</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="H236" s="2">
         <v>2</v>
       </c>
       <c r="I236" s="2" t="s">
-        <v>451</v>
+        <v>623</v>
       </c>
       <c r="J236" s="2" t="s">
-        <v>57</v>
+        <v>605</v>
       </c>
       <c r="K236" s="2" t="s">
-        <v>64</v>
+        <v>614</v>
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A237" s="7" t="s">
-        <v>683</v>
-      </c>
-      <c r="B237" s="17" t="s">
-        <v>664</v>
+      <c r="A237" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="B237" s="13" t="s">
+        <v>665</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>531</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="H237" s="2">
         <v>2</v>
       </c>
       <c r="I237" s="2" t="s">
-        <v>452</v>
+        <v>619</v>
       </c>
       <c r="J237" s="2" t="s">
-        <v>58</v>
+        <v>605</v>
       </c>
       <c r="K237" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A238" s="7" t="s">
-        <v>683</v>
+      <c r="A238" s="18" t="s">
+        <v>671</v>
       </c>
       <c r="B238" s="17" t="s">
-        <v>664</v>
+        <v>681</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>531</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="H238" s="2">
         <v>2</v>
       </c>
       <c r="I238" s="2" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="J238" s="2" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="K238" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A239" s="7" t="s">
-        <v>683</v>
-      </c>
-      <c r="B239" s="17" t="s">
-        <v>664</v>
+      <c r="A239" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="B239" s="8" t="s">
+        <v>700</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="D239" s="2" t="s">
         <v>531</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
+      </c>
+      <c r="F239" s="2" t="s">
+        <v>551</v>
       </c>
       <c r="H239" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I239" s="2" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="J239" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K239" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A240" s="7" t="s">
-        <v>683</v>
-      </c>
-      <c r="B240" s="17" t="s">
-        <v>664</v>
+      <c r="A240" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="B240" s="8" t="s">
+        <v>700</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>531</v>
       </c>
+      <c r="E240" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="F240" s="2" t="s">
+        <v>552</v>
+      </c>
       <c r="H240" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I240" s="2" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="J240" s="2" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="K240" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A241" s="6" t="s">
-        <v>696</v>
-      </c>
-      <c r="B241" s="13" t="s">
-        <v>697</v>
+      <c r="A241" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="B241" s="8" t="s">
+        <v>700</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>531</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>543</v>
+        <v>557</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="G241" s="2" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="H241" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I241" s="2" t="s">
-        <v>610</v>
+        <v>444</v>
       </c>
       <c r="J241" s="2" t="s">
-        <v>608</v>
+        <v>52</v>
       </c>
       <c r="K241" s="2" t="s">
-        <v>607</v>
+        <v>51</v>
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A242" s="6" t="s">
-        <v>696</v>
-      </c>
-      <c r="B242" s="15" t="s">
-        <v>698</v>
+      <c r="A242" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="B242" s="8" t="s">
+        <v>700</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="D242" s="2" t="s">
         <v>531</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>543</v>
+        <v>557</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="G242" s="2" t="s">
-        <v>537</v>
+        <v>554</v>
       </c>
       <c r="H242" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I242" s="2" t="s">
-        <v>611</v>
+        <v>445</v>
       </c>
       <c r="J242" s="2" t="s">
-        <v>609</v>
+        <v>53</v>
       </c>
       <c r="K242" s="2" t="s">
-        <v>607</v>
+        <v>51</v>
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A243" s="7" t="s">
-        <v>683</v>
-      </c>
-      <c r="B243" s="24" t="s">
-        <v>690</v>
+      <c r="A243" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="B243" s="8" t="s">
+        <v>700</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>549</v>
+        <v>557</v>
+      </c>
+      <c r="F243" s="2" t="s">
+        <v>555</v>
       </c>
       <c r="H243" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I243" s="2" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="J243" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="K243" s="2" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A244" s="7" t="s">
-        <v>683</v>
-      </c>
-      <c r="B244" s="24" t="s">
-        <v>690</v>
+      <c r="A244" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="B244" s="8" t="s">
+        <v>700</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>549</v>
+        <v>557</v>
+      </c>
+      <c r="F244" s="2" t="s">
+        <v>556</v>
       </c>
       <c r="H244" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I244" s="2" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="J244" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="K244" s="2" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A245" s="7" t="s">
-        <v>683</v>
-      </c>
-      <c r="B245" s="24" t="s">
-        <v>690</v>
+      <c r="A245" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="B245" s="8" t="s">
+        <v>700</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>515</v>
+        <v>531</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="H245" s="2">
         <v>2</v>
       </c>
       <c r="I245" s="2" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="J245" s="2" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="K245" s="2" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="7" t="s">
         <v>683</v>
       </c>
-      <c r="B246" s="24" t="s">
-        <v>690</v>
+      <c r="B246" s="17" t="s">
+        <v>664</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="H246" s="2">
         <v>2</v>
       </c>
       <c r="I246" s="2" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="J246" s="2" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="K246" s="2" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="7" t="s">
         <v>683</v>
       </c>
-      <c r="B247" s="24" t="s">
-        <v>690</v>
+      <c r="B247" s="17" t="s">
+        <v>664</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="H247" s="2">
         <v>2</v>
       </c>
       <c r="I247" s="2" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="J247" s="2" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="K247" s="2" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="7" t="s">
         <v>683</v>
       </c>
-      <c r="B248" s="24" t="s">
-        <v>690</v>
+      <c r="B248" s="17" t="s">
+        <v>664</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="H248" s="2">
         <v>2</v>
       </c>
       <c r="I248" s="2" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="J248" s="2" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="K248" s="2" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
         <v>683</v>
       </c>
-      <c r="B249" s="24" t="s">
-        <v>690</v>
+      <c r="B249" s="17" t="s">
+        <v>664</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="D249" s="2" t="s">
         <v>531</v>
       </c>
+      <c r="E249" s="2" t="s">
+        <v>554</v>
+      </c>
       <c r="H249" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I249" s="2" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="J249" s="2" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="K249" s="2" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="7" t="s">
         <v>683</v>
       </c>
-      <c r="B250" s="16" t="s">
-        <v>679</v>
+      <c r="B250" s="17" t="s">
+        <v>664</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="H250" s="2">
         <v>2</v>
       </c>
       <c r="I250" s="2" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="J250" s="2" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="K250" s="2" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="7" t="s">
         <v>683</v>
       </c>
-      <c r="B251" s="16" t="s">
-        <v>679</v>
+      <c r="B251" s="17" t="s">
+        <v>664</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="H251" s="2">
         <v>2</v>
       </c>
       <c r="I251" s="2" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="J251" s="2" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="K251" s="2" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="7" t="s">
         <v>683</v>
       </c>
-      <c r="B252" s="16" t="s">
-        <v>679</v>
+      <c r="B252" s="17" t="s">
+        <v>664</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>515</v>
+        <v>531</v>
       </c>
       <c r="H252" s="2">
         <v>1</v>
       </c>
       <c r="I252" s="2" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="J252" s="2" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="K252" s="2" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A253" s="7" t="s">
-        <v>683</v>
-      </c>
-      <c r="B253" s="16" t="s">
-        <v>679</v>
+      <c r="A253" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="B253" s="13" t="s">
+        <v>697</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>517</v>
+        <v>531</v>
+      </c>
+      <c r="E253" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="F253" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="G253" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="H253" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I253" s="2" t="s">
-        <v>466</v>
+        <v>610</v>
       </c>
       <c r="J253" s="2" t="s">
-        <v>7</v>
+        <v>608</v>
       </c>
       <c r="K253" s="2" t="s">
-        <v>10</v>
+        <v>607</v>
       </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A254" s="7" t="s">
-        <v>683</v>
-      </c>
-      <c r="B254" s="16" t="s">
-        <v>679</v>
+      <c r="A254" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="B254" s="15" t="s">
+        <v>698</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>523</v>
+        <v>531</v>
+      </c>
+      <c r="E254" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="F254" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="G254" s="2" t="s">
+        <v>537</v>
       </c>
       <c r="H254" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I254" s="2" t="s">
-        <v>467</v>
+        <v>611</v>
       </c>
       <c r="J254" s="2" t="s">
-        <v>8</v>
+        <v>609</v>
       </c>
       <c r="K254" s="2" t="s">
-        <v>10</v>
+        <v>607</v>
       </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="7" t="s">
         <v>683</v>
       </c>
-      <c r="B255" s="16" t="s">
-        <v>679</v>
+      <c r="B255" s="24" t="s">
+        <v>690</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>530</v>
+        <v>533</v>
+      </c>
+      <c r="E255" s="2" t="s">
+        <v>549</v>
       </c>
       <c r="H255" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I255" s="2" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="J255" s="2" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="K255" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="7" t="s">
         <v>683</v>
       </c>
-      <c r="B256" s="16" t="s">
-        <v>679</v>
+      <c r="B256" s="24" t="s">
+        <v>690</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E256" s="2" t="s">
         <v>549</v>
@@ -10571,27 +10647,27 @@
         <v>2</v>
       </c>
       <c r="I256" s="2" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="J256" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K256" s="2" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="7" t="s">
         <v>683</v>
       </c>
-      <c r="B257" s="16" t="s">
-        <v>679</v>
+      <c r="B257" s="24" t="s">
+        <v>690</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>532</v>
+        <v>515</v>
       </c>
       <c r="E257" s="2" t="s">
         <v>549</v>
@@ -10600,117 +10676,126 @@
         <v>2</v>
       </c>
       <c r="I257" s="2" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="J257" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K257" s="2" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="7" t="s">
         <v>683</v>
       </c>
-      <c r="B258" s="16" t="s">
-        <v>679</v>
+      <c r="B258" s="24" t="s">
+        <v>690</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>515</v>
+        <v>517</v>
+      </c>
+      <c r="E258" s="2" t="s">
+        <v>549</v>
       </c>
       <c r="H258" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I258" s="2" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="J258" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K258" s="2" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="7" t="s">
         <v>683</v>
       </c>
-      <c r="B259" s="16" t="s">
-        <v>679</v>
+      <c r="B259" s="24" t="s">
+        <v>690</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>517</v>
+        <v>523</v>
+      </c>
+      <c r="E259" s="2" t="s">
+        <v>549</v>
       </c>
       <c r="H259" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I259" s="2" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="J259" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="K259" s="2" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="7" t="s">
         <v>683</v>
       </c>
-      <c r="B260" s="16" t="s">
-        <v>679</v>
+      <c r="B260" s="24" t="s">
+        <v>690</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>523</v>
+        <v>530</v>
+      </c>
+      <c r="E260" s="2" t="s">
+        <v>549</v>
       </c>
       <c r="H260" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I260" s="2" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="J260" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="K260" s="2" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="7" t="s">
         <v>683</v>
       </c>
-      <c r="B261" s="16" t="s">
-        <v>679</v>
+      <c r="B261" s="24" t="s">
+        <v>690</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H261" s="2">
         <v>1</v>
       </c>
       <c r="I261" s="2" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="J261" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K261" s="2" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
@@ -10721,7 +10806,7 @@
         <v>679</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="D262" s="2" t="s">
         <v>533</v>
@@ -10733,13 +10818,13 @@
         <v>2</v>
       </c>
       <c r="I262" s="2" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="J262" s="2" t="s">
         <v>46</v>
       </c>
       <c r="K262" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
@@ -10750,7 +10835,7 @@
         <v>679</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D263" s="2" t="s">
         <v>532</v>
@@ -10762,13 +10847,13 @@
         <v>2</v>
       </c>
       <c r="I263" s="2" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="J263" s="2" t="s">
         <v>47</v>
       </c>
       <c r="K263" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
@@ -10779,7 +10864,7 @@
         <v>679</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="D264" s="2" t="s">
         <v>515</v>
@@ -10788,13 +10873,13 @@
         <v>1</v>
       </c>
       <c r="I264" s="2" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="J264" s="2" t="s">
         <v>45</v>
       </c>
       <c r="K264" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
@@ -10805,7 +10890,7 @@
         <v>679</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="D265" s="2" t="s">
         <v>517</v>
@@ -10814,13 +10899,13 @@
         <v>1</v>
       </c>
       <c r="I265" s="2" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="J265" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K265" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
@@ -10831,7 +10916,7 @@
         <v>679</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="D266" s="2" t="s">
         <v>523</v>
@@ -10840,13 +10925,13 @@
         <v>1</v>
       </c>
       <c r="I266" s="2" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="J266" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K266" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
@@ -10857,7 +10942,7 @@
         <v>679</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="D267" s="2" t="s">
         <v>530</v>
@@ -10866,13 +10951,13 @@
         <v>1</v>
       </c>
       <c r="I267" s="2" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="J267" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K267" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
@@ -10883,7 +10968,7 @@
         <v>679</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>774</v>
+        <v>270</v>
       </c>
       <c r="D268" s="2" t="s">
         <v>533</v>
@@ -10895,13 +10980,13 @@
         <v>2</v>
       </c>
       <c r="I268" s="2" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="J268" s="2" t="s">
         <v>46</v>
       </c>
       <c r="K268" s="2" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
@@ -10912,7 +10997,7 @@
         <v>679</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>775</v>
+        <v>271</v>
       </c>
       <c r="D269" s="2" t="s">
         <v>532</v>
@@ -10924,13 +11009,13 @@
         <v>2</v>
       </c>
       <c r="I269" s="2" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="J269" s="2" t="s">
         <v>47</v>
       </c>
       <c r="K269" s="2" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
@@ -10941,7 +11026,7 @@
         <v>679</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>776</v>
+        <v>272</v>
       </c>
       <c r="D270" s="2" t="s">
         <v>515</v>
@@ -10950,13 +11035,13 @@
         <v>1</v>
       </c>
       <c r="I270" s="2" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="J270" s="2" t="s">
         <v>45</v>
       </c>
       <c r="K270" s="2" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
@@ -10967,7 +11052,7 @@
         <v>679</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>777</v>
+        <v>273</v>
       </c>
       <c r="D271" s="2" t="s">
         <v>517</v>
@@ -10976,13 +11061,13 @@
         <v>1</v>
       </c>
       <c r="I271" s="2" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="J271" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K271" s="2" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
@@ -10993,7 +11078,7 @@
         <v>679</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>778</v>
+        <v>274</v>
       </c>
       <c r="D272" s="2" t="s">
         <v>523</v>
@@ -11002,13 +11087,13 @@
         <v>1</v>
       </c>
       <c r="I272" s="2" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="J272" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K272" s="2" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
@@ -11019,7 +11104,7 @@
         <v>679</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>779</v>
+        <v>275</v>
       </c>
       <c r="D273" s="2" t="s">
         <v>530</v>
@@ -11028,13 +11113,13 @@
         <v>1</v>
       </c>
       <c r="I273" s="2" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="J273" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K273" s="2" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
@@ -11045,7 +11130,7 @@
         <v>679</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>715</v>
+        <v>276</v>
       </c>
       <c r="D274" s="2" t="s">
         <v>533</v>
@@ -11057,13 +11142,13 @@
         <v>2</v>
       </c>
       <c r="I274" s="2" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="J274" s="2" t="s">
         <v>46</v>
       </c>
       <c r="K274" s="2" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
@@ -11074,7 +11159,7 @@
         <v>679</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>716</v>
+        <v>277</v>
       </c>
       <c r="D275" s="2" t="s">
         <v>532</v>
@@ -11086,13 +11171,13 @@
         <v>2</v>
       </c>
       <c r="I275" s="2" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="J275" s="2" t="s">
         <v>47</v>
       </c>
       <c r="K275" s="2" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
@@ -11103,7 +11188,7 @@
         <v>679</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>717</v>
+        <v>278</v>
       </c>
       <c r="D276" s="2" t="s">
         <v>515</v>
@@ -11112,13 +11197,13 @@
         <v>1</v>
       </c>
       <c r="I276" s="2" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="J276" s="2" t="s">
         <v>45</v>
       </c>
       <c r="K276" s="2" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
@@ -11129,7 +11214,7 @@
         <v>679</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>718</v>
+        <v>279</v>
       </c>
       <c r="D277" s="2" t="s">
         <v>517</v>
@@ -11138,13 +11223,13 @@
         <v>1</v>
       </c>
       <c r="I277" s="2" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="J277" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K277" s="2" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
@@ -11155,7 +11240,7 @@
         <v>679</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>719</v>
+        <v>280</v>
       </c>
       <c r="D278" s="2" t="s">
         <v>523</v>
@@ -11164,13 +11249,13 @@
         <v>1</v>
       </c>
       <c r="I278" s="2" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="J278" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K278" s="2" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
@@ -11181,7 +11266,7 @@
         <v>679</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>720</v>
+        <v>281</v>
       </c>
       <c r="D279" s="2" t="s">
         <v>530</v>
@@ -11190,13 +11275,13 @@
         <v>1</v>
       </c>
       <c r="I279" s="2" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="J279" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K279" s="2" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
@@ -11207,22 +11292,25 @@
         <v>679</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>282</v>
+        <v>774</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>531</v>
+        <v>533</v>
+      </c>
+      <c r="E280" s="2" t="s">
+        <v>549</v>
       </c>
       <c r="H280" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I280" s="2" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="J280" s="2" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="K280" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
@@ -11233,22 +11321,25 @@
         <v>679</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>283</v>
+        <v>775</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
+      </c>
+      <c r="E281" s="2" t="s">
+        <v>549</v>
       </c>
       <c r="H281" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I281" s="2" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="J281" s="2" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="K281" s="2" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
@@ -11259,22 +11350,22 @@
         <v>679</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>284</v>
+        <v>776</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>531</v>
+        <v>515</v>
       </c>
       <c r="H282" s="2">
         <v>1</v>
       </c>
       <c r="I282" s="2" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="J282" s="2" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="K282" s="2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
@@ -11285,19 +11376,19 @@
         <v>679</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="H283" s="2">
         <v>1</v>
       </c>
       <c r="I283" s="2" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="J283" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="K283" s="2" t="s">
         <v>11</v>
@@ -11311,88 +11402,91 @@
         <v>679</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>721</v>
+        <v>778</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="H284" s="2">
         <v>1</v>
       </c>
       <c r="I284" s="2" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="J284" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K284" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A285" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="B285" s="16" t="s">
+        <v>679</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="H285" s="2">
+        <v>1</v>
+      </c>
+      <c r="I285" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="J285" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K285" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A286" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="B286" s="16" t="s">
+        <v>679</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="E286" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="H286" s="2">
+        <v>2</v>
+      </c>
+      <c r="I286" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="J286" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K286" s="2" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A285" s="10" t="s">
-        <v>668</v>
-      </c>
-      <c r="B285" s="23" t="s">
-        <v>692</v>
-      </c>
-      <c r="C285" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="D285" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="H285" s="2">
-        <v>1</v>
-      </c>
-      <c r="I285" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="J285" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K285" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A286" s="10" t="s">
-        <v>668</v>
-      </c>
-      <c r="B286" s="23" t="s">
-        <v>692</v>
-      </c>
-      <c r="C286" s="3" t="s">
-        <v>781</v>
-      </c>
-      <c r="D286" s="2" t="s">
-        <v>722</v>
-      </c>
-      <c r="H286" s="2">
-        <v>1</v>
-      </c>
-      <c r="I286" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="J286" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K286" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="7" t="s">
         <v>683</v>
       </c>
-      <c r="B287" s="25" t="s">
-        <v>691</v>
+      <c r="B287" s="16" t="s">
+        <v>679</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>286</v>
+        <v>716</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E287" s="2" t="s">
         <v>549</v>
@@ -11401,157 +11495,154 @@
         <v>2</v>
       </c>
       <c r="I287" s="2" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="J287" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K287" s="2" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="7" t="s">
         <v>683</v>
       </c>
-      <c r="B288" s="25" t="s">
-        <v>691</v>
+      <c r="B288" s="16" t="s">
+        <v>679</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>287</v>
+        <v>717</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="E288" s="2" t="s">
-        <v>549</v>
+        <v>515</v>
       </c>
       <c r="H288" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I288" s="2" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="J288" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K288" s="2" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="7" t="s">
         <v>683</v>
       </c>
-      <c r="B289" s="25" t="s">
-        <v>691</v>
+      <c r="B289" s="16" t="s">
+        <v>679</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>288</v>
+        <v>718</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="H289" s="2">
         <v>1</v>
       </c>
       <c r="I289" s="2" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="J289" s="2" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="K289" s="2" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="7" t="s">
         <v>683</v>
       </c>
-      <c r="B290" s="25" t="s">
-        <v>691</v>
+      <c r="B290" s="16" t="s">
+        <v>679</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>289</v>
+        <v>719</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="H290" s="2">
         <v>1</v>
       </c>
       <c r="I290" s="2" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="J290" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K290" s="2" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="7" t="s">
         <v>683</v>
       </c>
-      <c r="B291" s="25" t="s">
-        <v>691</v>
+      <c r="B291" s="16" t="s">
+        <v>679</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>290</v>
+        <v>720</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="H291" s="2">
         <v>1</v>
       </c>
       <c r="I291" s="2" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="J291" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K291" s="2" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="7" t="s">
         <v>683</v>
       </c>
-      <c r="B292" s="25" t="s">
-        <v>691</v>
+      <c r="B292" s="16" t="s">
+        <v>679</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H292" s="2">
         <v>1</v>
       </c>
       <c r="I292" s="2" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="J292" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K292" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="7" t="s">
         <v>683</v>
       </c>
-      <c r="B293" s="25" t="s">
-        <v>691</v>
+      <c r="B293" s="16" t="s">
+        <v>679</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D293" s="2" t="s">
         <v>531</v>
@@ -11560,527 +11651,845 @@
         <v>1</v>
       </c>
       <c r="I293" s="2" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="J293" s="2" t="s">
         <v>12</v>
       </c>
       <c r="K293" s="2" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A294" s="19" t="s">
-        <v>672</v>
-      </c>
-      <c r="B294" s="13" t="s">
-        <v>701</v>
+      <c r="A294" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="B294" s="16" t="s">
+        <v>679</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="H294" s="2">
         <v>1</v>
       </c>
-      <c r="I294" s="4" t="s">
-        <v>637</v>
+      <c r="I294" s="2" t="s">
+        <v>495</v>
       </c>
       <c r="J294" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="K294" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A295" s="19" t="s">
-        <v>672</v>
-      </c>
-      <c r="B295" s="13" t="s">
-        <v>701</v>
+      <c r="A295" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="B295" s="16" t="s">
+        <v>679</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>294</v>
+        <v>780</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="E295" s="2" t="s">
-        <v>550</v>
+        <v>531</v>
       </c>
       <c r="H295" s="2">
-        <v>2</v>
-      </c>
-      <c r="I295" s="4" t="s">
-        <v>638</v>
+        <v>1</v>
+      </c>
+      <c r="I295" s="2" t="s">
+        <v>496</v>
       </c>
       <c r="J295" s="2" t="s">
         <v>12</v>
       </c>
       <c r="K295" s="2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A296" s="19" t="s">
-        <v>672</v>
-      </c>
-      <c r="B296" s="13" t="s">
-        <v>701</v>
+      <c r="A296" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="B296" s="16" t="s">
+        <v>679</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>295</v>
+        <v>721</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="E296" s="2" t="s">
-        <v>550</v>
+        <v>531</v>
       </c>
       <c r="H296" s="2">
-        <v>2</v>
-      </c>
-      <c r="I296" s="4" t="s">
-        <v>639</v>
+        <v>1</v>
+      </c>
+      <c r="I296" s="2" t="s">
+        <v>497</v>
       </c>
       <c r="J296" s="2" t="s">
-        <v>636</v>
+        <v>12</v>
       </c>
       <c r="K296" s="2" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A297" s="19" t="s">
-        <v>672</v>
-      </c>
-      <c r="B297" s="12" t="s">
-        <v>702</v>
+      <c r="A297" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="B297" s="23" t="s">
+        <v>692</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>516</v>
+        <v>538</v>
       </c>
       <c r="H297" s="2">
         <v>1</v>
       </c>
-      <c r="I297" s="4" t="s">
-        <v>640</v>
+      <c r="I297" s="2" t="s">
+        <v>498</v>
       </c>
       <c r="J297" s="2" t="s">
-        <v>513</v>
+        <v>12</v>
+      </c>
+      <c r="K297" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A298" s="19" t="s">
-        <v>672</v>
-      </c>
-      <c r="B298" s="12" t="s">
-        <v>702</v>
+      <c r="A298" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="B298" s="23" t="s">
+        <v>692</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>297</v>
+        <v>781</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="E298" s="2" t="s">
-        <v>550</v>
+        <v>722</v>
       </c>
       <c r="H298" s="2">
-        <v>2</v>
-      </c>
-      <c r="I298" s="4" t="s">
-        <v>641</v>
+        <v>1</v>
+      </c>
+      <c r="I298" s="2" t="s">
+        <v>499</v>
       </c>
       <c r="J298" s="2" t="s">
-        <v>519</v>
+        <v>14</v>
       </c>
       <c r="K298" s="2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A299" s="19" t="s">
-        <v>672</v>
-      </c>
-      <c r="B299" s="12" t="s">
-        <v>702</v>
+      <c r="A299" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="B299" s="25" t="s">
+        <v>691</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>564</v>
+        <v>533</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H299" s="2">
         <v>2</v>
       </c>
-      <c r="I299" s="4" t="s">
-        <v>642</v>
+      <c r="I299" s="2" t="s">
+        <v>500</v>
       </c>
       <c r="J299" s="2" t="s">
-        <v>636</v>
+        <v>46</v>
       </c>
       <c r="K299" s="2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A300" s="19" t="s">
-        <v>672</v>
-      </c>
-      <c r="B300" s="27" t="s">
-        <v>693</v>
+      <c r="A300" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="B300" s="25" t="s">
+        <v>691</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>565</v>
+        <v>532</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H300" s="2">
         <v>2</v>
       </c>
-      <c r="I300" s="4" t="s">
-        <v>643</v>
+      <c r="I300" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="J300" s="2" t="s">
-        <v>513</v>
+        <v>47</v>
       </c>
       <c r="K300" s="2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A301" s="19" t="s">
-        <v>672</v>
-      </c>
-      <c r="B301" s="27" t="s">
-        <v>693</v>
+      <c r="A301" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="B301" s="25" t="s">
+        <v>691</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="E301" s="2" t="s">
-        <v>550</v>
+        <v>515</v>
       </c>
       <c r="H301" s="2">
-        <v>2</v>
-      </c>
-      <c r="I301" s="4" t="s">
-        <v>644</v>
+        <v>1</v>
+      </c>
+      <c r="I301" s="2" t="s">
+        <v>502</v>
       </c>
       <c r="J301" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K301" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K301" s="2" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A302" s="19" t="s">
-        <v>672</v>
-      </c>
-      <c r="B302" s="27" t="s">
-        <v>693</v>
+      <c r="A302" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="B302" s="25" t="s">
+        <v>691</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="E302" s="2" t="s">
-        <v>550</v>
+        <v>517</v>
       </c>
       <c r="H302" s="2">
-        <v>2</v>
-      </c>
-      <c r="I302" s="4" t="s">
-        <v>645</v>
+        <v>1</v>
+      </c>
+      <c r="I302" s="2" t="s">
+        <v>503</v>
       </c>
       <c r="J302" s="2" t="s">
-        <v>636</v>
+        <v>7</v>
       </c>
       <c r="K302" s="2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A303" s="19" t="s">
-        <v>672</v>
-      </c>
-      <c r="B303" s="14" t="s">
-        <v>684</v>
+      <c r="A303" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="B303" s="25" t="s">
+        <v>691</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="E303" s="2" t="s">
-        <v>550</v>
+        <v>523</v>
       </c>
       <c r="H303" s="2">
-        <v>2</v>
-      </c>
-      <c r="I303" s="4" t="s">
-        <v>646</v>
+        <v>1</v>
+      </c>
+      <c r="I303" s="2" t="s">
+        <v>504</v>
       </c>
       <c r="J303" s="2" t="s">
-        <v>513</v>
+        <v>8</v>
       </c>
       <c r="K303" s="2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A304" s="19" t="s">
-        <v>672</v>
-      </c>
-      <c r="B304" s="14" t="s">
-        <v>684</v>
+      <c r="A304" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="B304" s="25" t="s">
+        <v>691</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="E304" s="2" t="s">
-        <v>550</v>
+        <v>530</v>
       </c>
       <c r="H304" s="2">
-        <v>2</v>
-      </c>
-      <c r="I304" s="4" t="s">
-        <v>647</v>
+        <v>1</v>
+      </c>
+      <c r="I304" s="2" t="s">
+        <v>505</v>
       </c>
       <c r="J304" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K304" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K304" s="2" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A305" s="19" t="s">
-        <v>672</v>
-      </c>
-      <c r="B305" s="14" t="s">
-        <v>684</v>
+      <c r="A305" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="B305" s="25" t="s">
+        <v>691</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="E305" s="2" t="s">
-        <v>550</v>
+        <v>531</v>
       </c>
       <c r="H305" s="2">
-        <v>2</v>
-      </c>
-      <c r="I305" s="4" t="s">
-        <v>648</v>
+        <v>1</v>
+      </c>
+      <c r="I305" s="2" t="s">
+        <v>506</v>
       </c>
       <c r="J305" s="2" t="s">
         <v>12</v>
       </c>
       <c r="K305" s="2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A306" s="21" t="s">
-        <v>695</v>
-      </c>
-      <c r="B306" s="17" t="s">
-        <v>706</v>
+      <c r="A306" s="19" t="s">
+        <v>672</v>
+      </c>
+      <c r="B306" s="13" t="s">
+        <v>701</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>728</v>
+        <v>293</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>71</v>
+        <v>539</v>
       </c>
       <c r="H306" s="2">
         <v>1</v>
       </c>
-      <c r="I306" s="2" t="s">
-        <v>507</v>
+      <c r="I306" s="4" t="s">
+        <v>637</v>
       </c>
       <c r="J306" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K306" s="2" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A307" s="21" t="s">
-        <v>695</v>
-      </c>
-      <c r="B307" s="17" t="s">
-        <v>706</v>
+      <c r="A307" s="19" t="s">
+        <v>672</v>
+      </c>
+      <c r="B307" s="13" t="s">
+        <v>701</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>71</v>
+        <v>563</v>
+      </c>
+      <c r="E307" s="2" t="s">
+        <v>550</v>
       </c>
       <c r="H307" s="2">
-        <v>1</v>
-      </c>
-      <c r="I307" s="2" t="s">
-        <v>508</v>
+        <v>2</v>
+      </c>
+      <c r="I307" s="4" t="s">
+        <v>638</v>
       </c>
       <c r="J307" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K307" s="2" t="s">
-        <v>68</v>
+        <v>4</v>
       </c>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A308" s="21" t="s">
-        <v>695</v>
-      </c>
-      <c r="B308" s="24" t="s">
-        <v>707</v>
+      <c r="A308" s="19" t="s">
+        <v>672</v>
+      </c>
+      <c r="B308" s="13" t="s">
+        <v>701</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>72</v>
+        <v>564</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="H308" s="2">
         <v>2</v>
       </c>
-      <c r="I308" s="2" t="s">
+      <c r="I308" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="J308" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="K308" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A309" s="19" t="s">
+        <v>672</v>
+      </c>
+      <c r="B309" s="12" t="s">
+        <v>702</v>
+      </c>
+      <c r="C309" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="H309" s="2">
+        <v>1</v>
+      </c>
+      <c r="I309" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="J309" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A310" s="19" t="s">
+        <v>672</v>
+      </c>
+      <c r="B310" s="12" t="s">
+        <v>702</v>
+      </c>
+      <c r="C310" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="E310" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="H310" s="2">
+        <v>2</v>
+      </c>
+      <c r="I310" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="J310" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="K310" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A311" s="19" t="s">
+        <v>672</v>
+      </c>
+      <c r="B311" s="12" t="s">
+        <v>702</v>
+      </c>
+      <c r="C311" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D311" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="E311" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="H311" s="2">
+        <v>2</v>
+      </c>
+      <c r="I311" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="J311" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="K311" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A312" s="19" t="s">
+        <v>672</v>
+      </c>
+      <c r="B312" s="27" t="s">
+        <v>693</v>
+      </c>
+      <c r="C312" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="E312" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="H312" s="2">
+        <v>2</v>
+      </c>
+      <c r="I312" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="J312" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="K312" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A313" s="19" t="s">
+        <v>672</v>
+      </c>
+      <c r="B313" s="27" t="s">
+        <v>693</v>
+      </c>
+      <c r="C313" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D313" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="E313" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="H313" s="2">
+        <v>2</v>
+      </c>
+      <c r="I313" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="J313" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K313" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A314" s="19" t="s">
+        <v>672</v>
+      </c>
+      <c r="B314" s="27" t="s">
+        <v>693</v>
+      </c>
+      <c r="C314" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D314" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="E314" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="H314" s="2">
+        <v>2</v>
+      </c>
+      <c r="I314" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="J314" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="K314" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A315" s="19" t="s">
+        <v>672</v>
+      </c>
+      <c r="B315" s="14" t="s">
+        <v>684</v>
+      </c>
+      <c r="C315" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D315" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="E315" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="H315" s="2">
+        <v>2</v>
+      </c>
+      <c r="I315" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="J315" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="K315" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A316" s="19" t="s">
+        <v>672</v>
+      </c>
+      <c r="B316" s="14" t="s">
+        <v>684</v>
+      </c>
+      <c r="C316" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="E316" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="H316" s="2">
+        <v>2</v>
+      </c>
+      <c r="I316" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="J316" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K316" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A317" s="19" t="s">
+        <v>672</v>
+      </c>
+      <c r="B317" s="14" t="s">
+        <v>684</v>
+      </c>
+      <c r="C317" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D317" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="E317" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="H317" s="2">
+        <v>2</v>
+      </c>
+      <c r="I317" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="J317" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K317" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A318" s="21" t="s">
+        <v>695</v>
+      </c>
+      <c r="B318" s="17" t="s">
+        <v>706</v>
+      </c>
+      <c r="C318" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="D318" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H318" s="2">
+        <v>1</v>
+      </c>
+      <c r="I318" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="J318" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K318" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A319" s="21" t="s">
+        <v>695</v>
+      </c>
+      <c r="B319" s="17" t="s">
+        <v>706</v>
+      </c>
+      <c r="C319" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D319" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H319" s="2">
+        <v>1</v>
+      </c>
+      <c r="I319" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="J319" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K319" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A320" s="21" t="s">
+        <v>695</v>
+      </c>
+      <c r="B320" s="24" t="s">
+        <v>707</v>
+      </c>
+      <c r="C320" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D320" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E320" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="H320" s="2">
+        <v>2</v>
+      </c>
+      <c r="I320" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="J308" s="2" t="s">
+      <c r="J320" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="K308" s="2" t="s">
+      <c r="K320" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A309" s="21" t="s">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A321" s="21" t="s">
         <v>695</v>
       </c>
-      <c r="B309" s="24" t="s">
+      <c r="B321" s="24" t="s">
         <v>707</v>
       </c>
-      <c r="C309" s="3" t="s">
+      <c r="C321" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="D309" s="2" t="s">
+      <c r="D321" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E309" s="2" t="s">
+      <c r="E321" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="H309" s="2">
+      <c r="H321" s="2">
         <v>2</v>
       </c>
-      <c r="I309" s="2" t="s">
+      <c r="I321" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="J309" s="2" t="s">
+      <c r="J321" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="K309" s="2" t="s">
+      <c r="K321" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A310" s="20" t="s">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A322" s="20" t="s">
         <v>673</v>
       </c>
-      <c r="B310" s="13" t="s">
+      <c r="B322" s="13" t="s">
         <v>674</v>
       </c>
-      <c r="C310" s="3" t="s">
+      <c r="C322" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="D310" s="2" t="s">
+      <c r="D322" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="E310" s="2" t="s">
+      <c r="E322" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="F310" s="2" t="s">
+      <c r="F322" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="H310" s="2">
+      <c r="H322" s="2">
         <v>3</v>
       </c>
-      <c r="I310" s="2" t="s">
+      <c r="I322" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="J310" s="2" t="s">
+      <c r="J322" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="K310" s="2" t="s">
+      <c r="K322" s="2" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A311" s="20" t="s">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A323" s="20" t="s">
         <v>673</v>
       </c>
-      <c r="B311" s="15" t="s">
+      <c r="B323" s="15" t="s">
         <v>677</v>
       </c>
-      <c r="C311" s="3" t="s">
+      <c r="C323" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="D311" s="2" t="s">
+      <c r="D323" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="E311" s="2" t="s">
+      <c r="E323" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="F311" s="2" t="s">
+      <c r="F323" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="H311" s="2">
+      <c r="H323" s="2">
         <v>3</v>
       </c>
-      <c r="I311" s="2" t="s">
+      <c r="I323" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="J311" s="2" t="s">
+      <c r="J323" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="K311" s="2" t="s">
+      <c r="K323" s="2" t="s">
         <v>602</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K311" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K323" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Reference/AeroToolKitFunctionList.xlsx
+++ b/Reference/AeroToolKitFunctionList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fs272\AeroProgs\StdAtmoAddIn\AeroToolKitAddIn\Reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB7748A-BE67-4223-BCBE-C1C91922509C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85BD5A6-22D0-4BF7-B1A0-DC7042AF1405}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AeroToolKitFunctionList" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2786" uniqueCount="979">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2882" uniqueCount="1016">
   <si>
     <t>KCAS</t>
   </si>
@@ -2983,6 +2983,117 @@
   </si>
   <si>
     <t>metric ton ("tonne")</t>
+  </si>
+  <si>
+    <t>AeroPower_ftLbfPerSec_fTorqueLbfFtRevPerMin</t>
+  </si>
+  <si>
+    <t>AeroPower_ftLbfPerSec_fTorqueLbfFtRevPerSec</t>
+  </si>
+  <si>
+    <t>AeroPower_ftLbfPerSec_fTorqueLbfInchRevPerMin</t>
+  </si>
+  <si>
+    <t>AeroPower_ftLbfPerSec_fTorqueLbfInchRevPerSec</t>
+  </si>
+  <si>
+    <t>AeroPower_horsepower_fTorqueLbfFtRevPerMin</t>
+  </si>
+  <si>
+    <t>AeroPower_horsepower_fTorqueLbfFtRevPerSec</t>
+  </si>
+  <si>
+    <t>AeroPower_horsepower_fTorqueLbfInchRevPerMin</t>
+  </si>
+  <si>
+    <t>AeroPower_horsepower_fTorqueLbfInchRevPerSec</t>
+  </si>
+  <si>
+    <t>AeroPower_watts_fTorqueNewtonMeterRevPerMin</t>
+  </si>
+  <si>
+    <t>AeroPower_watts_fTorqueNewtonMeterRevPerSec</t>
+  </si>
+  <si>
+    <t>AeroPower_kilowatts_fTorqueNewtonMeterRevPerMin</t>
+  </si>
+  <si>
+    <t>AeroPower_kilowatts_fTorqueNewtonMeterRevPerSec</t>
+  </si>
+  <si>
+    <t>torqueLbfFt</t>
+  </si>
+  <si>
+    <t>revPerMin</t>
+  </si>
+  <si>
+    <t>revPerSec</t>
+  </si>
+  <si>
+    <t>torqueLbfInch</t>
+  </si>
+  <si>
+    <t>newtonMeter</t>
+  </si>
+  <si>
+    <t>lbf-ft/sec</t>
+  </si>
+  <si>
+    <t>watts</t>
+  </si>
+  <si>
+    <t>kilowatts</t>
+  </si>
+  <si>
+    <t>lbf-ft/sec, f(torque in lbf-ft, RPM)</t>
+  </si>
+  <si>
+    <t>lbf-ft/sec, f(torque in lbf-ft, RPS)</t>
+  </si>
+  <si>
+    <t>lbf-ft/sec, f(torque in lbf-inch, RPM)</t>
+  </si>
+  <si>
+    <t>lbf-ft/sec, f(torque in lbf-inch, RPS)</t>
+  </si>
+  <si>
+    <t>horsepower, f(torque in lbf-ft, RPS)</t>
+  </si>
+  <si>
+    <t>horsepower, f(torque in lbf-inch, RPM)</t>
+  </si>
+  <si>
+    <t>horsepower, f(torque in lbf-inch, RPS)</t>
+  </si>
+  <si>
+    <t>watts, f(torque in newton-meter, RPM)</t>
+  </si>
+  <si>
+    <t>watts, f(torque in newton-meter, RPS)</t>
+  </si>
+  <si>
+    <t>kilowatts, f(torque in newton-meter, RPM)</t>
+  </si>
+  <si>
+    <t>kilowatts, f(torque in newton-meter, RPS)</t>
+  </si>
+  <si>
+    <t>lbf-ft, RPM</t>
+  </si>
+  <si>
+    <t>lbf-ft, RPS</t>
+  </si>
+  <si>
+    <t>lbf-inch, RPM</t>
+  </si>
+  <si>
+    <t>lbf-inch, RPS</t>
+  </si>
+  <si>
+    <t>newton-meter, RPM</t>
+  </si>
+  <si>
+    <t>newton-meter, RPS</t>
   </si>
 </sst>
 </file>
@@ -3224,7 +3335,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3265,6 +3376,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -3674,17 +3786,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K365"/>
+  <dimension ref="A1:K377"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C103" sqref="C103"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
@@ -13868,6 +13978,354 @@
       </c>
       <c r="K365" s="2" t="s">
         <v>602</v>
+      </c>
+    </row>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A366" s="34" t="s">
+        <v>855</v>
+      </c>
+      <c r="B366" s="32" t="s">
+        <v>855</v>
+      </c>
+      <c r="C366" s="3" t="s">
+        <v>979</v>
+      </c>
+      <c r="D366" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="E366" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="H366" s="2">
+        <v>2</v>
+      </c>
+      <c r="I366" t="s">
+        <v>999</v>
+      </c>
+      <c r="J366" t="s">
+        <v>1010</v>
+      </c>
+      <c r="K366" s="2" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A367" s="34" t="s">
+        <v>855</v>
+      </c>
+      <c r="B367" s="32" t="s">
+        <v>855</v>
+      </c>
+      <c r="C367" s="3" t="s">
+        <v>980</v>
+      </c>
+      <c r="D367" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="E367" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="H367" s="2">
+        <v>2</v>
+      </c>
+      <c r="I367" t="s">
+        <v>1000</v>
+      </c>
+      <c r="J367" t="s">
+        <v>1011</v>
+      </c>
+      <c r="K367" s="2" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A368" s="34" t="s">
+        <v>855</v>
+      </c>
+      <c r="B368" s="32" t="s">
+        <v>855</v>
+      </c>
+      <c r="C368" s="3" t="s">
+        <v>981</v>
+      </c>
+      <c r="D368" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="E368" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="H368" s="2">
+        <v>2</v>
+      </c>
+      <c r="I368" t="s">
+        <v>1001</v>
+      </c>
+      <c r="J368" t="s">
+        <v>1012</v>
+      </c>
+      <c r="K368" s="2" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A369" s="34" t="s">
+        <v>855</v>
+      </c>
+      <c r="B369" s="32" t="s">
+        <v>855</v>
+      </c>
+      <c r="C369" s="3" t="s">
+        <v>982</v>
+      </c>
+      <c r="D369" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="E369" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="H369" s="2">
+        <v>2</v>
+      </c>
+      <c r="I369" t="s">
+        <v>1002</v>
+      </c>
+      <c r="J369" t="s">
+        <v>1013</v>
+      </c>
+      <c r="K369" s="2" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A370" s="34" t="s">
+        <v>855</v>
+      </c>
+      <c r="B370" s="32" t="s">
+        <v>855</v>
+      </c>
+      <c r="C370" s="3" t="s">
+        <v>983</v>
+      </c>
+      <c r="D370" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="E370" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="H370" s="2">
+        <v>2</v>
+      </c>
+      <c r="I370" t="s">
+        <v>999</v>
+      </c>
+      <c r="J370" t="s">
+        <v>1010</v>
+      </c>
+      <c r="K370" s="2" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A371" s="34" t="s">
+        <v>855</v>
+      </c>
+      <c r="B371" s="32" t="s">
+        <v>855</v>
+      </c>
+      <c r="C371" s="3" t="s">
+        <v>984</v>
+      </c>
+      <c r="D371" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="E371" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="H371" s="2">
+        <v>2</v>
+      </c>
+      <c r="I371" t="s">
+        <v>1003</v>
+      </c>
+      <c r="J371" t="s">
+        <v>1011</v>
+      </c>
+      <c r="K371" s="2" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A372" s="34" t="s">
+        <v>855</v>
+      </c>
+      <c r="B372" s="32" t="s">
+        <v>855</v>
+      </c>
+      <c r="C372" s="3" t="s">
+        <v>985</v>
+      </c>
+      <c r="D372" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="E372" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="H372" s="2">
+        <v>2</v>
+      </c>
+      <c r="I372" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J372" t="s">
+        <v>1012</v>
+      </c>
+      <c r="K372" s="2" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A373" s="34" t="s">
+        <v>855</v>
+      </c>
+      <c r="B373" s="32" t="s">
+        <v>855</v>
+      </c>
+      <c r="C373" s="3" t="s">
+        <v>986</v>
+      </c>
+      <c r="D373" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="E373" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="H373" s="2">
+        <v>2</v>
+      </c>
+      <c r="I373" t="s">
+        <v>1005</v>
+      </c>
+      <c r="J373" t="s">
+        <v>1013</v>
+      </c>
+      <c r="K373" s="2" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A374" s="34" t="s">
+        <v>855</v>
+      </c>
+      <c r="B374" s="32" t="s">
+        <v>855</v>
+      </c>
+      <c r="C374" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="D374" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="E374" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="H374" s="2">
+        <v>2</v>
+      </c>
+      <c r="I374" t="s">
+        <v>1006</v>
+      </c>
+      <c r="J374" t="s">
+        <v>1014</v>
+      </c>
+      <c r="K374" s="2" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A375" s="34" t="s">
+        <v>855</v>
+      </c>
+      <c r="B375" s="32" t="s">
+        <v>855</v>
+      </c>
+      <c r="C375" s="3" t="s">
+        <v>988</v>
+      </c>
+      <c r="D375" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="E375" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="H375" s="2">
+        <v>2</v>
+      </c>
+      <c r="I375" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J375" t="s">
+        <v>1015</v>
+      </c>
+      <c r="K375" s="2" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A376" s="34" t="s">
+        <v>855</v>
+      </c>
+      <c r="B376" s="32" t="s">
+        <v>855</v>
+      </c>
+      <c r="C376" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="D376" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="E376" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="H376" s="2">
+        <v>2</v>
+      </c>
+      <c r="I376" t="s">
+        <v>1008</v>
+      </c>
+      <c r="J376" t="s">
+        <v>1014</v>
+      </c>
+      <c r="K376" s="2" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A377" s="34" t="s">
+        <v>855</v>
+      </c>
+      <c r="B377" s="32" t="s">
+        <v>855</v>
+      </c>
+      <c r="C377" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="D377" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="E377" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="H377" s="2">
+        <v>2</v>
+      </c>
+      <c r="I377" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J377" t="s">
+        <v>1015</v>
+      </c>
+      <c r="K377" s="2" t="s">
+        <v>998</v>
       </c>
     </row>
   </sheetData>

--- a/Reference/AeroToolKitFunctionList.xlsx
+++ b/Reference/AeroToolKitFunctionList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fs272\AeroProgs\StdAtmoAddIn\AeroToolKitAddIn\Reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85BD5A6-22D0-4BF7-B1A0-DC7042AF1405}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C9FB7C-0013-4298-845C-5AD3C40A16A3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AeroToolKitFunctionList" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2882" uniqueCount="1016">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2966" uniqueCount="1043">
   <si>
     <t>KCAS</t>
   </si>
@@ -3033,9 +3033,6 @@
     <t>torqueLbfInch</t>
   </si>
   <si>
-    <t>newtonMeter</t>
-  </si>
-  <si>
     <t>lbf-ft/sec</t>
   </si>
   <si>
@@ -3045,39 +3042,6 @@
     <t>kilowatts</t>
   </si>
   <si>
-    <t>lbf-ft/sec, f(torque in lbf-ft, RPM)</t>
-  </si>
-  <si>
-    <t>lbf-ft/sec, f(torque in lbf-ft, RPS)</t>
-  </si>
-  <si>
-    <t>lbf-ft/sec, f(torque in lbf-inch, RPM)</t>
-  </si>
-  <si>
-    <t>lbf-ft/sec, f(torque in lbf-inch, RPS)</t>
-  </si>
-  <si>
-    <t>horsepower, f(torque in lbf-ft, RPS)</t>
-  </si>
-  <si>
-    <t>horsepower, f(torque in lbf-inch, RPM)</t>
-  </si>
-  <si>
-    <t>horsepower, f(torque in lbf-inch, RPS)</t>
-  </si>
-  <si>
-    <t>watts, f(torque in newton-meter, RPM)</t>
-  </si>
-  <si>
-    <t>watts, f(torque in newton-meter, RPS)</t>
-  </si>
-  <si>
-    <t>kilowatts, f(torque in newton-meter, RPM)</t>
-  </si>
-  <si>
-    <t>kilowatts, f(torque in newton-meter, RPS)</t>
-  </si>
-  <si>
     <t>lbf-ft, RPM</t>
   </si>
   <si>
@@ -3094,6 +3058,123 @@
   </si>
   <si>
     <t>newton-meter, RPS</t>
+  </si>
+  <si>
+    <t>AeroTorque_lbfFt_fPowerFtLbfPerSecRevPerMin</t>
+  </si>
+  <si>
+    <t>AeroTorque_lbfFt_fPowerFtLbfPerSecRevPerSec</t>
+  </si>
+  <si>
+    <t>AeroTorque_lbfFt_fPowerHorsepowerRevPerMin</t>
+  </si>
+  <si>
+    <t>AeroTorque_lbfFt_fPowerHorsepowerRevPerSec</t>
+  </si>
+  <si>
+    <t>AeroTorque_lbfInch_fPowerFtLbfPerSecRevPerMin</t>
+  </si>
+  <si>
+    <t>AeroTorque_lbfInch_fPowerFtLbfPerSecRevPerSec</t>
+  </si>
+  <si>
+    <t>AeroTorque_lbfInch_fPowerHorsepowerRevPerMin</t>
+  </si>
+  <si>
+    <t>AeroTorque_lbfInch_fPowerHorsepowerRevPerSec</t>
+  </si>
+  <si>
+    <t>AeroTorque_newtonMeter_fPowerKilowattsRevPerMin</t>
+  </si>
+  <si>
+    <t>AeroTorque_newtonMeter_fPowerKilowattsRevPerSec</t>
+  </si>
+  <si>
+    <t>AeroTorque_newtonMeter_fPowerWattsRevPerMin</t>
+  </si>
+  <si>
+    <t>AeroTorque_newtonMeter_fPowerWattsRevPerSec</t>
+  </si>
+  <si>
+    <t>torqueNewtonMeter</t>
+  </si>
+  <si>
+    <t>powerFtLbfPerSec</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> revPerMin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> revPerSec</t>
+  </si>
+  <si>
+    <t>powerHorsepower</t>
+  </si>
+  <si>
+    <t>powerKilowatts</t>
+  </si>
+  <si>
+    <t>powerWatts</t>
+  </si>
+  <si>
+    <t>lbf-ft/sec, RPM</t>
+  </si>
+  <si>
+    <t>lbf-ft/sec, RPS</t>
+  </si>
+  <si>
+    <t>horsepower, RPM</t>
+  </si>
+  <si>
+    <t>horsepower, RPS</t>
+  </si>
+  <si>
+    <t>watts, RPM</t>
+  </si>
+  <si>
+    <t>watts, RPS</t>
+  </si>
+  <si>
+    <t>kilowatts, RPM</t>
+  </si>
+  <si>
+    <t>kilowatts, RPS</t>
+  </si>
+  <si>
+    <t>Power in lbf-ft/sec, f(torque in lbf-ft, RPM)</t>
+  </si>
+  <si>
+    <t>Power in lbf-ft/sec, f(torque in lbf-ft, RPS)</t>
+  </si>
+  <si>
+    <t>Power in lbf-ft/sec, f(torque in lbf-inch, RPM)</t>
+  </si>
+  <si>
+    <t>Power in lbf-ft/sec, f(torque in lbf-inch, RPS)</t>
+  </si>
+  <si>
+    <t>Power in horsepower, f(torque in lbf-ft, RPM)</t>
+  </si>
+  <si>
+    <t>Power in horsepower, f(torque in lbf-ft, RPS)</t>
+  </si>
+  <si>
+    <t>Power in horsepower, f(torque in lbf-inch, RPM)</t>
+  </si>
+  <si>
+    <t>Power in horsepower, f(torque in lbf-inch, RPS)</t>
+  </si>
+  <si>
+    <t>Power in watts, f(torque in newton-meter, RPM)</t>
+  </si>
+  <si>
+    <t>Power in watts, f(torque in newton-meter, RPS)</t>
+  </si>
+  <si>
+    <t>Power in kilowatts, f(torque in newton-meter, RPM)</t>
+  </si>
+  <si>
+    <t>Power in kilowatts, f(torque in newton-meter, RPS)</t>
   </si>
 </sst>
 </file>
@@ -3143,7 +3224,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="29">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3311,6 +3392,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -3376,7 +3463,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -3786,7 +3873,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K377"/>
+  <dimension ref="A1:K389"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
@@ -3795,7 +3882,7 @@
     <col min="1" max="1" width="27.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="54.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
@@ -14000,13 +14087,13 @@
         <v>2</v>
       </c>
       <c r="I366" t="s">
-        <v>999</v>
+        <v>1031</v>
       </c>
       <c r="J366" t="s">
-        <v>1010</v>
+        <v>998</v>
       </c>
       <c r="K366" s="2" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.25">
@@ -14029,13 +14116,13 @@
         <v>2</v>
       </c>
       <c r="I367" t="s">
-        <v>1000</v>
+        <v>1032</v>
       </c>
       <c r="J367" t="s">
-        <v>1011</v>
+        <v>999</v>
       </c>
       <c r="K367" s="2" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.25">
@@ -14058,13 +14145,13 @@
         <v>2</v>
       </c>
       <c r="I368" t="s">
-        <v>1001</v>
+        <v>1033</v>
       </c>
       <c r="J368" t="s">
-        <v>1012</v>
+        <v>1000</v>
       </c>
       <c r="K368" s="2" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.25">
@@ -14087,13 +14174,13 @@
         <v>2</v>
       </c>
       <c r="I369" t="s">
-        <v>1002</v>
+        <v>1034</v>
       </c>
       <c r="J369" t="s">
-        <v>1013</v>
+        <v>1001</v>
       </c>
       <c r="K369" s="2" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.25">
@@ -14116,10 +14203,10 @@
         <v>2</v>
       </c>
       <c r="I370" t="s">
-        <v>999</v>
+        <v>1035</v>
       </c>
       <c r="J370" t="s">
-        <v>1010</v>
+        <v>998</v>
       </c>
       <c r="K370" s="2" t="s">
         <v>869</v>
@@ -14145,10 +14232,10 @@
         <v>2</v>
       </c>
       <c r="I371" t="s">
-        <v>1003</v>
+        <v>1036</v>
       </c>
       <c r="J371" t="s">
-        <v>1011</v>
+        <v>999</v>
       </c>
       <c r="K371" s="2" t="s">
         <v>869</v>
@@ -14174,10 +14261,10 @@
         <v>2</v>
       </c>
       <c r="I372" t="s">
-        <v>1004</v>
+        <v>1037</v>
       </c>
       <c r="J372" t="s">
-        <v>1012</v>
+        <v>1000</v>
       </c>
       <c r="K372" s="2" t="s">
         <v>869</v>
@@ -14203,10 +14290,10 @@
         <v>2</v>
       </c>
       <c r="I373" t="s">
-        <v>1005</v>
+        <v>1038</v>
       </c>
       <c r="J373" t="s">
-        <v>1013</v>
+        <v>1001</v>
       </c>
       <c r="K373" s="2" t="s">
         <v>869</v>
@@ -14223,7 +14310,7 @@
         <v>987</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>995</v>
+        <v>1016</v>
       </c>
       <c r="E374" s="2" t="s">
         <v>992</v>
@@ -14232,13 +14319,13 @@
         <v>2</v>
       </c>
       <c r="I374" t="s">
-        <v>1006</v>
+        <v>1039</v>
       </c>
       <c r="J374" t="s">
-        <v>1014</v>
+        <v>1002</v>
       </c>
       <c r="K374" s="2" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.25">
@@ -14252,7 +14339,7 @@
         <v>988</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>995</v>
+        <v>1016</v>
       </c>
       <c r="E375" s="2" t="s">
         <v>993</v>
@@ -14261,13 +14348,13 @@
         <v>2</v>
       </c>
       <c r="I375" t="s">
-        <v>1007</v>
+        <v>1040</v>
       </c>
       <c r="J375" t="s">
-        <v>1015</v>
+        <v>1003</v>
       </c>
       <c r="K375" s="2" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.25">
@@ -14281,7 +14368,7 @@
         <v>989</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>995</v>
+        <v>1016</v>
       </c>
       <c r="E376" s="2" t="s">
         <v>992</v>
@@ -14290,13 +14377,13 @@
         <v>2</v>
       </c>
       <c r="I376" t="s">
-        <v>1008</v>
+        <v>1041</v>
       </c>
       <c r="J376" t="s">
-        <v>1014</v>
+        <v>1002</v>
       </c>
       <c r="K376" s="2" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.25">
@@ -14310,7 +14397,7 @@
         <v>990</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>995</v>
+        <v>1016</v>
       </c>
       <c r="E377" s="2" t="s">
         <v>993</v>
@@ -14319,13 +14406,373 @@
         <v>2</v>
       </c>
       <c r="I377" t="s">
+        <v>1042</v>
+      </c>
+      <c r="J377" t="s">
+        <v>1003</v>
+      </c>
+      <c r="K377" s="2" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A378" s="6" t="s">
+        <v>824</v>
+      </c>
+      <c r="B378" s="25" t="s">
+        <v>824</v>
+      </c>
+      <c r="C378" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D378" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E378" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H378" s="2">
+        <v>2</v>
+      </c>
+      <c r="I378" s="2" t="str">
+        <f>"Torque in " &amp;K378&amp;", f("&amp;J378&amp;")"</f>
+        <v>Torque in lbf-ft, f(lbf-ft/sec, RPM)</v>
+      </c>
+      <c r="J378" t="s">
+        <v>1023</v>
+      </c>
+      <c r="K378" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A379" s="6" t="s">
+        <v>824</v>
+      </c>
+      <c r="B379" s="25" t="s">
+        <v>824</v>
+      </c>
+      <c r="C379" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D379" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E379" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H379" s="2">
+        <v>2</v>
+      </c>
+      <c r="I379" s="2" t="str">
+        <f t="shared" ref="I379:I389" si="0">"Torque in " &amp;K379&amp;", f("&amp;J379&amp;")"</f>
+        <v>Torque in lbf-ft, f(lbf-ft/sec, RPS)</v>
+      </c>
+      <c r="J379" t="s">
+        <v>1024</v>
+      </c>
+      <c r="K379" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A380" s="6" t="s">
+        <v>824</v>
+      </c>
+      <c r="B380" s="25" t="s">
+        <v>824</v>
+      </c>
+      <c r="C380" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D380" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E380" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H380" s="2">
+        <v>2</v>
+      </c>
+      <c r="I380" s="2" t="str">
+        <f>"Torque in " &amp;K380&amp;", f("&amp;J380&amp;")"</f>
+        <v>Torque in lbf-ft, f(horsepower, RPM)</v>
+      </c>
+      <c r="J380" t="s">
+        <v>1025</v>
+      </c>
+      <c r="K380" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A381" s="6" t="s">
+        <v>824</v>
+      </c>
+      <c r="B381" s="25" t="s">
+        <v>824</v>
+      </c>
+      <c r="C381" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D381" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E381" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H381" s="2">
+        <v>2</v>
+      </c>
+      <c r="I381" s="2" t="str">
+        <f>"Torque in " &amp;K381&amp;", f("&amp;J381&amp;")"</f>
+        <v>Torque in lbf-ft, f(horsepower, RPS)</v>
+      </c>
+      <c r="J381" t="s">
+        <v>1026</v>
+      </c>
+      <c r="K381" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A382" s="6" t="s">
+        <v>824</v>
+      </c>
+      <c r="B382" s="25" t="s">
+        <v>824</v>
+      </c>
+      <c r="C382" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D382" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E382" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H382" s="2">
+        <v>2</v>
+      </c>
+      <c r="I382" s="2" t="str">
+        <f>"Torque in " &amp;K382&amp;", f("&amp;J382&amp;")"</f>
+        <v>Torque in lbf-inch, f(lbf-ft/sec, RPM)</v>
+      </c>
+      <c r="J382" t="s">
+        <v>1023</v>
+      </c>
+      <c r="K382" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A383" s="6" t="s">
+        <v>824</v>
+      </c>
+      <c r="B383" s="25" t="s">
+        <v>824</v>
+      </c>
+      <c r="C383" t="s">
         <v>1009</v>
       </c>
-      <c r="J377" t="s">
+      <c r="D383" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E383" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H383" s="2">
+        <v>2</v>
+      </c>
+      <c r="I383" s="2" t="str">
+        <f>"Torque in " &amp;K383&amp;", f("&amp;J383&amp;")"</f>
+        <v>Torque in lbf-inch, f(lbf-ft/sec, RPS)</v>
+      </c>
+      <c r="J383" t="s">
+        <v>1024</v>
+      </c>
+      <c r="K383" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A384" s="6" t="s">
+        <v>824</v>
+      </c>
+      <c r="B384" s="25" t="s">
+        <v>824</v>
+      </c>
+      <c r="C384" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D384" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E384" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H384" s="2">
+        <v>2</v>
+      </c>
+      <c r="I384" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Torque in lbf-inch, f(horsepower, RPM)</v>
+      </c>
+      <c r="J384" t="s">
+        <v>1025</v>
+      </c>
+      <c r="K384" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A385" s="6" t="s">
+        <v>824</v>
+      </c>
+      <c r="B385" s="25" t="s">
+        <v>824</v>
+      </c>
+      <c r="C385" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D385" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E385" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H385" s="2">
+        <v>2</v>
+      </c>
+      <c r="I385" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Torque in lbf-inch, f(horsepower, RPS)</v>
+      </c>
+      <c r="J385" t="s">
+        <v>1026</v>
+      </c>
+      <c r="K385" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A386" s="6" t="s">
+        <v>824</v>
+      </c>
+      <c r="B386" s="25" t="s">
+        <v>824</v>
+      </c>
+      <c r="C386" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D386" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E386" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H386" s="2">
+        <v>2</v>
+      </c>
+      <c r="I386" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Torque in newton-meter, f(watts, RPM)</v>
+      </c>
+      <c r="J386" t="s">
+        <v>1027</v>
+      </c>
+      <c r="K386" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A387" s="6" t="s">
+        <v>824</v>
+      </c>
+      <c r="B387" s="25" t="s">
+        <v>824</v>
+      </c>
+      <c r="C387" t="s">
         <v>1015</v>
       </c>
-      <c r="K377" s="2" t="s">
-        <v>998</v>
+      <c r="D387" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E387" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H387" s="2">
+        <v>2</v>
+      </c>
+      <c r="I387" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Torque in newton-meter, f(watts, RPS)</v>
+      </c>
+      <c r="J387" t="s">
+        <v>1028</v>
+      </c>
+      <c r="K387" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A388" s="6" t="s">
+        <v>824</v>
+      </c>
+      <c r="B388" s="25" t="s">
+        <v>824</v>
+      </c>
+      <c r="C388" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D388" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E388" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H388" s="2">
+        <v>2</v>
+      </c>
+      <c r="I388" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Torque in newton-meter, f(kilowatts, RPM)</v>
+      </c>
+      <c r="J388" t="s">
+        <v>1029</v>
+      </c>
+      <c r="K388" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A389" s="6" t="s">
+        <v>824</v>
+      </c>
+      <c r="B389" s="25" t="s">
+        <v>824</v>
+      </c>
+      <c r="C389" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D389" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E389" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H389" s="2">
+        <v>2</v>
+      </c>
+      <c r="I389" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Torque in newton-meter, f(kilowatts, RPS)</v>
+      </c>
+      <c r="J389" t="s">
+        <v>1030</v>
+      </c>
+      <c r="K389" t="s">
+        <v>853</v>
       </c>
     </row>
   </sheetData>
